--- a/Database/Import_base_ERP_economatica.xlsx
+++ b/Database/Import_base_ERP_economatica.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bteba\Documents\GitHub\ERP\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C75E091-AEDB-4782-8A51-9634170BD4D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEADF2AC-A2B7-475E-922E-63C0E15DD4E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3332,9 +3332,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M540"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A511" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R521" sqref="R521"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3425,13 +3425,13 @@
         <v>4.3148861111999999</v>
       </c>
       <c r="K2">
-        <v>5.8524173028000002</v>
+        <v>5.6087331687999997</v>
       </c>
       <c r="L2" t="s">
         <v>952</v>
       </c>
       <c r="M2">
-        <v>810631.97889000003</v>
+        <v>531043.44424999994</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -3457,7 +3457,7 @@
         <v>8</v>
       </c>
       <c r="H3">
-        <v>2.2358852971000001E-2</v>
+        <v>2.3601531764999999E-2</v>
       </c>
       <c r="I3">
         <v>0.25141337336000003</v>
@@ -3466,13 +3466,13 @@
         <v>1.2717959779000001</v>
       </c>
       <c r="K3">
-        <v>2.2575063612999999</v>
+        <v>2.1331246362999998</v>
       </c>
       <c r="L3" t="s">
         <v>953</v>
       </c>
       <c r="M3">
-        <v>70392.214382000006</v>
+        <v>64319.497342000002</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -3542,13 +3542,13 @@
         <v>5.1567003383000003</v>
       </c>
       <c r="K5">
-        <v>4.7267175572999998</v>
+        <v>4.7378243332999999</v>
       </c>
       <c r="L5" t="s">
         <v>955</v>
       </c>
       <c r="M5">
-        <v>65037.898103</v>
+        <v>67454.400863999996</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -3583,13 +3583,13 @@
         <v>2.0526222364</v>
       </c>
       <c r="K6">
-        <v>1.9155216285000001</v>
+        <v>2.0849637790000002</v>
       </c>
       <c r="L6" t="s">
         <v>956</v>
       </c>
       <c r="M6">
-        <v>16.893044253999999</v>
+        <v>18.994610621</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -3624,13 +3624,13 @@
         <v>2.0526222364</v>
       </c>
       <c r="K7">
-        <v>2.0865139948999998</v>
+        <v>2.2575401841999998</v>
       </c>
       <c r="L7" t="s">
         <v>956</v>
       </c>
       <c r="M7">
-        <v>423.55129001</v>
+        <v>182.75367309999999</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -3665,13 +3665,13 @@
         <v>0.21759596163</v>
       </c>
       <c r="K8">
-        <v>0.16081424935999999</v>
+        <v>0.13444905986</v>
       </c>
       <c r="L8" t="s">
         <v>957</v>
       </c>
       <c r="M8">
-        <v>21990.15958</v>
+        <v>12936.441392000001</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -3706,13 +3706,13 @@
         <v>1.4828028627000001</v>
       </c>
       <c r="K9">
-        <v>2.3083969465999998</v>
+        <v>2.0949972909999999</v>
       </c>
       <c r="L9" t="s">
         <v>954</v>
       </c>
       <c r="M9">
-        <v>134920.56651999999</v>
+        <v>115962.14647000001</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -3782,13 +3782,13 @@
         <v>0.82811116878000002</v>
       </c>
       <c r="K11">
-        <v>1.6284987277</v>
+        <v>1.6234222302000001</v>
       </c>
       <c r="L11" t="s">
         <v>954</v>
       </c>
       <c r="M11">
-        <v>20.330336146</v>
+        <v>8.2293882722999996</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -3858,13 +3858,13 @@
         <v>1.2216886597000001</v>
       </c>
       <c r="K13">
-        <v>0.58218829517000004</v>
+        <v>0.34515281039000001</v>
       </c>
       <c r="L13" t="s">
         <v>953</v>
       </c>
       <c r="M13">
-        <v>1940.8598449000001</v>
+        <v>2062.6179778999999</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -3898,14 +3898,11 @@
       <c r="J14">
         <v>3.6255375922000002</v>
       </c>
-      <c r="K14">
-        <v>2.3328244274999999</v>
-      </c>
       <c r="L14" t="s">
         <v>958</v>
       </c>
       <c r="M14">
-        <v>66.726654174999993</v>
+        <v>27.324003926</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -3943,7 +3940,7 @@
         <v>958</v>
       </c>
       <c r="M15">
-        <v>4.2244794311999998</v>
+        <v>1.1724040347</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -3977,11 +3974,14 @@
       <c r="J16">
         <v>3.6255375922000002</v>
       </c>
+      <c r="K16">
+        <v>2.4702506370999999</v>
+      </c>
       <c r="L16" t="s">
         <v>958</v>
       </c>
       <c r="M16">
-        <v>21.376244810999999</v>
+        <v>58.000971902000003</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -4019,7 +4019,7 @@
         <v>958</v>
       </c>
       <c r="M17">
-        <v>3.7367191468000001</v>
+        <v>1.3587453416999999</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -4057,7 +4057,7 @@
         <v>958</v>
       </c>
       <c r="M18">
-        <v>10.016178576</v>
+        <v>35.332099473</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -4091,11 +4091,14 @@
       <c r="J19">
         <v>3.6255375922000002</v>
       </c>
+      <c r="K19">
+        <v>2.5083779824999999</v>
+      </c>
       <c r="L19" t="s">
         <v>958</v>
       </c>
       <c r="M19">
-        <v>22.764343156999999</v>
+        <v>23.336514693000002</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -4129,11 +4132,14 @@
       <c r="J20">
         <v>3.6255375922000002</v>
       </c>
+      <c r="K20">
+        <v>2.4080428631999999</v>
+      </c>
       <c r="L20" t="s">
         <v>958</v>
       </c>
       <c r="M20">
-        <v>11.228232968</v>
+        <v>11.912655854</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -4165,13 +4171,13 @@
         <v>2.0732178545000002</v>
       </c>
       <c r="K21">
-        <v>1.217302799</v>
+        <v>1.3444905986</v>
       </c>
       <c r="L21" t="s">
         <v>955</v>
       </c>
       <c r="M21">
-        <v>175.74904358000001</v>
+        <v>203.94501829999999</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -4203,13 +4209,13 @@
         <v>2.0732178545000002</v>
       </c>
       <c r="K22">
-        <v>1.1358778625999999</v>
+        <v>1.3304436819000001</v>
       </c>
       <c r="L22" t="s">
         <v>955</v>
       </c>
       <c r="M22">
-        <v>1970.5767140999999</v>
+        <v>736.55178277000005</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -4243,11 +4249,14 @@
       <c r="J23">
         <v>2.5955340252000001</v>
       </c>
+      <c r="K23">
+        <v>1.5271005156999999</v>
+      </c>
       <c r="L23" t="s">
         <v>958</v>
       </c>
       <c r="M23">
-        <v>69.325534915999995</v>
+        <v>61.246999850000002</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -4282,13 +4291,13 @@
         <v>2.5955340252000001</v>
       </c>
       <c r="K24">
-        <v>1.5633587786000001</v>
+        <v>1.6214155279</v>
       </c>
       <c r="L24" t="s">
         <v>958</v>
       </c>
       <c r="M24">
-        <v>77.845189000999994</v>
+        <v>37.818586598000003</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -4322,11 +4331,14 @@
       <c r="J25">
         <v>2.5955340252000001</v>
       </c>
+      <c r="K25">
+        <v>1.5250938133</v>
+      </c>
       <c r="L25" t="s">
         <v>958</v>
       </c>
       <c r="M25">
-        <v>15.264915029999999</v>
+        <v>71.839772797999998</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -4360,14 +4372,11 @@
       <c r="J26">
         <v>3.8649527769000001</v>
       </c>
-      <c r="K26">
-        <v>2.2188295165</v>
-      </c>
       <c r="L26" t="s">
         <v>955</v>
       </c>
       <c r="M26">
-        <v>145.01481473000001</v>
+        <v>137.95157318</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -4402,13 +4411,13 @@
         <v>3.8649527769000001</v>
       </c>
       <c r="K27">
-        <v>2.1027989821999999</v>
+        <v>2.3919892440999999</v>
       </c>
       <c r="L27" t="s">
         <v>955</v>
       </c>
       <c r="M27">
-        <v>1311.6336424000001</v>
+        <v>626.44494565000002</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -4621,13 +4630,13 @@
         <v>1.7167553402</v>
       </c>
       <c r="K33">
-        <v>1.7180661578</v>
+        <v>1.7056970280999999</v>
       </c>
       <c r="L33" t="s">
         <v>958</v>
       </c>
       <c r="M33">
-        <v>4609.7523750999999</v>
+        <v>2098.8923693000002</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -4662,13 +4671,13 @@
         <v>3.3262171463999999</v>
       </c>
       <c r="K34">
-        <v>1.4330788804000001</v>
+        <v>1.513053599</v>
       </c>
       <c r="L34" t="s">
         <v>960</v>
       </c>
       <c r="M34">
-        <v>1027.5498854</v>
+        <v>598.89416065</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -4703,13 +4712,13 @@
         <v>5.2001831515000001</v>
       </c>
       <c r="K35">
-        <v>5.0117048345999997</v>
+        <v>4.9545481909999998</v>
       </c>
       <c r="L35" t="s">
         <v>958</v>
       </c>
       <c r="M35">
-        <v>502305.10128</v>
+        <v>350684.57766000001</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -4744,13 +4753,13 @@
         <v>1.5944054218000001</v>
       </c>
       <c r="K36">
-        <v>1.9338422392000001</v>
+        <v>2.1652318744999999</v>
       </c>
       <c r="L36" t="s">
         <v>961</v>
       </c>
       <c r="M36">
-        <v>146.29755157</v>
+        <v>211.82159134</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -4785,13 +4794,13 @@
         <v>1.5944054218000001</v>
       </c>
       <c r="K37">
-        <v>1.7648854962</v>
+        <v>2.0408163264999999</v>
       </c>
       <c r="L37" t="s">
         <v>961</v>
       </c>
       <c r="M37">
-        <v>163430.78638000001</v>
+        <v>196993.48454</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -4826,13 +4835,13 @@
         <v>4.8835486196</v>
       </c>
       <c r="K38">
-        <v>8.9241730280000002</v>
+        <v>8.8716312483999999</v>
       </c>
       <c r="L38" t="s">
         <v>955</v>
       </c>
       <c r="M38">
-        <v>7186.0545388</v>
+        <v>993.63803728000005</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -4867,13 +4876,13 @@
         <v>-4.4414043947000001</v>
       </c>
       <c r="K39">
-        <v>1.0564885496</v>
+        <v>0.92308309754999995</v>
       </c>
       <c r="L39" t="s">
         <v>962</v>
       </c>
       <c r="M39">
-        <v>22.762656265</v>
+        <v>43.877689922000002</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -4908,13 +4917,13 @@
         <v>1.6472084617</v>
       </c>
       <c r="K40">
-        <v>1.9949109414999999</v>
+        <v>2.0046956836000001</v>
       </c>
       <c r="L40" t="s">
         <v>954</v>
       </c>
       <c r="M40">
-        <v>458.34926209999998</v>
+        <v>438.46163687000001</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -4949,13 +4958,13 @@
         <v>1.6472084617</v>
       </c>
       <c r="K41">
-        <v>1.9826972009999999</v>
+        <v>1.996668874</v>
       </c>
       <c r="L41" t="s">
         <v>954</v>
       </c>
       <c r="M41">
-        <v>921.57279927000002</v>
+        <v>609.86689406000005</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -4990,13 +4999,13 @@
         <v>1.6472084617</v>
       </c>
       <c r="K42">
-        <v>5.9684478372000003</v>
+        <v>5.9759597054000002</v>
       </c>
       <c r="L42" t="s">
         <v>954</v>
       </c>
       <c r="M42">
-        <v>87276.609626999998</v>
+        <v>65892.986275999996</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -5031,13 +5040,13 @@
         <v>20.702573059999999</v>
       </c>
       <c r="K43">
-        <v>18.589312976999999</v>
+        <v>18.307145866999999</v>
       </c>
       <c r="L43" t="s">
         <v>955</v>
       </c>
       <c r="M43">
-        <v>894.39288769999996</v>
+        <v>791.85969412999998</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -5072,13 +5081,13 @@
         <v>1.1448651956</v>
       </c>
       <c r="K44">
-        <v>2.6870229008000002</v>
+        <v>2.5244316014999999</v>
       </c>
       <c r="L44" t="s">
         <v>963</v>
       </c>
       <c r="M44">
-        <v>1009935.7351</v>
+        <v>1279989.7002000001</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -5113,13 +5122,13 @@
         <v>1.7499055085999999</v>
       </c>
       <c r="K45">
-        <v>2.9292620865000001</v>
+        <v>2.9659061265000002</v>
       </c>
       <c r="L45" t="s">
         <v>958</v>
       </c>
       <c r="M45">
-        <v>58602.173691999997</v>
+        <v>42050.592703000002</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -5147,14 +5156,20 @@
       <c r="H46">
         <v>0</v>
       </c>
+      <c r="I46">
+        <v>-3.7788847137000001</v>
+      </c>
+      <c r="J46">
+        <v>-6.9001459774000002</v>
+      </c>
       <c r="K46">
-        <v>0.16895674299999999</v>
+        <v>0.10234182168</v>
       </c>
       <c r="L46" t="s">
         <v>960</v>
       </c>
       <c r="M46">
-        <v>57082.244653000002</v>
+        <v>53426.320587000002</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -5192,7 +5207,7 @@
         <v>954</v>
       </c>
       <c r="M47">
-        <v>2.4010804527</v>
+        <v>0.48288062846000002</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -5227,13 +5242,13 @@
         <v>1.3500722803</v>
       </c>
       <c r="K48">
-        <v>0.89770992367000002</v>
+        <v>1.0274316215999999</v>
       </c>
       <c r="L48" t="s">
         <v>958</v>
       </c>
       <c r="M48">
-        <v>122873.25953</v>
+        <v>96344.881307000003</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -5268,13 +5283,13 @@
         <v>5.2079994453999996</v>
       </c>
       <c r="K49">
-        <v>11.788295164999999</v>
+        <v>11.885698231999999</v>
       </c>
       <c r="L49" t="s">
         <v>961</v>
       </c>
       <c r="M49">
-        <v>723413.98011</v>
+        <v>615909.89664000005</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -5309,13 +5324,13 @@
         <v>0.70115511412999998</v>
       </c>
       <c r="K50">
-        <v>2.9984732824</v>
+        <v>2.5444986254000002</v>
       </c>
       <c r="L50" t="s">
         <v>958</v>
       </c>
       <c r="M50">
-        <v>34285.284119999997</v>
+        <v>32655.744906</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -5350,13 +5365,13 @@
         <v>0.63907525132999998</v>
       </c>
       <c r="K51">
-        <v>2.8091603052999998</v>
+        <v>2.8495173881000002</v>
       </c>
       <c r="L51" t="s">
         <v>960</v>
       </c>
       <c r="M51">
-        <v>687776.86055999994</v>
+        <v>586559.67128000001</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -5391,13 +5406,13 @@
         <v>-0.12538904441000001</v>
       </c>
       <c r="K52">
-        <v>0.62086513995000003</v>
+        <v>0.60201071578999998</v>
       </c>
       <c r="L52" t="s">
         <v>958</v>
       </c>
       <c r="M52">
-        <v>710.42631997000001</v>
+        <v>71.828416387000004</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -5432,13 +5447,13 @@
         <v>0.15349070169000001</v>
       </c>
       <c r="K53">
-        <v>0.44783715012999997</v>
+        <v>0.38127345333000001</v>
       </c>
       <c r="L53" t="s">
         <v>964</v>
       </c>
       <c r="M53">
-        <v>120.88336525</v>
+        <v>119.20605084</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -5473,13 +5488,13 @@
         <v>4.6971752485999998</v>
       </c>
       <c r="K54">
-        <v>6.6157760814</v>
+        <v>6.1806433488000003</v>
       </c>
       <c r="L54" t="s">
         <v>965</v>
       </c>
       <c r="M54">
-        <v>6903.3592183000001</v>
+        <v>7209.7441408000004</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -5514,13 +5529,13 @@
         <v>2.7882418724</v>
       </c>
       <c r="K55">
-        <v>2.6849872773999999</v>
+        <v>2.4944559966000002</v>
       </c>
       <c r="L55" t="s">
         <v>954</v>
       </c>
       <c r="M55">
-        <v>234233.57354000001</v>
+        <v>257404.49116999999</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -5555,13 +5570,13 @@
         <v>0.30018637734999998</v>
       </c>
       <c r="K56">
-        <v>0.33180661577999998</v>
+        <v>0.30100535789999999</v>
       </c>
       <c r="L56" t="s">
         <v>962</v>
       </c>
       <c r="M56">
-        <v>3478.9338478999998</v>
+        <v>2429.7184686000001</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
@@ -5596,13 +5611,13 @@
         <v>0.30018637734999998</v>
       </c>
       <c r="K57">
-        <v>0.32569974554999997</v>
+        <v>0.30100535789999999</v>
       </c>
       <c r="L57" t="s">
         <v>962</v>
       </c>
       <c r="M57">
-        <v>18798.890436000002</v>
+        <v>11532.335622000001</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
@@ -5637,13 +5652,13 @@
         <v>-12.229161753</v>
       </c>
       <c r="K58">
-        <v>2.9048346056000001</v>
+        <v>2.4261031846000001</v>
       </c>
       <c r="L58" t="s">
         <v>959</v>
       </c>
       <c r="M58">
-        <v>933621.87884000002</v>
+        <v>627919.55145000003</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -5669,7 +5684,7 @@
         <v>695</v>
       </c>
       <c r="H59">
-        <v>8.5102122197000002E-2</v>
+        <v>9.1441689894000006E-2</v>
       </c>
       <c r="I59">
         <v>0.14583432306999999</v>
@@ -5678,13 +5693,13 @@
         <v>0.71462907285999999</v>
       </c>
       <c r="K59">
-        <v>2.6910941475999999</v>
+        <v>2.5745991612000001</v>
       </c>
       <c r="L59" t="s">
         <v>955</v>
       </c>
       <c r="M59">
-        <v>1795840.4682</v>
+        <v>2068671.7176999999</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -5718,11 +5733,14 @@
       <c r="J60">
         <v>0.32607541257</v>
       </c>
+      <c r="K60">
+        <v>1.3043565508999999</v>
+      </c>
       <c r="L60" t="s">
         <v>958</v>
       </c>
       <c r="M60">
-        <v>140.78766395</v>
+        <v>78.809894576000005</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -5757,13 +5775,13 @@
         <v>1.334437994</v>
       </c>
       <c r="K61">
-        <v>0.66768447837</v>
+        <v>0.80067425199999998</v>
       </c>
       <c r="L61" t="s">
         <v>955</v>
       </c>
       <c r="M61">
-        <v>19359.787261000001</v>
+        <v>20212.970164999999</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -5798,13 +5816,13 @@
         <v>1.2592169903999999</v>
       </c>
       <c r="K62">
-        <v>1.6264631043</v>
+        <v>1.7578712901</v>
       </c>
       <c r="L62" t="s">
         <v>955</v>
       </c>
       <c r="M62">
-        <v>64453.210111</v>
+        <v>94631.446922000003</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -5830,7 +5848,7 @@
         <v>805</v>
       </c>
       <c r="H63">
-        <v>0.67574089018000005</v>
+        <v>0.45014892760000003</v>
       </c>
       <c r="I63">
         <v>0.79575287523000005</v>
@@ -5838,11 +5856,14 @@
       <c r="J63">
         <v>7.2846770787999997</v>
       </c>
+      <c r="K63">
+        <v>5.6187666807000003</v>
+      </c>
       <c r="L63" t="s">
         <v>955</v>
       </c>
       <c r="M63">
-        <v>6.1535689593000003</v>
+        <v>38.903527408000002</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -5868,7 +5889,7 @@
         <v>701</v>
       </c>
       <c r="H64">
-        <v>0.74331497928000001</v>
+        <v>0.49516382046000001</v>
       </c>
       <c r="I64">
         <v>0.79575287523000005</v>
@@ -5877,13 +5898,13 @@
         <v>7.2846770787999997</v>
       </c>
       <c r="K64">
-        <v>5.1501272265000004</v>
+        <v>5.6187666807000003</v>
       </c>
       <c r="L64" t="s">
         <v>955</v>
       </c>
       <c r="M64">
-        <v>178.30900342000001</v>
+        <v>425.79113049</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -5909,7 +5930,7 @@
         <v>703</v>
       </c>
       <c r="H65">
-        <v>0.13265359206999999</v>
+        <v>0.13292654434000001</v>
       </c>
       <c r="I65">
         <v>0.22272863574000001</v>
@@ -5918,13 +5939,13 @@
         <v>1.3772141631999999</v>
       </c>
       <c r="K65">
-        <v>1.9597988506999999</v>
+        <v>1.8997918840000001</v>
       </c>
       <c r="L65" t="s">
         <v>955</v>
       </c>
       <c r="M65">
-        <v>516.45498816999998</v>
+        <v>423.45926327000001</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -5950,7 +5971,7 @@
         <v>806</v>
       </c>
       <c r="H66">
-        <v>0.13265359206999999</v>
+        <v>0.13292654434000001</v>
       </c>
       <c r="I66">
         <v>0.22272863574000001</v>
@@ -5959,13 +5980,13 @@
         <v>1.3772141631999999</v>
       </c>
       <c r="K66">
-        <v>2.0289760756000002</v>
+        <v>1.9941340006999999</v>
       </c>
       <c r="L66" t="s">
         <v>955</v>
       </c>
       <c r="M66">
-        <v>223.80101927000001</v>
+        <v>169.34351996000001</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
@@ -6038,13 +6059,13 @@
         <v>4.6419917997000004</v>
       </c>
       <c r="K68">
-        <v>2.9211195928999998</v>
+        <v>3.0521943291000002</v>
       </c>
       <c r="L68" t="s">
         <v>955</v>
       </c>
       <c r="M68">
-        <v>718.96158666999997</v>
+        <v>554.37105288999999</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -6082,7 +6103,7 @@
         <v>955</v>
       </c>
       <c r="M69">
-        <v>10.375763559999999</v>
+        <v>1.4864870629</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
@@ -6117,13 +6138,13 @@
         <v>4.6419917997000004</v>
       </c>
       <c r="K70">
-        <v>2.9312977098999999</v>
+        <v>3.0963417815000001</v>
       </c>
       <c r="L70" t="s">
         <v>955</v>
       </c>
       <c r="M70">
-        <v>75925.651144999996</v>
+        <v>76587.100684000005</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -6161,7 +6182,7 @@
         <v>957</v>
       </c>
       <c r="M71">
-        <v>1.5846250736</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -6199,7 +6220,7 @@
         <v>957</v>
       </c>
       <c r="M72">
-        <v>9.0953582347000008</v>
+        <v>2.0365613576000001</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
@@ -6237,7 +6258,7 @@
         <v>958</v>
       </c>
       <c r="M73">
-        <v>2.4184864773000001</v>
+        <v>0.46983789589000002</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
@@ -6275,7 +6296,7 @@
         <v>958</v>
       </c>
       <c r="M74">
-        <v>14.095636437</v>
+        <v>7.2991269278999997</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
@@ -6336,7 +6357,7 @@
         <v>709</v>
       </c>
       <c r="H76">
-        <v>0.68606003475999999</v>
+        <v>0.57625067643000005</v>
       </c>
       <c r="I76">
         <v>0.76569248255</v>
@@ -6345,13 +6366,13 @@
         <v>1.0695546105</v>
       </c>
       <c r="K76">
-        <v>6.6151373008999999</v>
+        <v>6.6903457548</v>
       </c>
       <c r="L76" t="s">
         <v>955</v>
       </c>
       <c r="M76">
-        <v>652244.96398</v>
+        <v>729423.50138999999</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
@@ -6386,13 +6407,13 @@
         <v>2.4991922244999998</v>
       </c>
       <c r="K77">
-        <v>2.5180661577999999</v>
+        <v>2.7050348163</v>
       </c>
       <c r="L77" t="s">
         <v>966</v>
       </c>
       <c r="M77">
-        <v>17946.590338000002</v>
+        <v>12675.748576</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
@@ -6462,13 +6483,13 @@
         <v>89.868896802999998</v>
       </c>
       <c r="K79">
-        <v>73.282442747999994</v>
+        <v>72.241285895000004</v>
       </c>
       <c r="L79" t="s">
         <v>967</v>
       </c>
       <c r="M79">
-        <v>36.882315341000002</v>
+        <v>29.250671024999999</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
@@ -6503,13 +6524,13 @@
         <v>0.22191104527</v>
       </c>
       <c r="K80">
-        <v>1.0951653943999999</v>
+        <v>1.9846286597</v>
       </c>
       <c r="L80" t="s">
         <v>958</v>
       </c>
       <c r="M80">
-        <v>351.75833655000002</v>
+        <v>2247.8735505999998</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
@@ -6544,13 +6565,13 @@
         <v>2.2195133123000002</v>
       </c>
       <c r="K81">
-        <v>2.5954198473000001</v>
+        <v>2.4903176610000002</v>
       </c>
       <c r="L81" t="s">
         <v>968</v>
       </c>
       <c r="M81">
-        <v>24346.439651000001</v>
+        <v>16266.945819</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
@@ -6585,13 +6606,13 @@
         <v>1.575323501</v>
       </c>
       <c r="K82">
-        <v>3.2162849872999999</v>
+        <v>3.0702546504999999</v>
       </c>
       <c r="L82" t="s">
         <v>953</v>
       </c>
       <c r="M82">
-        <v>13136.872310000001</v>
+        <v>17754.923583</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
@@ -6664,13 +6685,13 @@
         <v>-5.5151880766999999E-2</v>
       </c>
       <c r="K84">
-        <v>0.46819338422000001</v>
+        <v>0.48160857263000001</v>
       </c>
       <c r="L84" t="s">
         <v>968</v>
       </c>
       <c r="M84">
-        <v>1453.0493111999999</v>
+        <v>326.95126484999997</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -6705,13 +6726,13 @@
         <v>0.4919612666</v>
       </c>
       <c r="K85">
-        <v>3.2223918574999999</v>
+        <v>3.1705897697999998</v>
       </c>
       <c r="L85" t="s">
         <v>955</v>
       </c>
       <c r="M85">
-        <v>22868.045415000001</v>
+        <v>16220.759827</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -6737,7 +6758,7 @@
         <v>813</v>
       </c>
       <c r="H86">
-        <v>0.20754807196</v>
+        <v>0.20764255355</v>
       </c>
       <c r="I86">
         <v>0.27864692996000001</v>
@@ -6746,13 +6767,13 @@
         <v>3.0173663794999999</v>
       </c>
       <c r="K86">
-        <v>2.7954682176999999</v>
+        <v>2.4648103236000001</v>
       </c>
       <c r="L86" t="s">
         <v>955</v>
       </c>
       <c r="M86">
-        <v>305480.24271000002</v>
+        <v>551535.16676000005</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
@@ -6778,7 +6799,7 @@
         <v>714</v>
       </c>
       <c r="H87">
-        <v>0.22830288004999999</v>
+        <v>0.22840680981</v>
       </c>
       <c r="I87">
         <v>0.27864692996000001</v>
@@ -6787,13 +6808,13 @@
         <v>3.0173663794999999</v>
       </c>
       <c r="K87">
-        <v>3.1553745501999999</v>
+        <v>2.7554218972000002</v>
       </c>
       <c r="L87" t="s">
         <v>955</v>
       </c>
       <c r="M87">
-        <v>2385760.1060000001</v>
+        <v>3835419.6601</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
@@ -6828,13 +6849,13 @@
         <v>4.0761142704999997</v>
       </c>
       <c r="K88">
-        <v>4.4274809160000004</v>
+        <v>4.0354784981999998</v>
       </c>
       <c r="L88" t="s">
         <v>958</v>
       </c>
       <c r="M88">
-        <v>5663.3554566000003</v>
+        <v>6078.1149161000003</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
@@ -6869,13 +6890,13 @@
         <v>4.0761142704999997</v>
       </c>
       <c r="K89">
-        <v>4.7267175572999998</v>
+        <v>4.2542090582999998</v>
       </c>
       <c r="L89" t="s">
         <v>958</v>
       </c>
       <c r="M89">
-        <v>279610.50523000001</v>
+        <v>428535.05891999998</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
@@ -6901,7 +6922,7 @@
         <v>716</v>
       </c>
       <c r="H90">
-        <v>0.91305384588000005</v>
+        <v>0.92470962849000005</v>
       </c>
       <c r="I90">
         <v>2.3501374840000002</v>
@@ -6910,13 +6931,13 @@
         <v>11.628949622</v>
       </c>
       <c r="K90">
-        <v>11.431665959</v>
+        <v>11.610780005000001</v>
       </c>
       <c r="L90" t="s">
         <v>955</v>
       </c>
       <c r="M90">
-        <v>1908394.8234000001</v>
+        <v>2402296.3530999999</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
@@ -6951,13 +6972,13 @@
         <v>4.5124036540999999</v>
       </c>
       <c r="K91">
-        <v>5.1603053435000001</v>
+        <v>4.7598980595000002</v>
       </c>
       <c r="L91" t="s">
         <v>953</v>
       </c>
       <c r="M91">
-        <v>28815.776054999998</v>
+        <v>37603.739741999998</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
@@ -6992,13 +7013,13 @@
         <v>1.2588906149000001</v>
       </c>
       <c r="K92">
-        <v>3.9307888041000001</v>
+        <v>4.1598940460999998</v>
       </c>
       <c r="L92" t="s">
         <v>968</v>
       </c>
       <c r="M92">
-        <v>1832.6760532000001</v>
+        <v>1171.2145364999999</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
@@ -7033,13 +7054,13 @@
         <v>1.2588906149000001</v>
       </c>
       <c r="K93">
-        <v>3.7760814249000001</v>
+        <v>4.2221018200999998</v>
       </c>
       <c r="L93" t="s">
         <v>968</v>
       </c>
       <c r="M93">
-        <v>253326.27739999999</v>
+        <v>287341.71836</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
@@ -7073,11 +7094,14 @@
       <c r="J94">
         <v>1.2588906149000001</v>
       </c>
+      <c r="K94">
+        <v>2.9799530432000001</v>
+      </c>
       <c r="L94" t="s">
         <v>968</v>
       </c>
       <c r="M94">
-        <v>1.5279463301</v>
+        <v>2.1266733012999999</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
@@ -7112,13 +7136,13 @@
         <v>1.3573049114</v>
       </c>
       <c r="K95">
-        <v>2.6890585242</v>
+        <v>2.3177412558000001</v>
       </c>
       <c r="L95" t="s">
         <v>955</v>
       </c>
       <c r="M95">
-        <v>45.144941250999999</v>
+        <v>29.763047519000001</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
@@ -7153,13 +7177,13 @@
         <v>1.3573049114</v>
       </c>
       <c r="K96">
-        <v>2.4223918575000001</v>
+        <v>2.2896474223999999</v>
       </c>
       <c r="L96" t="s">
         <v>955</v>
       </c>
       <c r="M96">
-        <v>61.519127583</v>
+        <v>18.353624987</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
@@ -7194,13 +7218,13 @@
         <v>1.6799637113999999</v>
       </c>
       <c r="K97">
-        <v>2.9740458015</v>
+        <v>3.0301206027999998</v>
       </c>
       <c r="L97" t="s">
         <v>963</v>
       </c>
       <c r="M97">
-        <v>514472.16162000003</v>
+        <v>478202.80835000001</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
@@ -7235,13 +7259,13 @@
         <v>0.66341197926999995</v>
       </c>
       <c r="K98">
-        <v>0.65547073790999999</v>
+        <v>0.70635923986000004</v>
       </c>
       <c r="L98" t="s">
         <v>958</v>
       </c>
       <c r="M98">
-        <v>7281.7490414000004</v>
+        <v>7743.4160518999997</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
@@ -7311,13 +7335,13 @@
         <v>0.83436802177000002</v>
       </c>
       <c r="K100">
-        <v>3.6681933841999999</v>
+        <v>3.5538699254999999</v>
       </c>
       <c r="L100" t="s">
         <v>955</v>
       </c>
       <c r="M100">
-        <v>453.87973302</v>
+        <v>402.85203374000002</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
@@ -7352,13 +7376,13 @@
         <v>0.83436802177000002</v>
       </c>
       <c r="K101">
-        <v>1.9236641220999999</v>
+        <v>1.8401460879</v>
       </c>
       <c r="L101" t="s">
         <v>955</v>
       </c>
       <c r="M101">
-        <v>482.88096738000002</v>
+        <v>315.14628842000002</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
@@ -7393,13 +7417,13 @@
         <v>0.83436802177000002</v>
       </c>
       <c r="K102">
-        <v>7.5399491094000002</v>
+        <v>7.3023899825000003</v>
       </c>
       <c r="L102" t="s">
         <v>955</v>
       </c>
       <c r="M102">
-        <v>1291490.9855</v>
+        <v>1056420.2287999999</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
@@ -7469,13 +7493,13 @@
         <v>0.95071418110999995</v>
       </c>
       <c r="K104">
-        <v>2.8437659033</v>
+        <v>2.8836313285999999</v>
       </c>
       <c r="L104" t="s">
         <v>955</v>
       </c>
       <c r="M104">
-        <v>246708.40443</v>
+        <v>527559.70947</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
@@ -7510,13 +7534,13 @@
         <v>1.0440463862</v>
       </c>
       <c r="K105">
-        <v>2.3307888041</v>
+        <v>2.3057010414999999</v>
       </c>
       <c r="L105" t="s">
         <v>961</v>
       </c>
       <c r="M105">
-        <v>4297.3630061000003</v>
+        <v>1462.9497312999999</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
@@ -7542,7 +7566,7 @@
         <v>109</v>
       </c>
       <c r="H106">
-        <v>5.7945562462E-2</v>
+        <v>5.8995656184000003E-2</v>
       </c>
       <c r="I106">
         <v>0.15868168886</v>
@@ -7551,13 +7575,13 @@
         <v>1.7350121060000001</v>
       </c>
       <c r="K106">
-        <v>1.8046174437</v>
+        <v>1.71573054</v>
       </c>
       <c r="L106" t="s">
         <v>963</v>
       </c>
       <c r="M106">
-        <v>34547.514127000002</v>
+        <v>18664.096255</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
@@ -7592,13 +7616,13 @@
         <v>1.873547675</v>
       </c>
       <c r="K107">
-        <v>2.1801526718000002</v>
+        <v>2.4261031846000001</v>
       </c>
       <c r="L107" t="s">
         <v>960</v>
       </c>
       <c r="M107">
-        <v>392786.42573999998</v>
+        <v>366375.25942999998</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
@@ -7709,13 +7733,13 @@
         <v>9.3602254028999994</v>
       </c>
       <c r="K110">
-        <v>1.7709923664</v>
+        <v>1.8140589569000001</v>
       </c>
       <c r="L110" t="s">
         <v>960</v>
       </c>
       <c r="M110">
-        <v>159383.78906000001</v>
+        <v>181112.53661000001</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
@@ -7750,13 +7774,13 @@
         <v>1.6034474042</v>
       </c>
       <c r="K111">
-        <v>0.84478371501000005</v>
+        <v>0.80268095438999998</v>
       </c>
       <c r="L111" t="s">
         <v>965</v>
       </c>
       <c r="M111">
-        <v>73431.258824999997</v>
+        <v>62217.401546000001</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
@@ -7791,13 +7815,13 @@
         <v>1.2551647057999999</v>
       </c>
       <c r="K112">
-        <v>2.7012722646</v>
+        <v>2.7652358878999999</v>
       </c>
       <c r="L112" t="s">
         <v>959</v>
       </c>
       <c r="M112">
-        <v>265075.62109999999</v>
+        <v>472626.62874000001</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
@@ -7832,13 +7856,13 @@
         <v>1.8576100253000001</v>
       </c>
       <c r="K113">
-        <v>1.5755725191000001</v>
+        <v>1.8802801357000001</v>
       </c>
       <c r="L113" t="s">
         <v>960</v>
       </c>
       <c r="M113">
-        <v>90621.22666</v>
+        <v>133396.13782</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
@@ -7873,13 +7897,13 @@
         <v>2.8963390335999999</v>
       </c>
       <c r="K114">
-        <v>3.8290076335999998</v>
+        <v>4.0615656292000004</v>
       </c>
       <c r="L114" t="s">
         <v>954</v>
       </c>
       <c r="M114">
-        <v>490.07765941000002</v>
+        <v>431.00794746000003</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
@@ -7914,13 +7938,13 @@
         <v>2.8963390335999999</v>
       </c>
       <c r="K115">
-        <v>3.5684478371999999</v>
+        <v>3.7726004855999999</v>
       </c>
       <c r="L115" t="s">
         <v>954</v>
       </c>
       <c r="M115">
-        <v>438.83878929000002</v>
+        <v>751.27167855000005</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
@@ -7955,13 +7979,13 @@
         <v>2.8963390335999999</v>
       </c>
       <c r="K116">
-        <v>4.3562340966999997</v>
+        <v>4.0134047719000003</v>
       </c>
       <c r="L116" t="s">
         <v>954</v>
       </c>
       <c r="M116">
-        <v>721.66400365000004</v>
+        <v>698.54521440999997</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
@@ -7995,11 +8019,14 @@
       <c r="J117">
         <v>3.6977793754000001</v>
       </c>
+      <c r="K117">
+        <v>5.2776272751000004</v>
+      </c>
       <c r="L117" t="s">
         <v>961</v>
       </c>
       <c r="M117">
-        <v>40.709290762999998</v>
+        <v>293.87916371</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
@@ -8034,13 +8061,13 @@
         <v>3.6977793754000001</v>
       </c>
       <c r="K118">
-        <v>5.5368956743000002</v>
+        <v>5.1371581081000004</v>
       </c>
       <c r="L118" t="s">
         <v>961</v>
       </c>
       <c r="M118">
-        <v>270.56582097</v>
+        <v>205.16583939</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
@@ -8078,7 +8105,7 @@
         <v>954</v>
       </c>
       <c r="M119">
-        <v>0.95886785014999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
@@ -8116,7 +8143,7 @@
         <v>954</v>
       </c>
       <c r="M120">
-        <v>1.3292893962000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
@@ -8224,7 +8251,7 @@
         <v>952</v>
       </c>
       <c r="M123">
-        <v>0</v>
+        <v>4.1989127599999998</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
@@ -8262,7 +8289,7 @@
         <v>954</v>
       </c>
       <c r="M124">
-        <v>88.899151282999995</v>
+        <v>15.699851695</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
@@ -8297,13 +8324,13 @@
         <v>16.502773501</v>
       </c>
       <c r="K125">
-        <v>13.656997455000001</v>
+        <v>13.493066842999999</v>
       </c>
       <c r="L125" t="s">
         <v>954</v>
       </c>
       <c r="M125">
-        <v>1324.8651983</v>
+        <v>671.76667728999996</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
@@ -8375,11 +8402,14 @@
       <c r="J127">
         <v>-1.3523972587999999</v>
       </c>
+      <c r="K127">
+        <v>1.2220817530999999</v>
+      </c>
       <c r="L127" t="s">
         <v>958</v>
       </c>
       <c r="M127">
-        <v>2.9161451376</v>
+        <v>32.288626712999999</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
@@ -8414,13 +8444,13 @@
         <v>-1.3523972587999999</v>
       </c>
       <c r="K128">
-        <v>2.1374045802000001</v>
+        <v>1.1980013244000001</v>
       </c>
       <c r="L128" t="s">
         <v>958</v>
       </c>
       <c r="M128">
-        <v>103.42653032</v>
+        <v>57.028340004999997</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
@@ -8455,13 +8485,13 @@
         <v>2.2168082725999998</v>
       </c>
       <c r="K129">
-        <v>3.0473282443</v>
+        <v>3.0140669836999998</v>
       </c>
       <c r="L129" t="s">
         <v>954</v>
       </c>
       <c r="M129">
-        <v>31524.352606</v>
+        <v>13972.681398999999</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
@@ -8496,13 +8526,13 @@
         <v>2.2168082725999998</v>
       </c>
       <c r="K130">
-        <v>2.3694656488999999</v>
+        <v>2.402022756</v>
       </c>
       <c r="L130" t="s">
         <v>954</v>
       </c>
       <c r="M130">
-        <v>611855.77263999998</v>
+        <v>474912.65622</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
@@ -8537,13 +8567,13 @@
         <v>0.88629338925000001</v>
       </c>
       <c r="K131">
-        <v>0.99745547073999996</v>
+        <v>1.0735857765000001</v>
       </c>
       <c r="L131" t="s">
         <v>966</v>
       </c>
       <c r="M131">
-        <v>634390.06336999999</v>
+        <v>833001.90388</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
@@ -8648,13 +8678,13 @@
         <v>0.76094097343</v>
       </c>
       <c r="K134">
-        <v>0.63104325699999997</v>
+        <v>0.73244637087999998</v>
       </c>
       <c r="L134" t="s">
         <v>960</v>
       </c>
       <c r="M134">
-        <v>15860.174566</v>
+        <v>18698.232816</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
@@ -8689,13 +8719,13 @@
         <v>4.5143822632999999</v>
       </c>
       <c r="K135">
-        <v>8</v>
+        <v>7.9826620913999999</v>
       </c>
       <c r="L135" t="s">
         <v>954</v>
       </c>
       <c r="M135">
-        <v>146.43489418999999</v>
+        <v>82.946591150000003</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
@@ -8729,14 +8759,11 @@
       <c r="J136">
         <v>4.5143822632999999</v>
       </c>
-      <c r="K136">
-        <v>7.5012722645999999</v>
-      </c>
       <c r="L136" t="s">
         <v>954</v>
       </c>
       <c r="M136">
-        <v>14.711851944999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
@@ -8809,7 +8836,7 @@
         <v>954</v>
       </c>
       <c r="M138">
-        <v>0</v>
+        <v>4.8730482100000003</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
@@ -8844,13 +8871,13 @@
         <v>10.881418519</v>
       </c>
       <c r="K139">
-        <v>8.3216284987000009</v>
+        <v>8.5686191880999996</v>
       </c>
       <c r="L139" t="s">
         <v>954</v>
       </c>
       <c r="M139">
-        <v>3906.6463798999998</v>
+        <v>3475.3634849999999</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
@@ -8923,13 +8950,13 @@
         <v>1.2890541384</v>
       </c>
       <c r="K141">
-        <v>0.61679389312999999</v>
+        <v>0.50568900126000005</v>
       </c>
       <c r="L141" t="s">
         <v>958</v>
       </c>
       <c r="M141">
-        <v>288608.75975000003</v>
+        <v>395762.83241999999</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
@@ -9002,7 +9029,7 @@
         <v>952</v>
       </c>
       <c r="M143">
-        <v>84.587740663000005</v>
+        <v>68.591020529999994</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
@@ -9037,13 +9064,13 @@
         <v>0.66954376631000001</v>
       </c>
       <c r="K144">
-        <v>23.816793893</v>
+        <v>22.232255733999999</v>
       </c>
       <c r="L144" t="s">
         <v>952</v>
       </c>
       <c r="M144">
-        <v>730.97210777999999</v>
+        <v>624.29905055999996</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
@@ -9221,7 +9248,7 @@
         <v>962</v>
       </c>
       <c r="M149">
-        <v>4.9370992009999997</v>
+        <v>1.7730496454</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
@@ -9256,13 +9283,13 @@
         <v>4.1558673683</v>
       </c>
       <c r="K150">
-        <v>4.3928753180999998</v>
+        <v>4.1478538318</v>
       </c>
       <c r="L150" t="s">
         <v>958</v>
       </c>
       <c r="M150">
-        <v>114875.89384999999</v>
+        <v>127210.64053</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
@@ -9297,13 +9324,13 @@
         <v>1.5567709240000001</v>
       </c>
       <c r="K151">
-        <v>1.8381679389000001</v>
+        <v>1.8421527902999999</v>
       </c>
       <c r="L151" t="s">
         <v>954</v>
       </c>
       <c r="M151">
-        <v>256767.07733999999</v>
+        <v>178969.16931</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
@@ -9338,13 +9365,13 @@
         <v>1.5567709240000001</v>
       </c>
       <c r="K152">
-        <v>4.9872773536999997</v>
+        <v>4.3986916300000001</v>
       </c>
       <c r="L152" t="s">
         <v>954</v>
       </c>
       <c r="M152">
-        <v>15.062555814</v>
+        <v>12.723562166000001</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
@@ -9379,13 +9406,13 @@
         <v>1.5567709240000001</v>
       </c>
       <c r="K153">
-        <v>2.0498727735000002</v>
+        <v>2.0508498385</v>
       </c>
       <c r="L153" t="s">
         <v>954</v>
       </c>
       <c r="M153">
-        <v>603218.99589000002</v>
+        <v>487043.47722</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
@@ -9420,13 +9447,13 @@
         <v>1.9762723611999999</v>
       </c>
       <c r="K154">
-        <v>3.7801526717999998</v>
+        <v>3.4113940560999998</v>
       </c>
       <c r="L154" t="s">
         <v>952</v>
       </c>
       <c r="M154">
-        <v>515890.21321999998</v>
+        <v>475482.41833000001</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
@@ -9460,11 +9487,14 @@
       <c r="J155">
         <v>1.6990488699999999</v>
       </c>
+      <c r="K155">
+        <v>5.3980294183000002</v>
+      </c>
       <c r="L155" t="s">
         <v>954</v>
       </c>
       <c r="M155">
-        <v>21.637990932000001</v>
+        <v>8.5650828592000003</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
@@ -9502,7 +9532,7 @@
         <v>954</v>
       </c>
       <c r="M156">
-        <v>5.4770662227000004</v>
+        <v>0.56704563779999995</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
@@ -9540,7 +9570,7 @@
         <v>954</v>
       </c>
       <c r="M157">
-        <v>2.0856925651</v>
+        <v>1.0259212043999999</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
@@ -9568,14 +9598,11 @@
       <c r="H158">
         <v>0</v>
       </c>
-      <c r="K158">
-        <v>2.0254452926000002</v>
-      </c>
       <c r="L158" t="s">
         <v>961</v>
       </c>
       <c r="M158">
-        <v>157.48778390999999</v>
+        <v>13.462479257</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
@@ -9604,13 +9631,13 @@
         <v>0</v>
       </c>
       <c r="K159">
-        <v>0.30330788803999997</v>
+        <v>0.26889811972</v>
       </c>
       <c r="L159" t="s">
         <v>961</v>
       </c>
       <c r="M159">
-        <v>730.16533126000002</v>
+        <v>443.01930220000003</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
@@ -9645,13 +9672,13 @@
         <v>3.1495070386999999</v>
       </c>
       <c r="K160">
-        <v>7.5521628499000002</v>
+        <v>7.1017197440000004</v>
       </c>
       <c r="L160" t="s">
         <v>954</v>
       </c>
       <c r="M160">
-        <v>292155.77220000001</v>
+        <v>275611.43411999999</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.25">
@@ -9689,7 +9716,7 @@
         <v>968</v>
       </c>
       <c r="M161">
-        <v>2.4929096257999999</v>
+        <v>3.7633883665000001</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.25">
@@ -9724,13 +9751,13 @@
         <v>4.7684165109999999</v>
       </c>
       <c r="K162">
-        <v>7.4483460560000001</v>
+        <v>7.1258001726</v>
       </c>
       <c r="L162" t="s">
         <v>968</v>
       </c>
       <c r="M162">
-        <v>482.02211392999999</v>
+        <v>389.62959561999998</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
@@ -9764,14 +9791,11 @@
       <c r="J163">
         <v>4.7684165109999999</v>
       </c>
-      <c r="K163">
-        <v>7.4503816794000004</v>
-      </c>
       <c r="L163" t="s">
         <v>968</v>
       </c>
       <c r="M163">
-        <v>142.15854965</v>
+        <v>105.79949784999999</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
@@ -9806,13 +9830,13 @@
         <v>0.78859336214999998</v>
       </c>
       <c r="K164">
-        <v>0.83053435114999996</v>
+        <v>0.92508979992999996</v>
       </c>
       <c r="L164" t="s">
         <v>958</v>
       </c>
       <c r="M164">
-        <v>10193.275068000001</v>
+        <v>8528.5929453999997</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
@@ -9847,13 +9871,13 @@
         <v>0.41663260986</v>
       </c>
       <c r="K165">
-        <v>1.3882951654</v>
+        <v>1.2180683483000001</v>
       </c>
       <c r="L165" t="s">
         <v>965</v>
       </c>
       <c r="M165">
-        <v>231762.55319999999</v>
+        <v>154487.66321</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
@@ -9888,13 +9912,13 @@
         <v>1.9976906594999999</v>
       </c>
       <c r="K166">
-        <v>3.8839694655999999</v>
+        <v>3.9190897597999999</v>
       </c>
       <c r="L166" t="s">
         <v>958</v>
       </c>
       <c r="M166">
-        <v>6239.5477205999996</v>
+        <v>4741.2688078000001</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
@@ -9964,13 +9988,13 @@
         <v>0.63596264838000005</v>
       </c>
       <c r="K168">
-        <v>3.7557251907999998</v>
+        <v>3.8689222001000001</v>
       </c>
       <c r="L168" t="s">
         <v>962</v>
       </c>
       <c r="M168">
-        <v>127783.55530000001</v>
+        <v>135778.92983000001</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
@@ -10005,13 +10029,13 @@
         <v>0.19633074879000001</v>
       </c>
       <c r="K169">
-        <v>0.62493638676999996</v>
+        <v>0.67224529929999999</v>
       </c>
       <c r="L169" t="s">
         <v>959</v>
       </c>
       <c r="M169">
-        <v>288234.8113</v>
+        <v>195812.95705999999</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
@@ -10046,13 +10070,13 @@
         <v>4.1451637929</v>
       </c>
       <c r="K170">
-        <v>4.6493638677</v>
+        <v>4.8261192382999996</v>
       </c>
       <c r="L170" t="s">
         <v>962</v>
       </c>
       <c r="M170">
-        <v>571401.41509000002</v>
+        <v>360288.28005</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
@@ -10087,13 +10111,13 @@
         <v>3.4002463242999998</v>
       </c>
       <c r="K171">
-        <v>1.2315521628999999</v>
+        <v>1.1839544076999999</v>
       </c>
       <c r="L171" t="s">
         <v>960</v>
       </c>
       <c r="M171">
-        <v>1556.8287350000001</v>
+        <v>1846.5993659999999</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
@@ -10128,13 +10152,13 @@
         <v>2.1239849998999998</v>
       </c>
       <c r="K172">
-        <v>1.7486005089000001</v>
+        <v>1.5893082896999999</v>
       </c>
       <c r="L172" t="s">
         <v>958</v>
       </c>
       <c r="M172">
-        <v>11319.810707000001</v>
+        <v>11734.681267</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
@@ -10169,13 +10193,13 @@
         <v>2.1849159572999999</v>
       </c>
       <c r="K173">
-        <v>2.7175572519000002</v>
+        <v>2.8294503642</v>
       </c>
       <c r="L173" t="s">
         <v>964</v>
       </c>
       <c r="M173">
-        <v>8686.3053428999992</v>
+        <v>11110.228590999999</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
@@ -10210,13 +10234,13 @@
         <v>1.5843362177</v>
       </c>
       <c r="K174">
-        <v>1.5898218829999999</v>
+        <v>1.6334557422</v>
       </c>
       <c r="L174" t="s">
         <v>958</v>
       </c>
       <c r="M174">
-        <v>105787.6058</v>
+        <v>97232.545928000007</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.25">
@@ -10251,13 +10275,13 @@
         <v>1.4724327216999999</v>
       </c>
       <c r="K175">
-        <v>2.4040712468000001</v>
+        <v>2.6348002328</v>
       </c>
       <c r="L175" t="s">
         <v>958</v>
       </c>
       <c r="M175">
-        <v>7512.3587645999996</v>
+        <v>3932.7381919999998</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
@@ -10292,13 +10316,13 @@
         <v>1.4724327216999999</v>
       </c>
       <c r="K176">
-        <v>2.4122137404999999</v>
+        <v>2.6869744947999998</v>
       </c>
       <c r="L176" t="s">
         <v>958</v>
       </c>
       <c r="M176">
-        <v>125.3369788</v>
+        <v>77.071271890999995</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.25">
@@ -10333,13 +10357,13 @@
         <v>1.5281317195999999</v>
       </c>
       <c r="K177">
-        <v>2.4753180661999998</v>
+        <v>2.4562037204</v>
       </c>
       <c r="L177" t="s">
         <v>960</v>
       </c>
       <c r="M177">
-        <v>20710.007813</v>
+        <v>17358.660896000001</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.25">
@@ -10374,13 +10398,13 @@
         <v>2.2369458111</v>
       </c>
       <c r="K178">
-        <v>4.4966921119999999</v>
+        <v>4.7498645475999997</v>
       </c>
       <c r="L178" t="s">
         <v>962</v>
       </c>
       <c r="M178">
-        <v>152410.09049999999</v>
+        <v>153936.89145</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.25">
@@ -10418,7 +10442,7 @@
         <v>955</v>
       </c>
       <c r="M179">
-        <v>0</v>
+        <v>0.25145845905999997</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.25">
@@ -10456,7 +10480,7 @@
         <v>961</v>
       </c>
       <c r="M180">
-        <v>0.13223106922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.25">
@@ -10490,14 +10514,11 @@
       <c r="J181">
         <v>1.8461181261999999</v>
       </c>
-      <c r="K181">
-        <v>1.0320610687</v>
-      </c>
       <c r="L181" t="s">
         <v>961</v>
       </c>
       <c r="M181">
-        <v>18.808748843</v>
+        <v>21.921930519</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
@@ -10532,13 +10553,13 @@
         <v>-3.3509479916</v>
       </c>
       <c r="K182">
-        <v>1.4737913486000001</v>
+        <v>1.3545241105000001</v>
       </c>
       <c r="L182" t="s">
         <v>958</v>
       </c>
       <c r="M182">
-        <v>388.60074730999997</v>
+        <v>296.19163989999998</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.25">
@@ -10572,14 +10593,11 @@
       <c r="J183">
         <v>-2.969129312E-2</v>
       </c>
-      <c r="K183">
-        <v>1.0178117047999999</v>
-      </c>
       <c r="L183" t="s">
         <v>958</v>
       </c>
       <c r="M183">
-        <v>10.158484282</v>
+        <v>1.0277710497000001</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.25">
@@ -10649,13 +10667,13 @@
         <v>0.79106147737999999</v>
       </c>
       <c r="K185">
-        <v>1.8442748092000001</v>
+        <v>1.8421527902999999</v>
       </c>
       <c r="L185" t="s">
         <v>959</v>
       </c>
       <c r="M185">
-        <v>105924.79175</v>
+        <v>89937.702533000003</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
@@ -10693,7 +10711,7 @@
         <v>954</v>
       </c>
       <c r="M186">
-        <v>0</v>
+        <v>3.0758685576000002</v>
       </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.25">
@@ -10731,7 +10749,7 @@
         <v>954</v>
       </c>
       <c r="M187">
-        <v>61.888593194000002</v>
+        <v>63.863190738</v>
       </c>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.25">
@@ -10766,13 +10784,13 @@
         <v>10.022391271</v>
       </c>
       <c r="K188">
-        <v>8.3175572519000003</v>
+        <v>8.7291553789999998</v>
       </c>
       <c r="L188" t="s">
         <v>954</v>
       </c>
       <c r="M188">
-        <v>1027853.9434</v>
+        <v>1212596.7919999999</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.25">
@@ -10810,7 +10828,7 @@
         <v>954</v>
       </c>
       <c r="M189">
-        <v>3.5609874507999999</v>
+        <v>3.6210018105000001</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.25">
@@ -10845,13 +10863,13 @@
         <v>10.022391271</v>
       </c>
       <c r="K190">
-        <v>9.3720101781</v>
+        <v>9.6141111311999996</v>
       </c>
       <c r="L190" t="s">
         <v>954</v>
       </c>
       <c r="M190">
-        <v>231200.12065</v>
+        <v>260092.76595</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.25">
@@ -10886,13 +10904,13 @@
         <v>1.1488635924999999</v>
       </c>
       <c r="K191">
-        <v>3.5216284987000002</v>
+        <v>3.2508578653</v>
       </c>
       <c r="L191" t="s">
         <v>958</v>
       </c>
       <c r="M191">
-        <v>5992.4093767000004</v>
+        <v>3001.5336907999999</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.25">
@@ -10930,7 +10948,7 @@
         <v>954</v>
       </c>
       <c r="M192">
-        <v>7.0582806716000004</v>
+        <v>4.0813983310999999</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.25">
@@ -11003,13 +11021,13 @@
         <v>6.2646326289000003</v>
       </c>
       <c r="K194">
-        <v>11.784223918</v>
+        <v>13.049585616</v>
       </c>
       <c r="L194" t="s">
         <v>954</v>
       </c>
       <c r="M194">
-        <v>509.52306000999999</v>
+        <v>600.73474618</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.25">
@@ -11044,13 +11062,13 @@
         <v>1.6644319185000001</v>
       </c>
       <c r="K195">
-        <v>2.0050890584999999</v>
+        <v>1.9264342905</v>
       </c>
       <c r="L195" t="s">
         <v>960</v>
       </c>
       <c r="M195">
-        <v>1306.3173941</v>
+        <v>371.06720180000002</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.25">
@@ -11085,13 +11103,13 @@
         <v>3.4678573441</v>
       </c>
       <c r="K196">
-        <v>4.5597964377000002</v>
+        <v>4.9023739289000003</v>
       </c>
       <c r="L196" t="s">
         <v>967</v>
       </c>
       <c r="M196">
-        <v>525977.52508000005</v>
+        <v>507036.89597999997</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.25">
@@ -11126,13 +11144,13 @@
         <v>2.9379930384000001</v>
       </c>
       <c r="K197">
-        <v>4.0101781170999997</v>
+        <v>5.1130776794999999</v>
       </c>
       <c r="L197" t="s">
         <v>952</v>
       </c>
       <c r="M197">
-        <v>174884.89160999999</v>
+        <v>184634.26756000001</v>
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.25">
@@ -11205,13 +11223,13 @@
         <v>1.1818009868999999</v>
       </c>
       <c r="K199">
-        <v>3.3608142494000002</v>
+        <v>3.2929986154000002</v>
       </c>
       <c r="L199" t="s">
         <v>954</v>
       </c>
       <c r="M199">
-        <v>391.68510721000001</v>
+        <v>392.90803140999998</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.25">
@@ -11246,13 +11264,13 @@
         <v>1.1818009868999999</v>
       </c>
       <c r="K200">
-        <v>1.7078880407000001</v>
+        <v>1.7016836232999999</v>
       </c>
       <c r="L200" t="s">
         <v>954</v>
       </c>
       <c r="M200">
-        <v>544.73775147000003</v>
+        <v>477.17763013000001</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.25">
@@ -11287,13 +11305,13 @@
         <v>1.1818009868999999</v>
       </c>
       <c r="K201">
-        <v>10.157760814</v>
+        <v>10.20207493</v>
       </c>
       <c r="L201" t="s">
         <v>954</v>
       </c>
       <c r="M201">
-        <v>749856.75358999998</v>
+        <v>520007.25511999999</v>
       </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.25">
@@ -11331,7 +11349,7 @@
         <v>954</v>
       </c>
       <c r="M202">
-        <v>31.265684631999999</v>
+        <v>57.907205304999998</v>
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.25">
@@ -11365,11 +11383,14 @@
       <c r="J203">
         <v>3.2371764753000001</v>
       </c>
+      <c r="K203">
+        <v>15.048261192</v>
+      </c>
       <c r="L203" t="s">
         <v>954</v>
       </c>
       <c r="M203">
-        <v>2.8240964562999999</v>
+        <v>28.510867432000001</v>
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.25">
@@ -11404,13 +11425,13 @@
         <v>1.6331912746999999</v>
       </c>
       <c r="K204">
-        <v>2.6198473282000001</v>
+        <v>2.5745991612000001</v>
       </c>
       <c r="L204" t="s">
         <v>954</v>
       </c>
       <c r="M204">
-        <v>347395.48931999999</v>
+        <v>429848.59948999999</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.25">
@@ -11445,13 +11466,13 @@
         <v>2.0648952271000001</v>
       </c>
       <c r="K205">
-        <v>8.3541984733000003</v>
+        <v>8.4321634259000007</v>
       </c>
       <c r="L205" t="s">
         <v>954</v>
       </c>
       <c r="M205">
-        <v>251461.45540000001</v>
+        <v>293451.84022999997</v>
       </c>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.25">
@@ -11486,13 +11507,13 @@
         <v>0.34886123268000002</v>
       </c>
       <c r="K206">
-        <v>0.35419847327999998</v>
+        <v>0.34715951277000001</v>
       </c>
       <c r="L206" t="s">
         <v>960</v>
       </c>
       <c r="M206">
-        <v>5607.8180107999997</v>
+        <v>3055.1610999999998</v>
       </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.25">
@@ -11526,11 +11547,14 @@
       <c r="J207">
         <v>4.4487661242999996</v>
       </c>
+      <c r="K207">
+        <v>6.0080669436000003</v>
+      </c>
       <c r="L207" t="s">
         <v>954</v>
       </c>
       <c r="M207">
-        <v>44.702013438999998</v>
+        <v>64.833896349</v>
       </c>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.25">
@@ -11641,13 +11665,13 @@
         <v>0.40251889355999998</v>
       </c>
       <c r="K210">
-        <v>1.6284987277</v>
+        <v>1.6053619088</v>
       </c>
       <c r="L210" t="s">
         <v>954</v>
       </c>
       <c r="M210">
-        <v>190.42431198</v>
+        <v>105.61891746000001</v>
       </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.25">
@@ -11681,11 +11705,14 @@
       <c r="J211">
         <v>0.40251889355999998</v>
       </c>
+      <c r="K211">
+        <v>1.5050267895</v>
+      </c>
       <c r="L211" t="s">
         <v>954</v>
       </c>
       <c r="M211">
-        <v>11.558294605</v>
+        <v>0.45387014072999998</v>
       </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.25">
@@ -11723,7 +11750,7 @@
         <v>954</v>
       </c>
       <c r="M212">
-        <v>2.3178993003000001</v>
+        <v>0.91004701536999999</v>
       </c>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.25">
@@ -11761,7 +11788,7 @@
         <v>954</v>
       </c>
       <c r="M213">
-        <v>2.466849216</v>
+        <v>0.75592646347000003</v>
       </c>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.25">
@@ -11796,13 +11823,13 @@
         <v>3.4993492883999999</v>
       </c>
       <c r="K214">
-        <v>7.1898218829999996</v>
+        <v>6.8589087551999999</v>
       </c>
       <c r="L214" t="s">
         <v>954</v>
       </c>
       <c r="M214">
-        <v>1145145.7642000001</v>
+        <v>912465.94169999997</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.25">
@@ -11837,13 +11864,13 @@
         <v>0.48487891869999999</v>
       </c>
       <c r="K215">
-        <v>0.21984732824</v>
+        <v>0.21873056007</v>
       </c>
       <c r="L215" t="s">
         <v>958</v>
       </c>
       <c r="M215">
-        <v>8325.8239508000006</v>
+        <v>5783.1608243999999</v>
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.25">
@@ -11878,13 +11905,13 @@
         <v>0.35531588068999997</v>
       </c>
       <c r="K216">
-        <v>0.93638676845000002</v>
+        <v>0.91505628800000005</v>
       </c>
       <c r="L216" t="s">
         <v>958</v>
       </c>
       <c r="M216">
-        <v>3642.5567170999998</v>
+        <v>1820.6715151999999</v>
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.25">
@@ -11922,7 +11949,7 @@
         <v>958</v>
       </c>
       <c r="M217">
-        <v>0.3674688793</v>
+        <v>0.30757401000000001</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.25">
@@ -11956,11 +11983,14 @@
       <c r="J218">
         <v>-13.583978774</v>
       </c>
+      <c r="K218">
+        <v>0.46956835831999999</v>
+      </c>
       <c r="L218" t="s">
         <v>958</v>
       </c>
       <c r="M218">
-        <v>32.483923505</v>
+        <v>37.812562419000002</v>
       </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.25">
@@ -11995,13 +12025,13 @@
         <v>2.2985087941</v>
       </c>
       <c r="K219">
-        <v>1.5389312977</v>
+        <v>1.3024375738</v>
       </c>
       <c r="L219" t="s">
         <v>969</v>
       </c>
       <c r="M219">
-        <v>7312.1278522000002</v>
+        <v>11177.324304</v>
       </c>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.25">
@@ -12036,13 +12066,13 @@
         <v>4.7775937407000004</v>
       </c>
       <c r="K220">
-        <v>3.5521628499000002</v>
+        <v>3.5297894968999999</v>
       </c>
       <c r="L220" t="s">
         <v>958</v>
       </c>
       <c r="M220">
-        <v>152.04130258999999</v>
+        <v>53.109675408000001</v>
       </c>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.25">
@@ -12077,13 +12107,13 @@
         <v>4.7775937407000004</v>
       </c>
       <c r="K221">
-        <v>3.3709923663999999</v>
+        <v>3.4996889610999999</v>
       </c>
       <c r="L221" t="s">
         <v>958</v>
       </c>
       <c r="M221">
-        <v>6277.6880757999998</v>
+        <v>4228.5543023</v>
       </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.25">
@@ -12153,13 +12183,13 @@
         <v>1.9487034224999999</v>
       </c>
       <c r="K223">
-        <v>1.5165394402000001</v>
+        <v>1.6214155279</v>
       </c>
       <c r="L223" t="s">
         <v>962</v>
       </c>
       <c r="M223">
-        <v>26567.976160999999</v>
+        <v>25657.081607</v>
       </c>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.25">
@@ -12232,7 +12262,7 @@
         <v>963</v>
       </c>
       <c r="M225">
-        <v>39.535695885000003</v>
+        <v>17.78094943</v>
       </c>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.25">
@@ -12267,13 +12297,13 @@
         <v>4.2098808021999998</v>
       </c>
       <c r="K226">
-        <v>3.2386768448000001</v>
+        <v>3.3873136275000002</v>
       </c>
       <c r="L226" t="s">
         <v>962</v>
       </c>
       <c r="M226">
-        <v>137140.24080999999</v>
+        <v>114229.23403000001</v>
       </c>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.25">
@@ -12308,13 +12338,13 @@
         <v>0.14455920093999999</v>
       </c>
       <c r="K227">
-        <v>1.4676844784</v>
+        <v>1.169907491</v>
       </c>
       <c r="L227" t="s">
         <v>968</v>
       </c>
       <c r="M227">
-        <v>192.84491674</v>
+        <v>286.48062557999998</v>
       </c>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.25">
@@ -12349,13 +12379,13 @@
         <v>1.9058211163000001</v>
       </c>
       <c r="K228">
-        <v>3.1552162849999998</v>
+        <v>2.8294503642</v>
       </c>
       <c r="L228" t="s">
         <v>956</v>
       </c>
       <c r="M228">
-        <v>18.32962745</v>
+        <v>39.828943727999999</v>
       </c>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.25">
@@ -12390,13 +12420,13 @@
         <v>1.9058211163000001</v>
       </c>
       <c r="K229">
-        <v>2.1964376589999999</v>
+        <v>1.9364678024999999</v>
       </c>
       <c r="L229" t="s">
         <v>956</v>
       </c>
       <c r="M229">
-        <v>28979.634698999998</v>
+        <v>23300.276537999998</v>
       </c>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.25">
@@ -12434,7 +12464,7 @@
         <v>962</v>
       </c>
       <c r="M230">
-        <v>0.79524248948999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.25">
@@ -12469,13 +12499,13 @@
         <v>1.8907167173999999</v>
       </c>
       <c r="K231">
-        <v>3.3567430025</v>
+        <v>3.1926634961000002</v>
       </c>
       <c r="L231" t="s">
         <v>958</v>
       </c>
       <c r="M231">
-        <v>183986.58283</v>
+        <v>168479.35216000001</v>
       </c>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.25">
@@ -12510,13 +12540,13 @@
         <v>1.4408687225000001</v>
       </c>
       <c r="K232">
-        <v>3.0636132316000002</v>
+        <v>3.2809584010999999</v>
       </c>
       <c r="L232" t="s">
         <v>967</v>
       </c>
       <c r="M232">
-        <v>23506.033695999999</v>
+        <v>15306.226837</v>
       </c>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.25">
@@ -12551,13 +12581,13 @@
         <v>1.4484748334999999</v>
       </c>
       <c r="K233">
-        <v>0.40305343511000002</v>
+        <v>0.38729356049000002</v>
       </c>
       <c r="L233" t="s">
         <v>955</v>
       </c>
       <c r="M233">
-        <v>325.14325341</v>
+        <v>309.78637149999997</v>
       </c>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.25">
@@ -12592,13 +12622,13 @@
         <v>5.3311093919000001</v>
       </c>
       <c r="K234">
-        <v>2.2351145038000002</v>
+        <v>1.7478377782000001</v>
       </c>
       <c r="L234" t="s">
         <v>962</v>
       </c>
       <c r="M234">
-        <v>346862.31969999999</v>
+        <v>221392.12474999999</v>
       </c>
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.25">
@@ -12671,7 +12701,7 @@
         <v>958</v>
       </c>
       <c r="M236">
-        <v>5.2437020031000001</v>
+        <v>10.749507095</v>
       </c>
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.25">
@@ -12709,7 +12739,7 @@
         <v>954</v>
       </c>
       <c r="M237">
-        <v>9.9405337840999994</v>
+        <v>3.2519442936999998</v>
       </c>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.25">
@@ -12743,11 +12773,14 @@
       <c r="J238">
         <v>4.4899796045000002</v>
       </c>
+      <c r="K238">
+        <v>5.2515401440999998</v>
+      </c>
       <c r="L238" t="s">
         <v>954</v>
       </c>
       <c r="M238">
-        <v>77.902173969000003</v>
+        <v>43.663668328</v>
       </c>
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.25">
@@ -12782,13 +12815,13 @@
         <v>5.7763970179999999</v>
       </c>
       <c r="K239">
-        <v>4.1017811704999998</v>
+        <v>4.0356165514000004</v>
       </c>
       <c r="L239" t="s">
         <v>956</v>
       </c>
       <c r="M239">
-        <v>5748.1220956999996</v>
+        <v>3472.3389219000001</v>
       </c>
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.25">
@@ -12823,13 +12856,13 @@
         <v>5.7763970179999999</v>
       </c>
       <c r="K240">
-        <v>4.4458015267000004</v>
+        <v>4.2951751314999997</v>
       </c>
       <c r="L240" t="s">
         <v>956</v>
       </c>
       <c r="M240">
-        <v>931972.52913000004</v>
+        <v>802539.74907999998</v>
       </c>
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.25">
@@ -12864,13 +12897,13 @@
         <v>3.4706580032000001</v>
       </c>
       <c r="K241">
-        <v>2.1089058523999999</v>
+        <v>2.0690439400999998</v>
       </c>
       <c r="L241" t="s">
         <v>956</v>
       </c>
       <c r="M241">
-        <v>5386.4107614000004</v>
+        <v>2931.6479985999999</v>
       </c>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.25">
@@ -12905,13 +12938,13 @@
         <v>3.4706580032000001</v>
       </c>
       <c r="K242">
-        <v>2.0519083969</v>
+        <v>2.0189847216999999</v>
       </c>
       <c r="L242" t="s">
         <v>956</v>
       </c>
       <c r="M242">
-        <v>404129.62592000002</v>
+        <v>251796.15393999999</v>
       </c>
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.25">
@@ -12943,13 +12976,13 @@
         <v>1.1211767080999999</v>
       </c>
       <c r="K243">
-        <v>1.0035623410000001</v>
+        <v>1.0214115145</v>
       </c>
       <c r="L243" t="s">
         <v>960</v>
       </c>
       <c r="M243">
-        <v>1893.8267287000001</v>
+        <v>2376.5898026</v>
       </c>
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.25">
@@ -13019,13 +13052,13 @@
         <v>-10.511936511</v>
       </c>
       <c r="K245">
-        <v>1.2050890585</v>
+        <v>0.50970240603999994</v>
       </c>
       <c r="L245" t="s">
         <v>959</v>
       </c>
       <c r="M245">
-        <v>418930.22355</v>
+        <v>151394.93799999999</v>
       </c>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.25">
@@ -13060,13 +13093,13 @@
         <v>2.4692626527999999</v>
       </c>
       <c r="K246">
-        <v>0.60865139949000002</v>
+        <v>0.61204422772</v>
       </c>
       <c r="L246" t="s">
         <v>958</v>
       </c>
       <c r="M246">
-        <v>1709.0415178000001</v>
+        <v>2285.0406791999999</v>
       </c>
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.25">
@@ -13101,13 +13134,13 @@
         <v>0.87602471502000001</v>
       </c>
       <c r="K247">
-        <v>3.8941475827000001</v>
+        <v>3.5940039733</v>
       </c>
       <c r="L247" t="s">
         <v>958</v>
       </c>
       <c r="M247">
-        <v>136531.09221</v>
+        <v>119070.41451</v>
       </c>
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.25">
@@ -13173,14 +13206,11 @@
       <c r="J249">
         <v>8.7085455078000003</v>
       </c>
-      <c r="K249">
-        <v>5.2173027989999996</v>
-      </c>
       <c r="L249" t="s">
         <v>960</v>
       </c>
       <c r="M249">
-        <v>189.15721438</v>
+        <v>273.62642310000001</v>
       </c>
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.25">
@@ -13215,13 +13245,13 @@
         <v>8.7085455078000003</v>
       </c>
       <c r="K250">
-        <v>5.1908396947000002</v>
+        <v>5.3839825016000002</v>
       </c>
       <c r="L250" t="s">
         <v>960</v>
       </c>
       <c r="M250">
-        <v>871.79461762000005</v>
+        <v>561.10379533000003</v>
       </c>
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.25">
@@ -13256,13 +13286,13 @@
         <v>0.77108997744999996</v>
       </c>
       <c r="K251">
-        <v>1.3842239186</v>
+        <v>1.294323039</v>
       </c>
       <c r="L251" t="s">
         <v>961</v>
       </c>
       <c r="M251">
-        <v>32140.00763</v>
+        <v>30603.839368000001</v>
       </c>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.25">
@@ -13297,13 +13327,13 @@
         <v>0.74907262177</v>
       </c>
       <c r="K252">
-        <v>1.4005089059</v>
+        <v>1.6194088255000001</v>
       </c>
       <c r="L252" t="s">
         <v>960</v>
       </c>
       <c r="M252">
-        <v>122450.87493000001</v>
+        <v>175482.36342000001</v>
       </c>
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.25">
@@ -13338,13 +13368,13 @@
         <v>4.0684493124000003</v>
       </c>
       <c r="K253">
-        <v>3.2508905852000001</v>
+        <v>3.2729315914999999</v>
       </c>
       <c r="L253" t="s">
         <v>960</v>
       </c>
       <c r="M253">
-        <v>661099.73861</v>
+        <v>592638.72482</v>
       </c>
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.25">
@@ -13379,13 +13409,13 @@
         <v>2.0172481419000001</v>
       </c>
       <c r="K254">
-        <v>2.7195928753</v>
+        <v>2.4702506370999999</v>
       </c>
       <c r="L254" t="s">
         <v>960</v>
       </c>
       <c r="M254">
-        <v>104278.08306999999</v>
+        <v>116603.77893</v>
       </c>
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.25">
@@ -13420,13 +13450,13 @@
         <v>1.9435952269000001</v>
       </c>
       <c r="K255">
-        <v>1.4147582697000001</v>
+        <v>1.4046916702000001</v>
       </c>
       <c r="L255" t="s">
         <v>960</v>
       </c>
       <c r="M255">
-        <v>530824.02237999998</v>
+        <v>434011.84886999999</v>
       </c>
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.25">
@@ -13461,13 +13491,13 @@
         <v>1.9948854717</v>
       </c>
       <c r="K256">
-        <v>1.0849872774</v>
+        <v>1.2040214316</v>
       </c>
       <c r="L256" t="s">
         <v>961</v>
       </c>
       <c r="M256">
-        <v>42501.848583999999</v>
+        <v>39610.210522000001</v>
       </c>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.25">
@@ -13537,13 +13567,13 @@
         <v>12.649676079000001</v>
       </c>
       <c r="K258">
-        <v>7.9389312976999999</v>
+        <v>7.4268055305000003</v>
       </c>
       <c r="L258" t="s">
         <v>958</v>
       </c>
       <c r="M258">
-        <v>131.70265971000001</v>
+        <v>69.006902492999998</v>
       </c>
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.25">
@@ -13613,13 +13643,13 @@
         <v>-0.93162670052999996</v>
       </c>
       <c r="K260">
-        <v>0.52722646309999999</v>
+        <v>0.51371581080999995</v>
       </c>
       <c r="L260" t="s">
         <v>956</v>
       </c>
       <c r="M260">
-        <v>24.483019558999999</v>
+        <v>14.108967239</v>
       </c>
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.25">
@@ -13654,13 +13684,13 @@
         <v>-0.93162670052999996</v>
       </c>
       <c r="K261">
-        <v>0.22798982188</v>
+        <v>0.21471715529999999</v>
       </c>
       <c r="L261" t="s">
         <v>956</v>
       </c>
       <c r="M261">
-        <v>61.924271779000001</v>
+        <v>59.732896332000003</v>
       </c>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.25">
@@ -13695,13 +13725,13 @@
         <v>1.3085840517</v>
       </c>
       <c r="K262">
-        <v>0.8</v>
+        <v>0.73645977564999998</v>
       </c>
       <c r="L262" t="s">
         <v>958</v>
       </c>
       <c r="M262">
-        <v>1236010.1858999999</v>
+        <v>1069491.5991</v>
       </c>
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.25">
@@ -13736,13 +13766,13 @@
         <v>3.7112406979000001</v>
       </c>
       <c r="K263">
-        <v>0.99134860050999996</v>
+        <v>1.0816125860000001</v>
       </c>
       <c r="L263" t="s">
         <v>962</v>
       </c>
       <c r="M263">
-        <v>8916.9040566000003</v>
+        <v>9263.4004427</v>
       </c>
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.25">
@@ -13777,13 +13807,13 @@
         <v>2.0983764767999999</v>
       </c>
       <c r="K264">
-        <v>0.54147582696999996</v>
+        <v>0.58997050146999996</v>
       </c>
       <c r="L264" t="s">
         <v>962</v>
       </c>
       <c r="M264">
-        <v>8617.2637224999999</v>
+        <v>5255.4243194999999</v>
       </c>
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.25">
@@ -13856,13 +13886,13 @@
         <v>-137.82254509000001</v>
       </c>
       <c r="K266">
-        <v>1.2804071247</v>
+        <v>1.3083699556999999</v>
       </c>
       <c r="L266" t="s">
         <v>956</v>
       </c>
       <c r="M266">
-        <v>11.43911538</v>
+        <v>66.242237587000005</v>
       </c>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.25">
@@ -13897,13 +13927,13 @@
         <v>0.41636671358999999</v>
       </c>
       <c r="K267">
-        <v>0.75318066157999997</v>
+        <v>0.77057371621000004</v>
       </c>
       <c r="L267" t="s">
         <v>959</v>
       </c>
       <c r="M267">
-        <v>66355.769709999993</v>
+        <v>53633.802323999997</v>
       </c>
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.25">
@@ -14008,13 +14038,13 @@
         <v>-2.2707265927</v>
       </c>
       <c r="K270">
-        <v>0.57811704835</v>
+        <v>0.56789677523000004</v>
       </c>
       <c r="L270" t="s">
         <v>958</v>
       </c>
       <c r="M270">
-        <v>95.988876378</v>
+        <v>48.749389059999999</v>
       </c>
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.25">
@@ -14040,7 +14070,7 @@
         <v>315</v>
       </c>
       <c r="H271">
-        <v>0.24895758557</v>
+        <v>0.28834243200999998</v>
       </c>
       <c r="I271">
         <v>0.55839604328000003</v>
@@ -14049,13 +14079,13 @@
         <v>3.5947418432</v>
       </c>
       <c r="K271">
-        <v>6.3074722246999997</v>
+        <v>6.5980374451000001</v>
       </c>
       <c r="L271" t="s">
         <v>958</v>
       </c>
       <c r="M271">
-        <v>413321.53678999998</v>
+        <v>364347.90331000002</v>
       </c>
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.25">
@@ -14116,7 +14146,7 @@
         <v>878</v>
       </c>
       <c r="H273">
-        <v>1.0278550344E-2</v>
+        <v>1.5082303342E-2</v>
       </c>
       <c r="I273">
         <v>4.5280039314000001E-2</v>
@@ -14125,13 +14155,13 @@
         <v>0.67854922498000003</v>
       </c>
       <c r="K273">
-        <v>0.59440203562000005</v>
+        <v>0.58796379908999996</v>
       </c>
       <c r="L273" t="s">
         <v>958</v>
       </c>
       <c r="M273">
-        <v>1630.1690948</v>
+        <v>1159.1073761</v>
       </c>
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.25">
@@ -14157,7 +14187,7 @@
         <v>879</v>
       </c>
       <c r="H274">
-        <v>3.0835651025000001E-2</v>
+        <v>3.5639404024000003E-2</v>
       </c>
       <c r="I274">
         <v>4.5280039314000001E-2</v>
@@ -14165,11 +14195,14 @@
       <c r="J274">
         <v>0.67854922498000003</v>
       </c>
+      <c r="K274">
+        <v>2.0628900527999998</v>
+      </c>
       <c r="L274" t="s">
         <v>958</v>
       </c>
       <c r="M274">
-        <v>18.966542537999999</v>
+        <v>42.573251360999997</v>
       </c>
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.25">
@@ -14195,7 +14228,7 @@
         <v>319</v>
       </c>
       <c r="H275">
-        <v>1.0278550342E-2</v>
+        <v>1.508230334E-2</v>
       </c>
       <c r="I275">
         <v>4.5280039314000001E-2</v>
@@ -14204,13 +14237,13 @@
         <v>0.67854922498000003</v>
       </c>
       <c r="K275">
-        <v>4.7938931297999998</v>
+        <v>4.7197640117999997</v>
       </c>
       <c r="L275" t="s">
         <v>958</v>
       </c>
       <c r="M275">
-        <v>286039.96750999999</v>
+        <v>275390.77903999999</v>
       </c>
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.25">
@@ -14245,13 +14278,13 @@
         <v>0.77813631443999998</v>
       </c>
       <c r="K276">
-        <v>0.37659033078999998</v>
+        <v>0.42943431059999998</v>
       </c>
       <c r="L276" t="s">
         <v>960</v>
       </c>
       <c r="M276">
-        <v>8457.7134693000007</v>
+        <v>9242.4443888999995</v>
       </c>
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.25">
@@ -14391,13 +14424,13 @@
         <v>-8.3055049069999995</v>
       </c>
       <c r="K280">
-        <v>0.88142493638999997</v>
+        <v>0.71037264463000005</v>
       </c>
       <c r="L280" t="s">
         <v>958</v>
       </c>
       <c r="M280">
-        <v>1319.1940551</v>
+        <v>504.37287330999999</v>
       </c>
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.25">
@@ -14432,13 +14465,13 @@
         <v>-8.3055049069999995</v>
       </c>
       <c r="K281">
-        <v>0.69618320610999995</v>
+        <v>0.61806433488000001</v>
       </c>
       <c r="L281" t="s">
         <v>958</v>
       </c>
       <c r="M281">
-        <v>973.38132073999998</v>
+        <v>362.26338382</v>
       </c>
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.25">
@@ -14473,13 +14506,13 @@
         <v>0.70446483007000005</v>
       </c>
       <c r="K282">
-        <v>0.33180661577999998</v>
+        <v>0.27491822688000001</v>
       </c>
       <c r="L282" t="s">
         <v>960</v>
       </c>
       <c r="M282">
-        <v>55477.831847000001</v>
+        <v>34105.035488000001</v>
       </c>
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.25">
@@ -14514,13 +14547,13 @@
         <v>1.5045984149</v>
       </c>
       <c r="K283">
-        <v>4.4396946565000004</v>
+        <v>4.2185760355999999</v>
       </c>
       <c r="L283" t="s">
         <v>970</v>
       </c>
       <c r="M283">
-        <v>122033.06719</v>
+        <v>98659.681599999996</v>
       </c>
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.25">
@@ -14701,13 +14734,13 @@
         <v>5.0954398652000004</v>
       </c>
       <c r="K288">
-        <v>2.4</v>
+        <v>2.5204181968000001</v>
       </c>
       <c r="L288" t="s">
         <v>967</v>
       </c>
       <c r="M288">
-        <v>58422.498999000003</v>
+        <v>36135.011458000001</v>
       </c>
     </row>
     <row r="289" spans="1:13" x14ac:dyDescent="0.25">
@@ -14742,13 +14775,13 @@
         <v>1.0749086898</v>
       </c>
       <c r="K289">
-        <v>2.0376590331000002</v>
+        <v>1.8241211671999999</v>
       </c>
       <c r="L289" t="s">
         <v>971</v>
       </c>
       <c r="M289">
-        <v>38145.539502</v>
+        <v>45982.127136000003</v>
       </c>
     </row>
     <row r="290" spans="1:13" x14ac:dyDescent="0.25">
@@ -14783,13 +14816,13 @@
         <v>10.173604842</v>
       </c>
       <c r="K290">
-        <v>8.2748091603000002</v>
+        <v>7.7900186622999996</v>
       </c>
       <c r="L290" t="s">
         <v>955</v>
       </c>
       <c r="M290">
-        <v>320480.90386000002</v>
+        <v>205356.17465</v>
       </c>
     </row>
     <row r="291" spans="1:13" x14ac:dyDescent="0.25">
@@ -14815,7 +14848,7 @@
         <v>884</v>
       </c>
       <c r="H291">
-        <v>0.11341357581</v>
+        <v>0.17422014818000001</v>
       </c>
       <c r="I291">
         <v>0.27065376899999999</v>
@@ -14824,13 +14857,13 @@
         <v>1.5631892131</v>
       </c>
       <c r="K291">
-        <v>2.0213740458</v>
+        <v>2.0561616800000002</v>
       </c>
       <c r="L291" t="s">
         <v>958</v>
       </c>
       <c r="M291">
-        <v>10115.593085</v>
+        <v>5659.2234842999997</v>
       </c>
     </row>
     <row r="292" spans="1:13" x14ac:dyDescent="0.25">
@@ -14856,7 +14889,7 @@
         <v>339</v>
       </c>
       <c r="H292">
-        <v>0.11341357581</v>
+        <v>0.17422014818000001</v>
       </c>
       <c r="I292">
         <v>0.27065376899999999</v>
@@ -14865,13 +14898,13 @@
         <v>1.5631892131</v>
       </c>
       <c r="K292">
-        <v>2.0376590331000002</v>
+        <v>2.0621817872000001</v>
       </c>
       <c r="L292" t="s">
         <v>958</v>
       </c>
       <c r="M292">
-        <v>818559.17310999997</v>
+        <v>912399.04434000002</v>
       </c>
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.25">
@@ -14897,7 +14930,7 @@
         <v>885</v>
       </c>
       <c r="H293">
-        <v>0.25392324660999999</v>
+        <v>0.48223131875000003</v>
       </c>
       <c r="I293">
         <v>0.64292021805999999</v>
@@ -14906,13 +14939,13 @@
         <v>3.5454449643000001</v>
       </c>
       <c r="K293">
-        <v>5.4918431172000002</v>
+        <v>5.8781028635999997</v>
       </c>
       <c r="L293" t="s">
         <v>955</v>
       </c>
       <c r="M293">
-        <v>52005.934698999998</v>
+        <v>76597.218827000004</v>
       </c>
     </row>
     <row r="294" spans="1:13" x14ac:dyDescent="0.25">
@@ -14938,7 +14971,7 @@
         <v>730</v>
       </c>
       <c r="H294">
-        <v>0.25392324660999999</v>
+        <v>0.48223131875000003</v>
       </c>
       <c r="I294">
         <v>0.64292021805999999</v>
@@ -14947,13 +14980,13 @@
         <v>3.5454449643000001</v>
       </c>
       <c r="K294">
-        <v>6.4636007830000004</v>
+        <v>6.8072060683000002</v>
       </c>
       <c r="L294" t="s">
         <v>955</v>
       </c>
       <c r="M294">
-        <v>3146466.4046999998</v>
+        <v>3870458.5992999999</v>
       </c>
     </row>
     <row r="295" spans="1:13" x14ac:dyDescent="0.25">
@@ -14988,13 +15021,13 @@
         <v>1.3528338889</v>
       </c>
       <c r="K295">
-        <v>1.5348600509000001</v>
+        <v>1.5250938133</v>
       </c>
       <c r="L295" t="s">
         <v>958</v>
       </c>
       <c r="M295">
-        <v>23551.314000999999</v>
+        <v>15790.088657</v>
       </c>
     </row>
     <row r="296" spans="1:13" x14ac:dyDescent="0.25">
@@ -15029,13 +15062,13 @@
         <v>3.7787697939</v>
       </c>
       <c r="K296">
-        <v>4.9547073791000003</v>
+        <v>4.6274557019999998</v>
       </c>
       <c r="L296" t="s">
         <v>963</v>
       </c>
       <c r="M296">
-        <v>519382.74485000002</v>
+        <v>512482.43317999999</v>
       </c>
     </row>
     <row r="297" spans="1:13" x14ac:dyDescent="0.25">
@@ -15061,7 +15094,7 @@
         <v>345</v>
       </c>
       <c r="H297">
-        <v>8.1345415204999993E-2</v>
+        <v>7.8256677955000006E-2</v>
       </c>
       <c r="I297">
         <v>0.10574969163</v>
@@ -15070,13 +15103,13 @@
         <v>1.4847920807999999</v>
       </c>
       <c r="K297">
-        <v>0.98490583801999998</v>
+        <v>0.88880483346000005</v>
       </c>
       <c r="L297" t="s">
         <v>962</v>
       </c>
       <c r="M297">
-        <v>49239.520935</v>
+        <v>60444.117827000002</v>
       </c>
     </row>
     <row r="298" spans="1:13" x14ac:dyDescent="0.25">
@@ -15111,13 +15144,13 @@
         <v>-6.4909531369</v>
       </c>
       <c r="K298">
-        <v>0.41933842239000002</v>
+        <v>0.36521983424999999</v>
       </c>
       <c r="L298" t="s">
         <v>962</v>
       </c>
       <c r="M298">
-        <v>314.25536277999998</v>
+        <v>81.513138530000006</v>
       </c>
     </row>
     <row r="299" spans="1:13" x14ac:dyDescent="0.25">
@@ -15155,7 +15188,7 @@
         <v>963</v>
       </c>
       <c r="M299">
-        <v>5.7432998801000004</v>
+        <v>17.380099999999999</v>
       </c>
     </row>
     <row r="300" spans="1:13" x14ac:dyDescent="0.25">
@@ -15193,7 +15226,7 @@
         <v>963</v>
       </c>
       <c r="M300">
-        <v>0</v>
+        <v>1.4120020171000001</v>
       </c>
     </row>
     <row r="301" spans="1:13" x14ac:dyDescent="0.25">
@@ -15228,13 +15261,13 @@
         <v>1.1813878487</v>
       </c>
       <c r="K301">
-        <v>2.2513994910999999</v>
+        <v>2.3799490298000001</v>
       </c>
       <c r="L301" t="s">
         <v>959</v>
       </c>
       <c r="M301">
-        <v>22445.439275000001</v>
+        <v>17734.450388000001</v>
       </c>
     </row>
     <row r="302" spans="1:13" x14ac:dyDescent="0.25">
@@ -15307,7 +15340,7 @@
         <v>961</v>
       </c>
       <c r="M303">
-        <v>1.7895039415</v>
+        <v>2.4642503340999999</v>
       </c>
     </row>
     <row r="304" spans="1:13" x14ac:dyDescent="0.25">
@@ -15342,13 +15375,13 @@
         <v>-3.9962142314000002</v>
       </c>
       <c r="K304">
-        <v>3.5623409668999999</v>
+        <v>3.6903256878000001</v>
       </c>
       <c r="L304" t="s">
         <v>961</v>
       </c>
       <c r="M304">
-        <v>50.690577292</v>
+        <v>22.027812454999999</v>
       </c>
     </row>
     <row r="305" spans="1:13" x14ac:dyDescent="0.25">
@@ -15383,13 +15416,13 @@
         <v>0.77006507474999997</v>
       </c>
       <c r="K305">
-        <v>2.0050890584999999</v>
+        <v>1.9424879096000001</v>
       </c>
       <c r="L305" t="s">
         <v>956</v>
       </c>
       <c r="M305">
-        <v>48847.633593999999</v>
+        <v>40889.938982</v>
       </c>
     </row>
     <row r="306" spans="1:13" x14ac:dyDescent="0.25">
@@ -15415,7 +15448,7 @@
         <v>888</v>
       </c>
       <c r="H306">
-        <v>5.4365725028000002E-2</v>
+        <v>4.9270063283000001E-2</v>
       </c>
       <c r="I306">
         <v>0.10406931061999999</v>
@@ -15424,13 +15457,13 @@
         <v>0.40397344833999999</v>
       </c>
       <c r="K306">
-        <v>0.88438642458000005</v>
+        <v>0.90502277607000003</v>
       </c>
       <c r="L306" t="s">
         <v>971</v>
       </c>
       <c r="M306">
-        <v>7794.9612926</v>
+        <v>7302.3719527000003</v>
       </c>
     </row>
     <row r="307" spans="1:13" x14ac:dyDescent="0.25">
@@ -15456,7 +15489,7 @@
         <v>889</v>
       </c>
       <c r="H307">
-        <v>5.4365725028000002E-2</v>
+        <v>4.9270063283000001E-2</v>
       </c>
       <c r="I307">
         <v>0.10406931061999999</v>
@@ -15465,13 +15498,13 @@
         <v>0.40397344833999999</v>
       </c>
       <c r="K307">
-        <v>0.88844153913000001</v>
+        <v>0.90502277607000003</v>
       </c>
       <c r="L307" t="s">
         <v>971</v>
       </c>
       <c r="M307">
-        <v>35638.554107999997</v>
+        <v>33141.420902999998</v>
       </c>
     </row>
     <row r="308" spans="1:13" x14ac:dyDescent="0.25">
@@ -15497,7 +15530,7 @@
         <v>359</v>
       </c>
       <c r="H308">
-        <v>5.4365725028000002E-2</v>
+        <v>4.9270063283000001E-2</v>
       </c>
       <c r="I308">
         <v>0.10406931061999999</v>
@@ -15506,13 +15539,13 @@
         <v>0.40397344833999999</v>
       </c>
       <c r="K308">
-        <v>4.4282399052999999</v>
+        <v>4.5291272851000004</v>
       </c>
       <c r="L308" t="s">
         <v>971</v>
       </c>
       <c r="M308">
-        <v>295454.48508999997</v>
+        <v>291786.91642999998</v>
       </c>
     </row>
     <row r="309" spans="1:13" x14ac:dyDescent="0.25">
@@ -15547,13 +15580,13 @@
         <v>0.26349072888000002</v>
       </c>
       <c r="K309">
-        <v>0.20152671756000001</v>
+        <v>0.17859651234999999</v>
       </c>
       <c r="L309" t="s">
         <v>958</v>
       </c>
       <c r="M309">
-        <v>2433.5996205000001</v>
+        <v>915.73348526999996</v>
       </c>
     </row>
     <row r="310" spans="1:13" x14ac:dyDescent="0.25">
@@ -15588,13 +15621,13 @@
         <v>1.2887384663999999</v>
       </c>
       <c r="K310">
-        <v>1.5389312977</v>
+        <v>1.5953283968</v>
       </c>
       <c r="L310" t="s">
         <v>962</v>
       </c>
       <c r="M310">
-        <v>19067.865603999999</v>
+        <v>22451.727484999999</v>
       </c>
     </row>
     <row r="311" spans="1:13" x14ac:dyDescent="0.25">
@@ -15699,13 +15732,13 @@
         <v>1.6340865465000001</v>
       </c>
       <c r="K313">
-        <v>1.2824427481</v>
+        <v>0.99532438343999996</v>
       </c>
       <c r="L313" t="s">
         <v>954</v>
       </c>
       <c r="M313">
-        <v>31860.963215</v>
+        <v>25058.80675</v>
       </c>
     </row>
     <row r="314" spans="1:13" x14ac:dyDescent="0.25">
@@ -15804,13 +15837,13 @@
         <v>4.7692052155000004</v>
       </c>
       <c r="K316">
-        <v>11.448346056</v>
+        <v>10.635522645</v>
       </c>
       <c r="L316" t="s">
         <v>958</v>
       </c>
       <c r="M316">
-        <v>1763476.2515</v>
+        <v>1397918.3615999999</v>
       </c>
     </row>
     <row r="317" spans="1:13" x14ac:dyDescent="0.25">
@@ -15836,7 +15869,7 @@
         <v>378</v>
       </c>
       <c r="H317">
-        <v>0.17705904707</v>
+        <v>0.14031905677000001</v>
       </c>
       <c r="I317">
         <v>0.32564028655999999</v>
@@ -15845,13 +15878,13 @@
         <v>7.3917486588000001</v>
       </c>
       <c r="K317">
-        <v>4.0622701647000001</v>
+        <v>4.3866514157000003</v>
       </c>
       <c r="L317" t="s">
         <v>962</v>
       </c>
       <c r="M317">
-        <v>24316.430380000002</v>
+        <v>15943.56378</v>
       </c>
     </row>
     <row r="318" spans="1:13" x14ac:dyDescent="0.25">
@@ -15886,13 +15919,13 @@
         <v>1.8471461822999999</v>
       </c>
       <c r="K318">
-        <v>7.9246819337999996</v>
+        <v>7.6234623642999999</v>
       </c>
       <c r="L318" t="s">
         <v>959</v>
       </c>
       <c r="M318">
-        <v>7758.9536998000003</v>
+        <v>2993.4071067999998</v>
       </c>
     </row>
     <row r="319" spans="1:13" x14ac:dyDescent="0.25">
@@ -15927,13 +15960,13 @@
         <v>0.31416017503999999</v>
       </c>
       <c r="K319">
-        <v>0.55979643765999998</v>
+        <v>0.45752814400000003</v>
       </c>
       <c r="L319" t="s">
         <v>960</v>
       </c>
       <c r="M319">
-        <v>6958.1619659999997</v>
+        <v>5584.5316648999997</v>
       </c>
     </row>
     <row r="320" spans="1:13" x14ac:dyDescent="0.25">
@@ -15968,13 +16001,13 @@
         <v>2.0406572594000001</v>
       </c>
       <c r="K320">
-        <v>3.2122137405000002</v>
+        <v>3.1705897697999998</v>
       </c>
       <c r="L320" t="s">
         <v>960</v>
       </c>
       <c r="M320">
-        <v>1148200.8163000001</v>
+        <v>683947.01168</v>
       </c>
     </row>
     <row r="321" spans="1:13" x14ac:dyDescent="0.25">
@@ -16009,13 +16042,13 @@
         <v>0.31949717416000001</v>
       </c>
       <c r="K321">
-        <v>0.45801526718000002</v>
+        <v>0.39331366764999998</v>
       </c>
       <c r="L321" t="s">
         <v>958</v>
       </c>
       <c r="M321">
-        <v>1028.2523172000001</v>
+        <v>1089.269401</v>
       </c>
     </row>
     <row r="322" spans="1:13" x14ac:dyDescent="0.25">
@@ -16050,13 +16083,13 @@
         <v>0.80949152447999995</v>
       </c>
       <c r="K322">
-        <v>0.42340966921000001</v>
+        <v>0.40134047718999999</v>
       </c>
       <c r="L322" t="s">
         <v>956</v>
       </c>
       <c r="M322">
-        <v>3828.8750417000001</v>
+        <v>1965.9393121999999</v>
       </c>
     </row>
     <row r="323" spans="1:13" x14ac:dyDescent="0.25">
@@ -16091,13 +16124,13 @@
         <v>0.98961678479000004</v>
       </c>
       <c r="K323">
-        <v>1.1297709923999999</v>
+        <v>1.1177332289999999</v>
       </c>
       <c r="L323" t="s">
         <v>966</v>
       </c>
       <c r="M323">
-        <v>290656.20094000001</v>
+        <v>151463.17222000001</v>
       </c>
     </row>
     <row r="324" spans="1:13" x14ac:dyDescent="0.25">
@@ -16132,13 +16165,13 @@
         <v>4.3318343483000001</v>
       </c>
       <c r="K324">
-        <v>7.8045801526999998</v>
+        <v>8.2716272350000004</v>
       </c>
       <c r="L324" t="s">
         <v>963</v>
       </c>
       <c r="M324">
-        <v>74857.007660999996</v>
+        <v>130011.74049</v>
       </c>
     </row>
     <row r="325" spans="1:13" x14ac:dyDescent="0.25">
@@ -16208,13 +16241,13 @@
         <v>0.28449524654000002</v>
       </c>
       <c r="K326">
-        <v>0.42076588314000002</v>
+        <v>0.42742760820999998</v>
       </c>
       <c r="L326" t="s">
         <v>960</v>
       </c>
       <c r="M326">
-        <v>1490718.5952000001</v>
+        <v>1071416.8595</v>
       </c>
     </row>
     <row r="327" spans="1:13" x14ac:dyDescent="0.25">
@@ -16287,13 +16320,13 @@
         <v>0.81360462369999997</v>
       </c>
       <c r="K328">
-        <v>2.9455470737999998</v>
+        <v>2.6327935303999999</v>
       </c>
       <c r="L328" t="s">
         <v>956</v>
       </c>
       <c r="M328">
-        <v>109.2937005</v>
+        <v>94.950990920999999</v>
       </c>
     </row>
     <row r="329" spans="1:13" x14ac:dyDescent="0.25">
@@ -16328,13 +16361,13 @@
         <v>0.71474434840000001</v>
       </c>
       <c r="K329">
-        <v>1.2213740458</v>
+        <v>1.3384704914000001</v>
       </c>
       <c r="L329" t="s">
         <v>967</v>
       </c>
       <c r="M329">
-        <v>8941.5962049000009</v>
+        <v>16545.578031000001</v>
       </c>
     </row>
     <row r="330" spans="1:13" x14ac:dyDescent="0.25">
@@ -16369,13 +16402,13 @@
         <v>0.71474434840000001</v>
       </c>
       <c r="K330">
-        <v>1.5816793893000001</v>
+        <v>1.71573054</v>
       </c>
       <c r="L330" t="s">
         <v>967</v>
       </c>
       <c r="M330">
-        <v>238870.14988000001</v>
+        <v>270895.97616999998</v>
       </c>
     </row>
     <row r="331" spans="1:13" x14ac:dyDescent="0.25">
@@ -16410,13 +16443,13 @@
         <v>1.3059568143</v>
       </c>
       <c r="K331">
-        <v>1.9826972009999999</v>
+        <v>1.9866353620999999</v>
       </c>
       <c r="L331" t="s">
         <v>963</v>
       </c>
       <c r="M331">
-        <v>240077.33898</v>
+        <v>219896.2286</v>
       </c>
     </row>
     <row r="332" spans="1:13" x14ac:dyDescent="0.25">
@@ -16451,13 +16484,13 @@
         <v>0.86887777466000005</v>
       </c>
       <c r="K332">
-        <v>1.3821882952</v>
+        <v>1.2662292055</v>
       </c>
       <c r="L332" t="s">
         <v>958</v>
       </c>
       <c r="M332">
-        <v>14393.574439</v>
+        <v>13294.032007</v>
       </c>
     </row>
     <row r="333" spans="1:13" x14ac:dyDescent="0.25">
@@ -16495,7 +16528,7 @@
         <v>971</v>
       </c>
       <c r="M333">
-        <v>0</v>
+        <v>8.2748419943999991</v>
       </c>
     </row>
     <row r="334" spans="1:13" x14ac:dyDescent="0.25">
@@ -16533,7 +16566,7 @@
         <v>971</v>
       </c>
       <c r="M334">
-        <v>0</v>
+        <v>6.4665996522000002</v>
       </c>
     </row>
     <row r="335" spans="1:13" x14ac:dyDescent="0.25">
@@ -16568,13 +16601,13 @@
         <v>1.8011654815</v>
       </c>
       <c r="K335">
-        <v>1.6468193384000001</v>
+        <v>1.5953283968</v>
       </c>
       <c r="L335" t="s">
         <v>966</v>
       </c>
       <c r="M335">
-        <v>75140.852557000006</v>
+        <v>65593.560421000002</v>
       </c>
     </row>
     <row r="336" spans="1:13" x14ac:dyDescent="0.25">
@@ -16609,13 +16642,13 @@
         <v>1.1544678081999999</v>
       </c>
       <c r="K336">
-        <v>0.88346055980000004</v>
+        <v>0.95117693095</v>
       </c>
       <c r="L336" t="s">
         <v>962</v>
       </c>
       <c r="M336">
-        <v>2873.6638103999999</v>
+        <v>2549.9451912999998</v>
       </c>
     </row>
     <row r="337" spans="1:13" x14ac:dyDescent="0.25">
@@ -16722,14 +16755,11 @@
       <c r="J339">
         <v>2.757319147</v>
       </c>
-      <c r="K339">
-        <v>2.3232449709999998</v>
-      </c>
       <c r="L339" t="s">
         <v>955</v>
       </c>
       <c r="M339">
-        <v>29.020924745999999</v>
+        <v>15.534195362</v>
       </c>
     </row>
     <row r="340" spans="1:13" x14ac:dyDescent="0.25">
@@ -16763,14 +16793,11 @@
       <c r="J340">
         <v>5.6703861942999998</v>
       </c>
-      <c r="K340">
-        <v>4.2730523678000001</v>
-      </c>
       <c r="L340" t="s">
         <v>955</v>
       </c>
       <c r="M340">
-        <v>47.354532685999999</v>
+        <v>21.881358390999999</v>
       </c>
     </row>
     <row r="341" spans="1:13" x14ac:dyDescent="0.25">
@@ -16805,13 +16832,13 @@
         <v>5.6703861942999998</v>
       </c>
       <c r="K341">
-        <v>3.5584125708999998</v>
+        <v>3.3431661749999999</v>
       </c>
       <c r="L341" t="s">
         <v>955</v>
       </c>
       <c r="M341">
-        <v>592.93666860999997</v>
+        <v>278.48958671999998</v>
       </c>
     </row>
     <row r="342" spans="1:13" x14ac:dyDescent="0.25">
@@ -16846,13 +16873,13 @@
         <v>2.7808902429</v>
       </c>
       <c r="K342">
-        <v>4.3969465649000004</v>
+        <v>5.8194369193000002</v>
       </c>
       <c r="L342" t="s">
         <v>955</v>
       </c>
       <c r="M342">
-        <v>26.276015777000001</v>
+        <v>287.40282875999998</v>
       </c>
     </row>
     <row r="343" spans="1:13" x14ac:dyDescent="0.25">
@@ -16887,13 +16914,13 @@
         <v>2.7808902429</v>
       </c>
       <c r="K343">
-        <v>4.0223918574999997</v>
+        <v>6.5599100996999997</v>
       </c>
       <c r="L343" t="s">
         <v>955</v>
       </c>
       <c r="M343">
-        <v>2002.3460471000001</v>
+        <v>2052.0845245999999</v>
       </c>
     </row>
     <row r="344" spans="1:13" x14ac:dyDescent="0.25">
@@ -16928,13 +16955,13 @@
         <v>2.4412247868999999</v>
       </c>
       <c r="K344">
-        <v>6.9781170483999997</v>
+        <v>7.2020548631999999</v>
       </c>
       <c r="L344" t="s">
         <v>967</v>
       </c>
       <c r="M344">
-        <v>98065.524176999999</v>
+        <v>67602.811677999998</v>
       </c>
     </row>
     <row r="345" spans="1:13" x14ac:dyDescent="0.25">
@@ -16968,14 +16995,11 @@
       <c r="J345">
         <v>-21.388689488000001</v>
       </c>
-      <c r="K345">
-        <v>51.704834605999999</v>
-      </c>
       <c r="L345" t="s">
         <v>957</v>
       </c>
       <c r="M345">
-        <v>1172.1355083000001</v>
+        <v>1460.2950635</v>
       </c>
     </row>
     <row r="346" spans="1:13" x14ac:dyDescent="0.25">
@@ -17048,13 +17072,13 @@
         <v>9.8035234650999996</v>
       </c>
       <c r="K347">
-        <v>10.178117048000001</v>
+        <v>9.7726406197000006</v>
       </c>
       <c r="L347" t="s">
         <v>956</v>
       </c>
       <c r="M347">
-        <v>555.49275845</v>
+        <v>1116.2005644999999</v>
       </c>
     </row>
     <row r="348" spans="1:13" x14ac:dyDescent="0.25">
@@ -17089,13 +17113,13 @@
         <v>1.1499853555999999</v>
       </c>
       <c r="K348">
-        <v>2.6096692111999999</v>
+        <v>2.4983444705000002</v>
       </c>
       <c r="L348" t="s">
         <v>958</v>
       </c>
       <c r="M348">
-        <v>53843.027149000001</v>
+        <v>39303.946096</v>
       </c>
     </row>
     <row r="349" spans="1:13" x14ac:dyDescent="0.25">
@@ -17203,13 +17227,13 @@
         <v>0.21369949307</v>
       </c>
       <c r="K351">
-        <v>1.4636132315999999</v>
+        <v>1.3665643247999999</v>
       </c>
       <c r="L351" t="s">
         <v>963</v>
       </c>
       <c r="M351">
-        <v>333021.78503000003</v>
+        <v>243192.95039000001</v>
       </c>
     </row>
     <row r="352" spans="1:13" x14ac:dyDescent="0.25">
@@ -17243,11 +17267,14 @@
       <c r="J352">
         <v>-9.0686382050999992</v>
       </c>
+      <c r="K352">
+        <v>4.0435053077000003</v>
+      </c>
       <c r="L352" t="s">
         <v>963</v>
       </c>
       <c r="M352">
-        <v>335.26232275000001</v>
+        <v>212.41057925000001</v>
       </c>
     </row>
     <row r="353" spans="1:13" x14ac:dyDescent="0.25">
@@ -17282,13 +17309,13 @@
         <v>1.8442261543</v>
       </c>
       <c r="K353">
-        <v>1.013740458</v>
+        <v>1.1939879197000001</v>
       </c>
       <c r="L353" t="s">
         <v>962</v>
       </c>
       <c r="M353">
-        <v>47105.225434</v>
+        <v>34298.288168999999</v>
       </c>
     </row>
     <row r="354" spans="1:13" x14ac:dyDescent="0.25">
@@ -17323,13 +17350,13 @@
         <v>0.92223985192000002</v>
       </c>
       <c r="K354">
-        <v>0.39287531806999998</v>
+        <v>0.49164208456000003</v>
       </c>
       <c r="L354" t="s">
         <v>960</v>
       </c>
       <c r="M354">
-        <v>10749.889243</v>
+        <v>8159.4959735000002</v>
       </c>
     </row>
     <row r="355" spans="1:13" x14ac:dyDescent="0.25">
@@ -17367,7 +17394,7 @@
         <v>958</v>
       </c>
       <c r="M355">
-        <v>32.256212167999998</v>
+        <v>69.613060017999999</v>
       </c>
     </row>
     <row r="356" spans="1:13" x14ac:dyDescent="0.25">
@@ -17402,13 +17429,13 @@
         <v>3.1159302037000001</v>
       </c>
       <c r="K356">
-        <v>2.4101781170000001</v>
+        <v>2.6368069352000001</v>
       </c>
       <c r="L356" t="s">
         <v>962</v>
       </c>
       <c r="M356">
-        <v>25485.215056000001</v>
+        <v>26547.966635000001</v>
       </c>
     </row>
     <row r="357" spans="1:13" x14ac:dyDescent="0.25">
@@ -17443,13 +17470,13 @@
         <v>1.6812855384000001</v>
       </c>
       <c r="K357">
-        <v>1.9175572518999999</v>
+        <v>1.7117171352</v>
       </c>
       <c r="L357" t="s">
         <v>958</v>
       </c>
       <c r="M357">
-        <v>175967.09057999999</v>
+        <v>136233.01796</v>
       </c>
     </row>
     <row r="358" spans="1:13" x14ac:dyDescent="0.25">
@@ -17487,7 +17514,7 @@
         <v>959</v>
       </c>
       <c r="M358">
-        <v>11.587887718999999</v>
+        <v>3.9394224139</v>
       </c>
     </row>
     <row r="359" spans="1:13" x14ac:dyDescent="0.25">
@@ -17525,7 +17552,7 @@
         <v>959</v>
       </c>
       <c r="M359">
-        <v>3.2801098359999998</v>
+        <v>1.7859455958999999</v>
       </c>
     </row>
     <row r="360" spans="1:13" x14ac:dyDescent="0.25">
@@ -17563,7 +17590,7 @@
         <v>959</v>
       </c>
       <c r="M360">
-        <v>2.3438919954999999</v>
+        <v>2.2300032383000001</v>
       </c>
     </row>
     <row r="361" spans="1:13" x14ac:dyDescent="0.25">
@@ -17598,13 +17625,13 @@
         <v>2.4386297065</v>
       </c>
       <c r="K361">
-        <v>1.644783715</v>
+        <v>1.5291072181000001</v>
       </c>
       <c r="L361" t="s">
         <v>962</v>
       </c>
       <c r="M361">
-        <v>913911.86948999995</v>
+        <v>718147.35227999999</v>
       </c>
     </row>
     <row r="362" spans="1:13" x14ac:dyDescent="0.25">
@@ -17639,13 +17666,13 @@
         <v>0.87045236176999996</v>
       </c>
       <c r="K362">
-        <v>0.38269720101999999</v>
+        <v>0.44950133446000001</v>
       </c>
       <c r="L362" t="s">
         <v>970</v>
       </c>
       <c r="M362">
-        <v>31569.349460000001</v>
+        <v>19843.70609</v>
       </c>
     </row>
     <row r="363" spans="1:13" x14ac:dyDescent="0.25">
@@ -17680,13 +17707,13 @@
         <v>2.3665900411999998</v>
       </c>
       <c r="K363">
-        <v>5.7384223919000004</v>
+        <v>5.2997010012999999</v>
       </c>
       <c r="L363" t="s">
         <v>958</v>
       </c>
       <c r="M363">
-        <v>345682.90914</v>
+        <v>485220.63243</v>
       </c>
     </row>
     <row r="364" spans="1:13" x14ac:dyDescent="0.25">
@@ -17720,11 +17747,14 @@
       <c r="J364">
         <v>12.555085048</v>
       </c>
+      <c r="K364">
+        <v>8.7291553789999998</v>
+      </c>
       <c r="L364" t="s">
         <v>956</v>
       </c>
       <c r="M364">
-        <v>99.218167460999993</v>
+        <v>173.74512003999999</v>
       </c>
     </row>
     <row r="365" spans="1:13" x14ac:dyDescent="0.25">
@@ -17759,13 +17789,13 @@
         <v>4.8557108045000001</v>
       </c>
       <c r="K365">
-        <v>4.2259541985000002</v>
+        <v>4.3344771537</v>
       </c>
       <c r="L365" t="s">
         <v>954</v>
       </c>
       <c r="M365">
-        <v>79035.990447999997</v>
+        <v>94577.821618999995</v>
       </c>
     </row>
     <row r="366" spans="1:13" x14ac:dyDescent="0.25">
@@ -17800,13 +17830,13 @@
         <v>0.39887002743</v>
       </c>
       <c r="K366">
-        <v>0.23613231552</v>
+        <v>0.23478417915999999</v>
       </c>
       <c r="L366" t="s">
         <v>966</v>
       </c>
       <c r="M366">
-        <v>2108.2379182</v>
+        <v>2101.8885359000001</v>
       </c>
     </row>
     <row r="367" spans="1:13" x14ac:dyDescent="0.25">
@@ -17841,13 +17871,13 @@
         <v>-10.819484791000001</v>
       </c>
       <c r="K367">
-        <v>1.0218829517000001</v>
+        <v>0.94917022856</v>
       </c>
       <c r="L367" t="s">
         <v>958</v>
       </c>
       <c r="M367">
-        <v>47.290661342999996</v>
+        <v>23.507587946000001</v>
       </c>
     </row>
     <row r="368" spans="1:13" x14ac:dyDescent="0.25">
@@ -17881,11 +17911,14 @@
       <c r="J368">
         <v>23.738159352</v>
       </c>
+      <c r="K368">
+        <v>23.578753034999998</v>
+      </c>
       <c r="L368" t="s">
         <v>955</v>
       </c>
       <c r="M368">
-        <v>92.384523811999998</v>
+        <v>50.046058774999999</v>
       </c>
     </row>
     <row r="369" spans="1:13" x14ac:dyDescent="0.25">
@@ -17920,13 +17953,13 @@
         <v>-4.7180965796000001</v>
       </c>
       <c r="K369">
-        <v>2.7277353689999999</v>
+        <v>2.3478417916000001</v>
       </c>
       <c r="L369" t="s">
         <v>957</v>
       </c>
       <c r="M369">
-        <v>922.62033883000004</v>
+        <v>117.55991361</v>
       </c>
     </row>
     <row r="370" spans="1:13" x14ac:dyDescent="0.25">
@@ -17990,13 +18023,13 @@
         <v>0</v>
       </c>
       <c r="K371">
-        <v>1.5979643766</v>
+        <v>1.8441594927</v>
       </c>
       <c r="L371" t="s">
         <v>955</v>
       </c>
       <c r="M371">
-        <v>161507.23882</v>
+        <v>147305.5551</v>
       </c>
     </row>
     <row r="372" spans="1:13" x14ac:dyDescent="0.25">
@@ -18031,13 +18064,13 @@
         <v>0.49639662497999998</v>
       </c>
       <c r="K372">
-        <v>1.1603053434999999</v>
+        <v>1.1036863123</v>
       </c>
       <c r="L372" t="s">
         <v>968</v>
       </c>
       <c r="M372">
-        <v>598.19619689000001</v>
+        <v>85.939954822999994</v>
       </c>
     </row>
     <row r="373" spans="1:13" x14ac:dyDescent="0.25">
@@ -18072,13 +18105,13 @@
         <v>0.80069970553000003</v>
       </c>
       <c r="K373">
-        <v>1.1867684478</v>
+        <v>1.1779343006</v>
       </c>
       <c r="L373" t="s">
         <v>965</v>
       </c>
       <c r="M373">
-        <v>17838.852462999999</v>
+        <v>15912.176067</v>
       </c>
     </row>
     <row r="374" spans="1:13" x14ac:dyDescent="0.25">
@@ -18186,13 +18219,13 @@
         <v>0.53054688001999994</v>
       </c>
       <c r="K376">
-        <v>2.4081424936000002</v>
+        <v>2.4180763751000001</v>
       </c>
       <c r="L376" t="s">
         <v>958</v>
       </c>
       <c r="M376">
-        <v>110599.40612</v>
+        <v>108527.57305000001</v>
       </c>
     </row>
     <row r="377" spans="1:13" x14ac:dyDescent="0.25">
@@ -18227,13 +18260,13 @@
         <v>-8.9915541002000001</v>
       </c>
       <c r="K377">
-        <v>0.13027989822</v>
+        <v>0.20869704814000001</v>
       </c>
       <c r="L377" t="s">
         <v>964</v>
       </c>
       <c r="M377">
-        <v>13665.614797</v>
+        <v>156841.26433000001</v>
       </c>
     </row>
     <row r="378" spans="1:13" x14ac:dyDescent="0.25">
@@ -18268,13 +18301,13 @@
         <v>-8.9915541002000001</v>
       </c>
       <c r="K378">
-        <v>0.31959287532000002</v>
+        <v>0.42341420344000003</v>
       </c>
       <c r="L378" t="s">
         <v>964</v>
       </c>
       <c r="M378">
-        <v>217.84781042</v>
+        <v>4770.6481323999997</v>
       </c>
     </row>
     <row r="379" spans="1:13" x14ac:dyDescent="0.25">
@@ -18309,13 +18342,13 @@
         <v>0.87087660527999999</v>
       </c>
       <c r="K379">
-        <v>2.4366412213999999</v>
+        <v>2.0669034575</v>
       </c>
       <c r="L379" t="s">
         <v>958</v>
       </c>
       <c r="M379">
-        <v>83276.874337000001</v>
+        <v>121163.72772</v>
       </c>
     </row>
     <row r="380" spans="1:13" x14ac:dyDescent="0.25">
@@ -18350,13 +18383,13 @@
         <v>1.486616908</v>
       </c>
       <c r="K380">
-        <v>7.1898218829999996</v>
+        <v>6.7224529930000001</v>
       </c>
       <c r="L380" t="s">
         <v>958</v>
       </c>
       <c r="M380">
-        <v>65370.366994000004</v>
+        <v>43912.835011000003</v>
       </c>
     </row>
     <row r="381" spans="1:13" x14ac:dyDescent="0.25">
@@ -18391,13 +18424,13 @@
         <v>-395.15335715999998</v>
       </c>
       <c r="K381">
-        <v>1.306870229</v>
+        <v>0.99131097866999995</v>
       </c>
       <c r="L381" t="s">
         <v>967</v>
       </c>
       <c r="M381">
-        <v>1323.4268970000001</v>
+        <v>229.79168182000001</v>
       </c>
     </row>
     <row r="382" spans="1:13" x14ac:dyDescent="0.25">
@@ -18432,13 +18465,13 @@
         <v>2.4700750744</v>
       </c>
       <c r="K382">
-        <v>4.7226463104</v>
+        <v>4.4147452491000001</v>
       </c>
       <c r="L382" t="s">
         <v>968</v>
       </c>
       <c r="M382">
-        <v>1319.9127699000001</v>
+        <v>670.24646184000005</v>
       </c>
     </row>
     <row r="383" spans="1:13" x14ac:dyDescent="0.25">
@@ -18470,13 +18503,13 @@
         <v>3.7102050539999998</v>
       </c>
       <c r="K383">
-        <v>0.84274809159999997</v>
+        <v>0.80870106154999999</v>
       </c>
       <c r="L383" t="s">
         <v>960</v>
       </c>
       <c r="M383">
-        <v>241736.59669999999</v>
+        <v>156454.63364000001</v>
       </c>
     </row>
     <row r="384" spans="1:13" x14ac:dyDescent="0.25">
@@ -18511,13 +18544,13 @@
         <v>0.38632939863999999</v>
       </c>
       <c r="K384">
-        <v>0.67175572519000004</v>
+        <v>0.73043966848999997</v>
       </c>
       <c r="L384" t="s">
         <v>966</v>
       </c>
       <c r="M384">
-        <v>793.33322970999996</v>
+        <v>1448.9013646000001</v>
       </c>
     </row>
     <row r="385" spans="1:13" x14ac:dyDescent="0.25">
@@ -18552,13 +18585,13 @@
         <v>0.94499976576</v>
       </c>
       <c r="K385">
-        <v>0.64221909356999995</v>
+        <v>0.59398390624999997</v>
       </c>
       <c r="L385" t="s">
         <v>960</v>
       </c>
       <c r="M385">
-        <v>31441.787695999999</v>
+        <v>16245.707351999999</v>
       </c>
     </row>
     <row r="386" spans="1:13" x14ac:dyDescent="0.25">
@@ -18592,14 +18625,11 @@
       <c r="J386">
         <v>7.0566064001999997</v>
       </c>
-      <c r="K386">
-        <v>5.644783715</v>
-      </c>
       <c r="L386" t="s">
         <v>956</v>
       </c>
       <c r="M386">
-        <v>20.375096483</v>
+        <v>6.1236100243999996</v>
       </c>
     </row>
     <row r="387" spans="1:13" x14ac:dyDescent="0.25">
@@ -18633,11 +18663,14 @@
       <c r="J387">
         <v>7.0566064001999997</v>
       </c>
+      <c r="K387">
+        <v>6.0201071579000001</v>
+      </c>
       <c r="L387" t="s">
         <v>956</v>
       </c>
       <c r="M387">
-        <v>13.517229214</v>
+        <v>3.0501876267000001</v>
       </c>
     </row>
     <row r="388" spans="1:13" x14ac:dyDescent="0.25">
@@ -18671,14 +18704,11 @@
       <c r="J388">
         <v>10.731704311</v>
       </c>
-      <c r="K388">
-        <v>7.9389312976999999</v>
-      </c>
       <c r="L388" t="s">
         <v>958</v>
       </c>
       <c r="M388">
-        <v>45.574399372000002</v>
+        <v>6.7315742356000001</v>
       </c>
     </row>
     <row r="389" spans="1:13" x14ac:dyDescent="0.25">
@@ -18713,13 +18743,13 @@
         <v>10.731704311</v>
       </c>
       <c r="K389">
-        <v>9.7709923663999998</v>
+        <v>9.7505668934000003</v>
       </c>
       <c r="L389" t="s">
         <v>958</v>
       </c>
       <c r="M389">
-        <v>51.760173682000001</v>
+        <v>23.993642588</v>
       </c>
     </row>
     <row r="390" spans="1:13" x14ac:dyDescent="0.25">
@@ -18754,13 +18784,13 @@
         <v>-18.440678172999998</v>
       </c>
       <c r="K390">
-        <v>0.87531806615999996</v>
+        <v>0.74649328758</v>
       </c>
       <c r="L390" t="s">
         <v>956</v>
       </c>
       <c r="M390">
-        <v>391.93682501000001</v>
+        <v>430.25524294000002</v>
       </c>
     </row>
     <row r="391" spans="1:13" x14ac:dyDescent="0.25">
@@ -18795,13 +18825,13 @@
         <v>-333.79483750000003</v>
       </c>
       <c r="K391">
-        <v>8.1424936387000005E-2</v>
+        <v>6.2207773964999998E-2</v>
       </c>
       <c r="L391" t="s">
         <v>962</v>
       </c>
       <c r="M391">
-        <v>6997.1474519000003</v>
+        <v>2686.6625786999998</v>
       </c>
     </row>
     <row r="392" spans="1:13" x14ac:dyDescent="0.25">
@@ -18836,13 +18866,13 @@
         <v>-14.924172021</v>
       </c>
       <c r="K392">
-        <v>0.42544529262000003</v>
+        <v>0.40134047718999999</v>
       </c>
       <c r="L392" t="s">
         <v>952</v>
       </c>
       <c r="M392">
-        <v>51.257556487000002</v>
+        <v>256.54654176000003</v>
       </c>
     </row>
     <row r="393" spans="1:13" x14ac:dyDescent="0.25">
@@ -18877,13 +18907,13 @@
         <v>5.9225105400000002</v>
       </c>
       <c r="K393">
-        <v>8.5414758269999993</v>
+        <v>8.2716272350000004</v>
       </c>
       <c r="L393" t="s">
         <v>952</v>
       </c>
       <c r="M393">
-        <v>1672680.6853</v>
+        <v>1874613.6338</v>
       </c>
     </row>
     <row r="394" spans="1:13" x14ac:dyDescent="0.25">
@@ -18918,13 +18948,13 @@
         <v>5.9225105400000002</v>
       </c>
       <c r="K394">
-        <v>8.1343511450000001</v>
+        <v>8.0549033773000005</v>
       </c>
       <c r="L394" t="s">
         <v>952</v>
       </c>
       <c r="M394">
-        <v>5659199.2333000004</v>
+        <v>6017354.2622999996</v>
       </c>
     </row>
     <row r="395" spans="1:13" x14ac:dyDescent="0.25">
@@ -18959,13 +18989,13 @@
         <v>3.0181937586999998</v>
       </c>
       <c r="K395">
-        <v>4.8508905852000002</v>
+        <v>4.6154154877</v>
       </c>
       <c r="L395" t="s">
         <v>952</v>
       </c>
       <c r="M395">
-        <v>305892.53876999998</v>
+        <v>184767.56426000001</v>
       </c>
     </row>
     <row r="396" spans="1:13" x14ac:dyDescent="0.25">
@@ -19000,13 +19030,13 @@
         <v>3.0804751502999999</v>
       </c>
       <c r="K396">
-        <v>9.3007633587999994</v>
+        <v>8.7712961290999996</v>
       </c>
       <c r="L396" t="s">
         <v>952</v>
       </c>
       <c r="M396">
-        <v>1834673.7109000001</v>
+        <v>1565724.0825</v>
       </c>
     </row>
     <row r="397" spans="1:13" x14ac:dyDescent="0.25">
@@ -19041,13 +19071,13 @@
         <v>1.5581517954999999</v>
       </c>
       <c r="K397">
-        <v>2.5323155216000002</v>
+        <v>2.5023578753</v>
       </c>
       <c r="L397" t="s">
         <v>961</v>
       </c>
       <c r="M397">
-        <v>60.400612295000002</v>
+        <v>30.913843312000001</v>
       </c>
     </row>
     <row r="398" spans="1:13" x14ac:dyDescent="0.25">
@@ -19082,13 +19112,13 @@
         <v>1.5581517954999999</v>
       </c>
       <c r="K398">
-        <v>1.6977099237</v>
+        <v>1.5792747778</v>
       </c>
       <c r="L398" t="s">
         <v>961</v>
       </c>
       <c r="M398">
-        <v>231.22024531</v>
+        <v>341.24824799999999</v>
       </c>
     </row>
     <row r="399" spans="1:13" x14ac:dyDescent="0.25">
@@ -19123,13 +19153,13 @@
         <v>0.79783061720000004</v>
       </c>
       <c r="K399">
-        <v>0.69211195929000002</v>
+        <v>0.83679489495000003</v>
       </c>
       <c r="L399" t="s">
         <v>960</v>
       </c>
       <c r="M399">
-        <v>229553.75568999999</v>
+        <v>205666.04999</v>
       </c>
     </row>
     <row r="400" spans="1:13" x14ac:dyDescent="0.25">
@@ -19161,13 +19191,13 @@
         <v>1.0532008066</v>
       </c>
       <c r="K400">
-        <v>1.0157760814000001</v>
+        <v>1.8060321474000001</v>
       </c>
       <c r="L400" t="s">
         <v>955</v>
       </c>
       <c r="M400">
-        <v>4.3884550303000003</v>
+        <v>152.79517767999999</v>
       </c>
     </row>
     <row r="401" spans="1:13" x14ac:dyDescent="0.25">
@@ -19202,13 +19232,13 @@
         <v>1.0532008066</v>
       </c>
       <c r="K401">
-        <v>0.82849872774</v>
+        <v>0.91505628800000005</v>
       </c>
       <c r="L401" t="s">
         <v>955</v>
       </c>
       <c r="M401">
-        <v>18444.455560999999</v>
+        <v>9455.6695478000001</v>
       </c>
     </row>
     <row r="402" spans="1:13" x14ac:dyDescent="0.25">
@@ -19243,13 +19273,13 @@
         <v>0.60166093338000004</v>
       </c>
       <c r="K402">
-        <v>2.4671755725</v>
+        <v>2.8374771738</v>
       </c>
       <c r="L402" t="s">
         <v>962</v>
       </c>
       <c r="M402">
-        <v>47067.618785999999</v>
+        <v>36892.517747999998</v>
       </c>
     </row>
     <row r="403" spans="1:13" x14ac:dyDescent="0.25">
@@ -19284,13 +19314,13 @@
         <v>-5.7448292278000004</v>
       </c>
       <c r="K403">
-        <v>1.4452926209000001</v>
+        <v>1.6053619088</v>
       </c>
       <c r="L403" t="s">
         <v>967</v>
       </c>
       <c r="M403">
-        <v>17.204588292</v>
+        <v>11.444292661</v>
       </c>
     </row>
     <row r="404" spans="1:13" x14ac:dyDescent="0.25">
@@ -19363,13 +19393,13 @@
         <v>-7.2174851243999996</v>
       </c>
       <c r="K405">
-        <v>0.35012722646</v>
+        <v>0.29097184596999998</v>
       </c>
       <c r="L405" t="s">
         <v>953</v>
       </c>
       <c r="M405">
-        <v>257.03151057000002</v>
+        <v>64.522638181000005</v>
       </c>
     </row>
     <row r="406" spans="1:13" x14ac:dyDescent="0.25">
@@ -19398,19 +19428,19 @@
         <v>0.28886938689000002</v>
       </c>
       <c r="I406">
-        <v>0.67881588309999996</v>
+        <v>0.66621089452000004</v>
       </c>
       <c r="J406">
-        <v>3.6936875660999999</v>
+        <v>3.6574230392999998</v>
       </c>
       <c r="K406">
-        <v>5.4595419847000004</v>
+        <v>5.7311420142999996</v>
       </c>
       <c r="L406" t="s">
         <v>955</v>
       </c>
       <c r="M406">
-        <v>172098.54446999999</v>
+        <v>231551.52035000001</v>
       </c>
     </row>
     <row r="407" spans="1:13" x14ac:dyDescent="0.25">
@@ -19445,13 +19475,13 @@
         <v>0.54138453307000001</v>
       </c>
       <c r="K407">
-        <v>1.3129770992000001</v>
+        <v>1.2020147292000001</v>
       </c>
       <c r="L407" t="s">
         <v>969</v>
       </c>
       <c r="M407">
-        <v>17856.416535</v>
+        <v>12794.881665999999</v>
       </c>
     </row>
     <row r="408" spans="1:13" x14ac:dyDescent="0.25">
@@ -19486,13 +19516,13 @@
         <v>2.0623078224000002</v>
       </c>
       <c r="K408">
-        <v>1.4615776081</v>
+        <v>1.6033552064000001</v>
       </c>
       <c r="L408" t="s">
         <v>970</v>
       </c>
       <c r="M408">
-        <v>35645.795016999997</v>
+        <v>25568.021940999999</v>
       </c>
     </row>
     <row r="409" spans="1:13" x14ac:dyDescent="0.25">
@@ -19527,13 +19557,13 @@
         <v>5.6758816976999998E-4</v>
       </c>
       <c r="K409">
-        <v>0.81017811704999998</v>
+        <v>0.76656031144000003</v>
       </c>
       <c r="L409" t="s">
         <v>955</v>
       </c>
       <c r="M409">
-        <v>5.9530595319000001</v>
+        <v>5.6550027973999999</v>
       </c>
     </row>
     <row r="410" spans="1:13" x14ac:dyDescent="0.25">
@@ -19638,13 +19668,13 @@
         <v>1.2225807555999999</v>
       </c>
       <c r="K412">
-        <v>2.4427480915999999</v>
+        <v>2.2756005056999999</v>
       </c>
       <c r="L412" t="s">
         <v>962</v>
       </c>
       <c r="M412">
-        <v>9366.7602551</v>
+        <v>14207.869375</v>
       </c>
     </row>
     <row r="413" spans="1:13" x14ac:dyDescent="0.25">
@@ -19679,13 +19709,13 @@
         <v>2.0547769274999999</v>
       </c>
       <c r="K413">
-        <v>0.96895674300000001</v>
+        <v>1.1719141933999999</v>
       </c>
       <c r="L413" t="s">
         <v>960</v>
       </c>
       <c r="M413">
-        <v>7610.7981640999997</v>
+        <v>4886.1826825999997</v>
       </c>
     </row>
     <row r="414" spans="1:13" x14ac:dyDescent="0.25">
@@ -19755,13 +19785,13 @@
         <v>0.94996933039999998</v>
       </c>
       <c r="K415">
-        <v>0.49872773536999998</v>
+        <v>0.47358176309</v>
       </c>
       <c r="L415" t="s">
         <v>958</v>
       </c>
       <c r="M415">
-        <v>77404.841260999994</v>
+        <v>55405.613026999999</v>
       </c>
     </row>
     <row r="416" spans="1:13" x14ac:dyDescent="0.25">
@@ -19831,13 +19861,13 @@
         <v>0.53720043435999998</v>
       </c>
       <c r="K417">
-        <v>1.0422391858</v>
+        <v>1.0474986454999999</v>
       </c>
       <c r="L417" t="s">
         <v>960</v>
       </c>
       <c r="M417">
-        <v>69877.211607999998</v>
+        <v>49460.676391000001</v>
       </c>
     </row>
     <row r="418" spans="1:13" x14ac:dyDescent="0.25">
@@ -19872,13 +19902,13 @@
         <v>0.66649554564000002</v>
       </c>
       <c r="K418">
-        <v>5.3251908397000003</v>
+        <v>5.3458551561999998</v>
       </c>
       <c r="L418" t="s">
         <v>960</v>
       </c>
       <c r="M418">
-        <v>801350.75713000004</v>
+        <v>843780.58180000004</v>
       </c>
     </row>
     <row r="419" spans="1:13" x14ac:dyDescent="0.25">
@@ -19913,13 +19943,13 @@
         <v>0.42689287200999998</v>
       </c>
       <c r="K419">
-        <v>0.76132315522000005</v>
+        <v>0.71037264463000005</v>
       </c>
       <c r="L419" t="s">
         <v>953</v>
       </c>
       <c r="M419">
-        <v>191644.00096</v>
+        <v>192215.20877</v>
       </c>
     </row>
     <row r="420" spans="1:13" x14ac:dyDescent="0.25">
@@ -19954,13 +19984,13 @@
         <v>1.7912096293999999</v>
       </c>
       <c r="K420">
-        <v>2.3511450381999999</v>
+        <v>2.1391447434000002</v>
       </c>
       <c r="L420" t="s">
         <v>967</v>
       </c>
       <c r="M420">
-        <v>1271.9499951</v>
+        <v>582.13708477</v>
       </c>
     </row>
     <row r="421" spans="1:13" x14ac:dyDescent="0.25">
@@ -19995,13 +20025,13 @@
         <v>1.7912096293999999</v>
       </c>
       <c r="K421">
-        <v>2.3267175572999999</v>
+        <v>2.2093793270000002</v>
       </c>
       <c r="L421" t="s">
         <v>967</v>
       </c>
       <c r="M421">
-        <v>99426.505560000005</v>
+        <v>82623.990936000002</v>
       </c>
     </row>
     <row r="422" spans="1:13" x14ac:dyDescent="0.25">
@@ -20036,13 +20066,13 @@
         <v>1.8198579232999999E-4</v>
       </c>
       <c r="K422">
-        <v>0.48854961831999999</v>
+        <v>0.35518632232000003</v>
       </c>
       <c r="L422" t="s">
         <v>967</v>
       </c>
       <c r="M422">
-        <v>83813.878492999997</v>
+        <v>32831.231854999998</v>
       </c>
     </row>
     <row r="423" spans="1:13" x14ac:dyDescent="0.25">
@@ -20077,13 +20107,13 @@
         <v>1.8198579232999999E-4</v>
       </c>
       <c r="K423">
-        <v>0.14045801526999999</v>
+        <v>0.14448257178999999</v>
       </c>
       <c r="L423" t="s">
         <v>967</v>
       </c>
       <c r="M423">
-        <v>9142.3021405</v>
+        <v>15234.869908000001</v>
       </c>
     </row>
     <row r="424" spans="1:13" x14ac:dyDescent="0.25">
@@ -20118,13 +20148,13 @@
         <v>2.0171016824999999</v>
       </c>
       <c r="K424">
-        <v>5.6101781171000003</v>
+        <v>5.0809704412999999</v>
       </c>
       <c r="L424" t="s">
         <v>958</v>
       </c>
       <c r="M424">
-        <v>431437.59411000001</v>
+        <v>447315.05404999998</v>
       </c>
     </row>
     <row r="425" spans="1:13" x14ac:dyDescent="0.25">
@@ -20159,13 +20189,13 @@
         <v>0.55276291844000003</v>
       </c>
       <c r="K425">
-        <v>1.4106870228999999</v>
+        <v>1.372584432</v>
       </c>
       <c r="L425" t="s">
         <v>954</v>
       </c>
       <c r="M425">
-        <v>262.67566807999998</v>
+        <v>113.57185351</v>
       </c>
     </row>
     <row r="426" spans="1:13" x14ac:dyDescent="0.25">
@@ -20200,13 +20230,13 @@
         <v>0.64608481097000003</v>
       </c>
       <c r="K426">
-        <v>0.26259541985000001</v>
+        <v>0.26287801255999999</v>
       </c>
       <c r="L426" t="s">
         <v>954</v>
       </c>
       <c r="M426">
-        <v>947.32465345000003</v>
+        <v>440.50005714999998</v>
       </c>
     </row>
     <row r="427" spans="1:13" x14ac:dyDescent="0.25">
@@ -20241,13 +20271,13 @@
         <v>0.64608481097000003</v>
       </c>
       <c r="K427">
-        <v>0.25241730280000002</v>
+        <v>0.26087131017999998</v>
       </c>
       <c r="L427" t="s">
         <v>954</v>
       </c>
       <c r="M427">
-        <v>1478.4143649</v>
+        <v>1035.6599260999999</v>
       </c>
     </row>
     <row r="428" spans="1:13" x14ac:dyDescent="0.25">
@@ -20282,13 +20312,13 @@
         <v>0.64608481097000003</v>
       </c>
       <c r="K428">
-        <v>0.77353689566999995</v>
+        <v>0.79264744245999996</v>
       </c>
       <c r="L428" t="s">
         <v>954</v>
       </c>
       <c r="M428">
-        <v>333.55298900999998</v>
+        <v>116.37360445</v>
       </c>
     </row>
     <row r="429" spans="1:13" x14ac:dyDescent="0.25">
@@ -20358,13 +20388,13 @@
         <v>5.8528378265000001</v>
       </c>
       <c r="K430">
-        <v>16.284987276999999</v>
+        <v>16.850279935</v>
       </c>
       <c r="L430" t="s">
         <v>967</v>
       </c>
       <c r="M430">
-        <v>630.90252223000005</v>
+        <v>645.38819550999995</v>
       </c>
     </row>
     <row r="431" spans="1:13" x14ac:dyDescent="0.25">
@@ -20399,13 +20429,13 @@
         <v>2.7508550720999998</v>
       </c>
       <c r="K431">
-        <v>0.95877862594999996</v>
+        <v>0.83679489495000003</v>
       </c>
       <c r="L431" t="s">
         <v>962</v>
       </c>
       <c r="M431">
-        <v>211.53972021000001</v>
+        <v>140.48950116</v>
       </c>
     </row>
     <row r="432" spans="1:13" x14ac:dyDescent="0.25">
@@ -20466,7 +20496,7 @@
         <v>538</v>
       </c>
       <c r="H433">
-        <v>0.18853305194</v>
+        <v>0.16368686208</v>
       </c>
       <c r="I433">
         <v>0.44974102874999999</v>
@@ -20475,13 +20505,13 @@
         <v>2.5527372008999998</v>
       </c>
       <c r="K433">
-        <v>2.6361323154999998</v>
+        <v>2.5404852205999999</v>
       </c>
       <c r="L433" t="s">
         <v>957</v>
       </c>
       <c r="M433">
-        <v>15741.406391</v>
+        <v>14058.731651</v>
       </c>
     </row>
     <row r="434" spans="1:13" x14ac:dyDescent="0.25">
@@ -20516,13 +20546,13 @@
         <v>-12.619018216000001</v>
       </c>
       <c r="K434">
-        <v>0.75928753180999997</v>
+        <v>0.75652679951000001</v>
       </c>
       <c r="L434" t="s">
         <v>962</v>
       </c>
       <c r="M434">
-        <v>1085.4891994</v>
+        <v>990.94496468</v>
       </c>
     </row>
     <row r="435" spans="1:13" x14ac:dyDescent="0.25">
@@ -20557,13 +20587,13 @@
         <v>1.7166014448</v>
       </c>
       <c r="K435">
-        <v>4.6086513995000002</v>
+        <v>4.5592278209000003</v>
       </c>
       <c r="L435" t="s">
         <v>959</v>
       </c>
       <c r="M435">
-        <v>1190231.7844</v>
+        <v>914717.73071000003</v>
       </c>
     </row>
     <row r="436" spans="1:13" x14ac:dyDescent="0.25">
@@ -20595,13 +20625,13 @@
         <v>8.6462370036999996</v>
       </c>
       <c r="K436">
-        <v>15.682442748</v>
+        <v>15.885056087000001</v>
       </c>
       <c r="L436" t="s">
         <v>958</v>
       </c>
       <c r="M436">
-        <v>842522.29864000005</v>
+        <v>892817.49635000003</v>
       </c>
     </row>
     <row r="437" spans="1:13" x14ac:dyDescent="0.25">
@@ -20671,13 +20701,13 @@
         <v>1.2550270220999999</v>
       </c>
       <c r="K438">
-        <v>1.0707379134999999</v>
+        <v>1.0113780025000001</v>
       </c>
       <c r="L438" t="s">
         <v>958</v>
       </c>
       <c r="M438">
-        <v>6897.1998670000003</v>
+        <v>5452.8824760999996</v>
       </c>
     </row>
     <row r="439" spans="1:13" x14ac:dyDescent="0.25">
@@ -20712,13 +20742,13 @@
         <v>1.2550270220999999</v>
       </c>
       <c r="K439">
-        <v>1.1501272265</v>
+        <v>1.0575321574000001</v>
       </c>
       <c r="L439" t="s">
         <v>958</v>
       </c>
       <c r="M439">
-        <v>41542.797757</v>
+        <v>41867.880057000002</v>
       </c>
     </row>
     <row r="440" spans="1:13" x14ac:dyDescent="0.25">
@@ -20753,13 +20783,13 @@
         <v>1.2550270220999999</v>
       </c>
       <c r="K440">
-        <v>5.7282442747999998</v>
+        <v>5.1833122630000004</v>
       </c>
       <c r="L440" t="s">
         <v>958</v>
       </c>
       <c r="M440">
-        <v>107895.17879999999</v>
+        <v>96730.243713000003</v>
       </c>
     </row>
     <row r="441" spans="1:13" x14ac:dyDescent="0.25">
@@ -20794,13 +20824,13 @@
         <v>-49.06082747</v>
       </c>
       <c r="K441">
-        <v>2.8926208651</v>
+        <v>2.1632251721000002</v>
       </c>
       <c r="L441" t="s">
         <v>958</v>
       </c>
       <c r="M441">
-        <v>1380.3612840000001</v>
+        <v>438.47314549999999</v>
       </c>
     </row>
     <row r="442" spans="1:13" x14ac:dyDescent="0.25">
@@ -20835,13 +20865,13 @@
         <v>-49.06082747</v>
       </c>
       <c r="K442">
-        <v>0.91195928753</v>
+        <v>1.0374651335</v>
       </c>
       <c r="L442" t="s">
         <v>958</v>
       </c>
       <c r="M442">
-        <v>1004.3210006</v>
+        <v>142.80023671999999</v>
       </c>
     </row>
     <row r="443" spans="1:13" x14ac:dyDescent="0.25">
@@ -20914,13 +20944,13 @@
         <v>2.2746971908</v>
       </c>
       <c r="K444">
-        <v>2.8111959288000001</v>
+        <v>2.6929946020000002</v>
       </c>
       <c r="L444" t="s">
         <v>955</v>
       </c>
       <c r="M444">
-        <v>7644.7059214000001</v>
+        <v>5529.4754218999997</v>
       </c>
     </row>
     <row r="445" spans="1:13" x14ac:dyDescent="0.25">
@@ -20955,13 +20985,13 @@
         <v>2.2746971908</v>
       </c>
       <c r="K445">
-        <v>3.1816793893000002</v>
+        <v>3.0381474123999999</v>
       </c>
       <c r="L445" t="s">
         <v>955</v>
       </c>
       <c r="M445">
-        <v>9553.4098453000006</v>
+        <v>6290.8035984999997</v>
       </c>
     </row>
     <row r="446" spans="1:13" x14ac:dyDescent="0.25">
@@ -20996,13 +21026,13 @@
         <v>2.2746971908</v>
       </c>
       <c r="K446">
-        <v>5.9806615776000003</v>
+        <v>5.7391688239</v>
       </c>
       <c r="L446" t="s">
         <v>955</v>
       </c>
       <c r="M446">
-        <v>283968.16557999997</v>
+        <v>199650.73254</v>
       </c>
     </row>
     <row r="447" spans="1:13" x14ac:dyDescent="0.25">
@@ -21037,13 +21067,13 @@
         <v>1.6544145595999999</v>
       </c>
       <c r="K447">
-        <v>0.86106870228999999</v>
+        <v>0.60401741817999999</v>
       </c>
       <c r="L447" t="s">
         <v>961</v>
       </c>
       <c r="M447">
-        <v>413.5003054</v>
+        <v>47.774669975000002</v>
       </c>
     </row>
     <row r="448" spans="1:13" x14ac:dyDescent="0.25">
@@ -21078,13 +21108,13 @@
         <v>1.6544145595999999</v>
       </c>
       <c r="K448">
-        <v>0.40305343511000002</v>
+        <v>0.34515281039000001</v>
       </c>
       <c r="L448" t="s">
         <v>961</v>
       </c>
       <c r="M448">
-        <v>482.61072522000001</v>
+        <v>253.33763253000001</v>
       </c>
     </row>
     <row r="449" spans="1:13" x14ac:dyDescent="0.25">
@@ -21119,13 +21149,13 @@
         <v>0.50645168920000005</v>
       </c>
       <c r="K449">
-        <v>1.9847328244</v>
+        <v>2.1170710171999998</v>
       </c>
       <c r="L449" t="s">
         <v>959</v>
       </c>
       <c r="M449">
-        <v>141135.27630999999</v>
+        <v>197670.97506</v>
       </c>
     </row>
     <row r="450" spans="1:13" x14ac:dyDescent="0.25">
@@ -21160,13 +21190,13 @@
         <v>5.3355196241999998</v>
       </c>
       <c r="K450">
-        <v>5.5776081424999999</v>
+        <v>5.3318082394999999</v>
       </c>
       <c r="L450" t="s">
         <v>958</v>
       </c>
       <c r="M450">
-        <v>1430.4266201</v>
+        <v>1875.3952978</v>
       </c>
     </row>
     <row r="451" spans="1:13" x14ac:dyDescent="0.25">
@@ -21201,13 +21231,13 @@
         <v>3.5556732977999999</v>
       </c>
       <c r="K451">
-        <v>5.7404580152999998</v>
+        <v>5.6789677523000002</v>
       </c>
       <c r="L451" t="s">
         <v>958</v>
       </c>
       <c r="M451">
-        <v>237185.48123999999</v>
+        <v>264538.55241</v>
       </c>
     </row>
     <row r="452" spans="1:13" x14ac:dyDescent="0.25">
@@ -21233,7 +21263,7 @@
         <v>923</v>
       </c>
       <c r="H452">
-        <v>5.32738252E-2</v>
+        <v>4.2010640394000001E-2</v>
       </c>
       <c r="I452">
         <v>0.17306027497000001</v>
@@ -21271,7 +21301,7 @@
         <v>557</v>
       </c>
       <c r="H453">
-        <v>5.8601207879999999E-2</v>
+        <v>4.6211704497000003E-2</v>
       </c>
       <c r="I453">
         <v>0.17306027497000001</v>
@@ -21280,13 +21310,13 @@
         <v>0.70169328247999996</v>
       </c>
       <c r="K453">
-        <v>1.3720101781</v>
+        <v>1.4107117773</v>
       </c>
       <c r="L453" t="s">
         <v>967</v>
       </c>
       <c r="M453">
-        <v>9458.5628037999995</v>
+        <v>11319.350553</v>
       </c>
     </row>
     <row r="454" spans="1:13" x14ac:dyDescent="0.25">
@@ -21321,13 +21351,13 @@
         <v>0.12234343356000001</v>
       </c>
       <c r="K454">
-        <v>0.10788804070999999</v>
+        <v>8.8294904982999994E-2</v>
       </c>
       <c r="L454" t="s">
         <v>959</v>
       </c>
       <c r="M454">
-        <v>72729.907957000003</v>
+        <v>20416.799002</v>
       </c>
     </row>
     <row r="455" spans="1:13" x14ac:dyDescent="0.25">
@@ -21362,13 +21392,13 @@
         <v>1.8731760727</v>
       </c>
       <c r="K455">
-        <v>1.3374045802000001</v>
+        <v>1.2642225032000001</v>
       </c>
       <c r="L455" t="s">
         <v>958</v>
       </c>
       <c r="M455">
-        <v>28304.498329999999</v>
+        <v>20427.123319999999</v>
       </c>
     </row>
     <row r="456" spans="1:13" x14ac:dyDescent="0.25">
@@ -21403,13 +21433,13 @@
         <v>1.6290355851</v>
       </c>
       <c r="K456">
-        <v>1.9012722646</v>
+        <v>1.8782734333</v>
       </c>
       <c r="L456" t="s">
         <v>954</v>
       </c>
       <c r="M456">
-        <v>34810.553250999998</v>
+        <v>37217.526259999999</v>
       </c>
     </row>
     <row r="457" spans="1:13" x14ac:dyDescent="0.25">
@@ -21444,13 +21474,13 @@
         <v>2.6748587419000001</v>
       </c>
       <c r="K457">
-        <v>3.696692112</v>
+        <v>3.3752734132</v>
       </c>
       <c r="L457" t="s">
         <v>956</v>
       </c>
       <c r="M457">
-        <v>500068.08130000002</v>
+        <v>507524.65164</v>
       </c>
     </row>
     <row r="458" spans="1:13" x14ac:dyDescent="0.25">
@@ -21485,13 +21515,13 @@
         <v>0.84472913430999996</v>
       </c>
       <c r="K458">
-        <v>1.5979643766</v>
+        <v>1.5431541348</v>
       </c>
       <c r="L458" t="s">
         <v>959</v>
       </c>
       <c r="M458">
-        <v>104836.94538</v>
+        <v>82717.432656000004</v>
       </c>
     </row>
     <row r="459" spans="1:13" x14ac:dyDescent="0.25">
@@ -21526,13 +21556,13 @@
         <v>2.3576849034</v>
       </c>
       <c r="K459">
-        <v>3.9287531806999998</v>
+        <v>3.9451768908</v>
       </c>
       <c r="L459" t="s">
         <v>953</v>
       </c>
       <c r="M459">
-        <v>223276.61092000001</v>
+        <v>197994.65080999999</v>
       </c>
     </row>
     <row r="460" spans="1:13" x14ac:dyDescent="0.25">
@@ -21567,13 +21597,13 @@
         <v>1.6054478190000001</v>
       </c>
       <c r="K460">
-        <v>5.0910941475999998</v>
+        <v>4.9083940360999998</v>
       </c>
       <c r="L460" t="s">
         <v>958</v>
       </c>
       <c r="M460">
-        <v>238974.95824000001</v>
+        <v>170005.52640999999</v>
       </c>
     </row>
     <row r="461" spans="1:13" x14ac:dyDescent="0.25">
@@ -21649,7 +21679,7 @@
         <v>958</v>
       </c>
       <c r="M462">
-        <v>9.9110552704000003</v>
+        <v>6.2054323991000002</v>
       </c>
     </row>
     <row r="463" spans="1:13" x14ac:dyDescent="0.25">
@@ -21687,7 +21717,7 @@
         <v>958</v>
       </c>
       <c r="M463">
-        <v>5.5843738662</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:13" x14ac:dyDescent="0.25">
@@ -21716,13 +21746,13 @@
         <v>0</v>
       </c>
       <c r="K464">
-        <v>0.24223918575</v>
+        <v>0.19665683381999999</v>
       </c>
       <c r="L464" t="s">
         <v>961</v>
       </c>
       <c r="M464">
-        <v>2253.1670008999999</v>
+        <v>1124.0056503000001</v>
       </c>
     </row>
     <row r="465" spans="1:13" x14ac:dyDescent="0.25">
@@ -21760,7 +21790,7 @@
         <v>958</v>
       </c>
       <c r="M465">
-        <v>0</v>
+        <v>0.62662974268000005</v>
       </c>
     </row>
     <row r="466" spans="1:13" x14ac:dyDescent="0.25">
@@ -21798,7 +21828,7 @@
         <v>958</v>
       </c>
       <c r="M466">
-        <v>1.6753397087999999</v>
+        <v>0.33575225889999999</v>
       </c>
     </row>
     <row r="467" spans="1:13" x14ac:dyDescent="0.25">
@@ -22049,13 +22079,13 @@
         <v>6.4681967636</v>
       </c>
       <c r="K473">
-        <v>10.770483459999999</v>
+        <v>11.307767944</v>
       </c>
       <c r="L473" t="s">
         <v>971</v>
       </c>
       <c r="M473">
-        <v>810486.26578000002</v>
+        <v>870718.94166000001</v>
       </c>
     </row>
     <row r="474" spans="1:13" x14ac:dyDescent="0.25">
@@ -22090,13 +22120,13 @@
         <v>1.9764133199</v>
       </c>
       <c r="K474">
-        <v>0.87938931298</v>
+        <v>1.5652278610999999</v>
       </c>
       <c r="L474" t="s">
         <v>958</v>
       </c>
       <c r="M474">
-        <v>7220.2378147999998</v>
+        <v>14515.153592999999</v>
       </c>
     </row>
     <row r="475" spans="1:13" x14ac:dyDescent="0.25">
@@ -22131,13 +22161,13 @@
         <v>1.2853892775</v>
       </c>
       <c r="K475">
-        <v>2.4875318065999998</v>
+        <v>2.3438283867999998</v>
       </c>
       <c r="L475" t="s">
         <v>954</v>
       </c>
       <c r="M475">
-        <v>6370.9451962000003</v>
+        <v>6217.4878024</v>
       </c>
     </row>
     <row r="476" spans="1:13" x14ac:dyDescent="0.25">
@@ -22172,13 +22202,13 @@
         <v>1.2853892775</v>
       </c>
       <c r="K476">
-        <v>2.5139949109000002</v>
+        <v>2.3799490298000001</v>
       </c>
       <c r="L476" t="s">
         <v>954</v>
       </c>
       <c r="M476">
-        <v>12161.365965999999</v>
+        <v>13607.753576999999</v>
       </c>
     </row>
     <row r="477" spans="1:13" x14ac:dyDescent="0.25">
@@ -22213,13 +22243,13 @@
         <v>1.2853892775</v>
       </c>
       <c r="K477">
-        <v>7.5114503816999996</v>
+        <v>7.1037264462999996</v>
       </c>
       <c r="L477" t="s">
         <v>954</v>
       </c>
       <c r="M477">
-        <v>223902.92952999999</v>
+        <v>243330.41961000001</v>
       </c>
     </row>
     <row r="478" spans="1:13" x14ac:dyDescent="0.25">
@@ -22254,13 +22284,13 @@
         <v>1.7473766839</v>
       </c>
       <c r="K478">
-        <v>2.9618320611</v>
+        <v>2.8394838761000001</v>
       </c>
       <c r="L478" t="s">
         <v>956</v>
       </c>
       <c r="M478">
-        <v>1033.4927789999999</v>
+        <v>760.14898789999995</v>
       </c>
     </row>
     <row r="479" spans="1:13" x14ac:dyDescent="0.25">
@@ -22295,13 +22325,13 @@
         <v>1.7473766839</v>
       </c>
       <c r="K479">
-        <v>2.9699745546999998</v>
+        <v>2.8274436617999998</v>
       </c>
       <c r="L479" t="s">
         <v>956</v>
       </c>
       <c r="M479">
-        <v>19255.747772999999</v>
+        <v>16012.828785</v>
       </c>
     </row>
     <row r="480" spans="1:13" x14ac:dyDescent="0.25">
@@ -22336,13 +22366,13 @@
         <v>0.34029479252</v>
       </c>
       <c r="K480">
-        <v>0.14452926209</v>
+        <v>0.1866233219</v>
       </c>
       <c r="L480" t="s">
         <v>966</v>
       </c>
       <c r="M480">
-        <v>2894.8901157999999</v>
+        <v>2768.9775365</v>
       </c>
     </row>
     <row r="481" spans="1:13" x14ac:dyDescent="0.25">
@@ -22368,7 +22398,7 @@
         <v>589</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>3.0070921986000001E-2</v>
       </c>
       <c r="I481">
         <v>0.14799508018999999</v>
@@ -22377,13 +22407,13 @@
         <v>1.0944850107999999</v>
       </c>
       <c r="K481">
-        <v>0.70693531319000003</v>
+        <v>0.65017157304999995</v>
       </c>
       <c r="L481" t="s">
         <v>958</v>
       </c>
       <c r="M481">
-        <v>2124.1903689999999</v>
+        <v>2017.8962776999999</v>
       </c>
     </row>
     <row r="482" spans="1:13" x14ac:dyDescent="0.25">
@@ -22418,13 +22448,13 @@
         <v>1.6042907192</v>
       </c>
       <c r="K482">
-        <v>0.67175572519000004</v>
+        <v>0.56990347762000004</v>
       </c>
       <c r="L482" t="s">
         <v>962</v>
       </c>
       <c r="M482">
-        <v>1393.3265266000001</v>
+        <v>786.79217072999995</v>
       </c>
     </row>
     <row r="483" spans="1:13" x14ac:dyDescent="0.25">
@@ -22459,13 +22489,13 @@
         <v>2.4820043977999999</v>
       </c>
       <c r="K483">
-        <v>5.2030534351000002</v>
+        <v>5.3799690968</v>
       </c>
       <c r="L483" t="s">
         <v>959</v>
       </c>
       <c r="M483">
-        <v>28711.392891</v>
+        <v>15385.827737</v>
       </c>
     </row>
     <row r="484" spans="1:13" x14ac:dyDescent="0.25">
@@ -22538,7 +22568,7 @@
         <v>961</v>
       </c>
       <c r="M485">
-        <v>0</v>
+        <v>0.37054135972000002</v>
       </c>
     </row>
     <row r="486" spans="1:13" x14ac:dyDescent="0.25">
@@ -22573,13 +22603,13 @@
         <v>-806.98928087000002</v>
       </c>
       <c r="K486">
-        <v>5.6590330789000003</v>
+        <v>7.9264744246000003</v>
       </c>
       <c r="L486" t="s">
         <v>961</v>
       </c>
       <c r="M486">
-        <v>283.28509444000002</v>
+        <v>1112.9344262</v>
       </c>
     </row>
     <row r="487" spans="1:13" x14ac:dyDescent="0.25">
@@ -22655,7 +22685,7 @@
         <v>956</v>
       </c>
       <c r="M488">
-        <v>5.3654998044999997</v>
+        <v>12.379637682</v>
       </c>
     </row>
     <row r="489" spans="1:13" x14ac:dyDescent="0.25">
@@ -22689,11 +22719,14 @@
       <c r="J489">
         <v>3.6684706516999999</v>
       </c>
+      <c r="K489">
+        <v>3.0682479480999998</v>
+      </c>
       <c r="L489" t="s">
         <v>964</v>
       </c>
       <c r="M489">
-        <v>66.708172124000001</v>
+        <v>94.330067283999995</v>
       </c>
     </row>
     <row r="490" spans="1:13" x14ac:dyDescent="0.25">
@@ -22728,13 +22761,13 @@
         <v>3.6684706516999999</v>
       </c>
       <c r="K490">
-        <v>2.3776081425000002</v>
+        <v>2.1451648506000001</v>
       </c>
       <c r="L490" t="s">
         <v>964</v>
       </c>
       <c r="M490">
-        <v>273.04766301000001</v>
+        <v>213.65587787999999</v>
       </c>
     </row>
     <row r="491" spans="1:13" x14ac:dyDescent="0.25">
@@ -22760,7 +22793,7 @@
         <v>603</v>
       </c>
       <c r="H491">
-        <v>0.41875305856</v>
+        <v>0.47026809856000001</v>
       </c>
       <c r="I491">
         <v>0.54709114393000002</v>
@@ -22769,13 +22802,13 @@
         <v>8.3504309502999998</v>
       </c>
       <c r="K491">
-        <v>10.422391856999999</v>
+        <v>10.932514597999999</v>
       </c>
       <c r="L491" t="s">
         <v>964</v>
       </c>
       <c r="M491">
-        <v>446086.14130000002</v>
+        <v>495964.64192999998</v>
       </c>
     </row>
     <row r="492" spans="1:13" x14ac:dyDescent="0.25">
@@ -22810,13 +22843,13 @@
         <v>1.4524367143000001</v>
       </c>
       <c r="K492">
-        <v>2.1109414757999998</v>
+        <v>2.1692452792000001</v>
       </c>
       <c r="L492" t="s">
         <v>962</v>
       </c>
       <c r="M492">
-        <v>242411.00575000001</v>
+        <v>107299.12491</v>
       </c>
     </row>
     <row r="493" spans="1:13" x14ac:dyDescent="0.25">
@@ -22851,13 +22884,13 @@
         <v>1.4720253091</v>
       </c>
       <c r="K493">
-        <v>3.3852417303000002</v>
+        <v>3.3612264965</v>
       </c>
       <c r="L493" t="s">
         <v>958</v>
       </c>
       <c r="M493">
-        <v>4469.0624440000001</v>
+        <v>4001.4011301</v>
       </c>
     </row>
     <row r="494" spans="1:13" x14ac:dyDescent="0.25">
@@ -22891,14 +22924,11 @@
       <c r="J494">
         <v>-16.871373592000001</v>
       </c>
-      <c r="K494">
-        <v>2.4427480915999999</v>
-      </c>
       <c r="L494" t="s">
         <v>961</v>
       </c>
       <c r="M494">
-        <v>31.784995614</v>
+        <v>2.2249255097999998</v>
       </c>
     </row>
     <row r="495" spans="1:13" x14ac:dyDescent="0.25">
@@ -22933,13 +22963,13 @@
         <v>-16.871373592000001</v>
       </c>
       <c r="K495">
-        <v>0.74910941476000004</v>
+        <v>0.54180964421</v>
       </c>
       <c r="L495" t="s">
         <v>961</v>
       </c>
       <c r="M495">
-        <v>319.14619807000003</v>
+        <v>95.201753977999999</v>
       </c>
     </row>
     <row r="496" spans="1:13" x14ac:dyDescent="0.25">
@@ -22974,13 +23004,13 @@
         <v>2.1098285216999999</v>
       </c>
       <c r="K496">
-        <v>3.5664122137000001</v>
+        <v>3.6461782352999998</v>
       </c>
       <c r="L496" t="s">
         <v>964</v>
       </c>
       <c r="M496">
-        <v>409342.45620999997</v>
+        <v>500112.48946000001</v>
       </c>
     </row>
     <row r="497" spans="1:13" x14ac:dyDescent="0.25">
@@ -23015,13 +23045,13 @@
         <v>0.45294509562000002</v>
       </c>
       <c r="K497">
-        <v>0.43358778626</v>
+        <v>0.39933377480999999</v>
       </c>
       <c r="L497" t="s">
         <v>958</v>
       </c>
       <c r="M497">
-        <v>1521.6747237</v>
+        <v>1543.4725295999999</v>
       </c>
     </row>
     <row r="498" spans="1:13" x14ac:dyDescent="0.25">
@@ -23056,13 +23086,13 @@
         <v>1.5585740588999999</v>
       </c>
       <c r="K498">
-        <v>6.2860050890999997</v>
+        <v>6.1585696225</v>
       </c>
       <c r="L498" t="s">
         <v>966</v>
       </c>
       <c r="M498">
-        <v>378162.02172000002</v>
+        <v>557117.79857999994</v>
       </c>
     </row>
     <row r="499" spans="1:13" x14ac:dyDescent="0.25">
@@ -23097,13 +23127,13 @@
         <v>0.48875107843999999</v>
       </c>
       <c r="K499">
-        <v>2.8559796438</v>
+        <v>2.6929946020000002</v>
       </c>
       <c r="L499" t="s">
         <v>960</v>
       </c>
       <c r="M499">
-        <v>9195.3205961000003</v>
+        <v>5340.7249916999999</v>
       </c>
     </row>
     <row r="500" spans="1:13" x14ac:dyDescent="0.25">
@@ -23138,13 +23168,13 @@
         <v>5.4485967307000003</v>
       </c>
       <c r="K500">
-        <v>7.2264631042999996</v>
+        <v>6.5920173378999998</v>
       </c>
       <c r="L500" t="s">
         <v>954</v>
       </c>
       <c r="M500">
-        <v>307.36367307</v>
+        <v>466.24728671999998</v>
       </c>
     </row>
     <row r="501" spans="1:13" x14ac:dyDescent="0.25">
@@ -23179,13 +23209,13 @@
         <v>5.4485967307000003</v>
       </c>
       <c r="K501">
-        <v>5.3170483461</v>
+        <v>5.1772921558</v>
       </c>
       <c r="L501" t="s">
         <v>954</v>
       </c>
       <c r="M501">
-        <v>225850.62046999999</v>
+        <v>231225.94005</v>
       </c>
     </row>
     <row r="502" spans="1:13" x14ac:dyDescent="0.25">
@@ -23261,7 +23291,7 @@
         <v>958</v>
       </c>
       <c r="M503">
-        <v>11.293726051</v>
+        <v>11.47713787</v>
       </c>
     </row>
     <row r="504" spans="1:13" x14ac:dyDescent="0.25">
@@ -23296,13 +23326,13 @@
         <v>1.4607625143</v>
       </c>
       <c r="K504">
-        <v>0.98320610686999999</v>
+        <v>0.96121044288000002</v>
       </c>
       <c r="L504" t="s">
         <v>962</v>
       </c>
       <c r="M504">
-        <v>14994.618648</v>
+        <v>8680.2071090000009</v>
       </c>
     </row>
     <row r="505" spans="1:13" x14ac:dyDescent="0.25">
@@ -23337,13 +23367,13 @@
         <v>3.9508382144</v>
       </c>
       <c r="K505">
-        <v>0.84681933842000001</v>
+        <v>0.79264744245999996</v>
       </c>
       <c r="L505" t="s">
         <v>959</v>
       </c>
       <c r="M505">
-        <v>731.10202390999996</v>
+        <v>756.78190538000001</v>
       </c>
     </row>
     <row r="506" spans="1:13" x14ac:dyDescent="0.25">
@@ -23378,13 +23408,13 @@
         <v>4.5300276965000004</v>
       </c>
       <c r="K506">
-        <v>5.2946564885000003</v>
+        <v>5.1371581081000004</v>
       </c>
       <c r="L506" t="s">
         <v>967</v>
       </c>
       <c r="M506">
-        <v>60903.227741000002</v>
+        <v>52356.977680000004</v>
       </c>
     </row>
     <row r="507" spans="1:13" x14ac:dyDescent="0.25">
@@ -23410,7 +23440,7 @@
         <v>629</v>
       </c>
       <c r="H507">
-        <v>6.9666464151999993E-2</v>
+        <v>5.0184679620999997E-2</v>
       </c>
       <c r="I507">
         <v>0.39461366014999999</v>
@@ -23419,13 +23449,13 @@
         <v>2.3159642943000001</v>
       </c>
       <c r="K507">
-        <v>5.7628498728000004</v>
+        <v>5.8916782051999999</v>
       </c>
       <c r="L507" t="s">
         <v>952</v>
       </c>
       <c r="M507">
-        <v>601763.85059000005</v>
+        <v>689303.91688000003</v>
       </c>
     </row>
     <row r="508" spans="1:13" x14ac:dyDescent="0.25">
@@ -23460,13 +23490,13 @@
         <v>0.59531191881000001</v>
       </c>
       <c r="K508">
-        <v>0.57201017811999999</v>
+        <v>0.53378283466999998</v>
       </c>
       <c r="L508" t="s">
         <v>958</v>
       </c>
       <c r="M508">
-        <v>404.47450200999998</v>
+        <v>367.16899885999999</v>
       </c>
     </row>
     <row r="509" spans="1:13" x14ac:dyDescent="0.25">
@@ -23492,7 +23522,7 @@
         <v>633</v>
       </c>
       <c r="H509">
-        <v>3.0551974640999999E-2</v>
+        <v>4.1953200112000003E-2</v>
       </c>
       <c r="I509">
         <v>7.3192326934000004E-2</v>
@@ -23501,13 +23531,13 @@
         <v>0.61052601285999997</v>
       </c>
       <c r="K509">
-        <v>0.76188256065000004</v>
+        <v>0.82274797825000001</v>
       </c>
       <c r="L509" t="s">
         <v>964</v>
       </c>
       <c r="M509">
-        <v>3556.9935965</v>
+        <v>3735.5844398999998</v>
       </c>
     </row>
     <row r="510" spans="1:13" x14ac:dyDescent="0.25">
@@ -23542,13 +23572,13 @@
         <v>5.4169665634999999</v>
       </c>
       <c r="K510">
-        <v>13.652926208</v>
+        <v>12.600084281000001</v>
       </c>
       <c r="L510" t="s">
         <v>968</v>
       </c>
       <c r="M510">
-        <v>5322.3858163000004</v>
+        <v>1910.8635422</v>
       </c>
     </row>
     <row r="511" spans="1:13" x14ac:dyDescent="0.25">
@@ -23586,7 +23616,7 @@
         <v>968</v>
       </c>
       <c r="M511">
-        <v>58.762703856000002</v>
+        <v>27.112446594000001</v>
       </c>
     </row>
     <row r="512" spans="1:13" x14ac:dyDescent="0.25">
@@ -23621,13 +23651,13 @@
         <v>5.4169665634999999</v>
       </c>
       <c r="K512">
-        <v>14.503816793</v>
+        <v>13.278349688</v>
       </c>
       <c r="L512" t="s">
         <v>968</v>
       </c>
       <c r="M512">
-        <v>48445.939977000002</v>
+        <v>40789.654580000002</v>
       </c>
     </row>
     <row r="513" spans="1:13" x14ac:dyDescent="0.25">
@@ -23697,13 +23727,13 @@
         <v>3.8037064539999998</v>
       </c>
       <c r="K514">
-        <v>1.8361323155</v>
+        <v>2.1672385768</v>
       </c>
       <c r="L514" t="s">
         <v>956</v>
       </c>
       <c r="M514">
-        <v>43041.843084</v>
+        <v>45175.761054000002</v>
       </c>
     </row>
     <row r="515" spans="1:13" x14ac:dyDescent="0.25">
@@ -23738,13 +23768,13 @@
         <v>3.8037064539999998</v>
       </c>
       <c r="K515">
-        <v>1.9338422392000001</v>
+        <v>2.2214195413</v>
       </c>
       <c r="L515" t="s">
         <v>956</v>
       </c>
       <c r="M515">
-        <v>459638.48956000002</v>
+        <v>599262.89720999997</v>
       </c>
     </row>
     <row r="516" spans="1:13" x14ac:dyDescent="0.25">
@@ -23782,7 +23812,7 @@
         <v>956</v>
       </c>
       <c r="M516">
-        <v>1.9145051685000001</v>
+        <v>1.1747856782999999</v>
       </c>
     </row>
     <row r="517" spans="1:13" x14ac:dyDescent="0.25">
@@ -23817,13 +23847,13 @@
         <v>8.8259270365999996</v>
       </c>
       <c r="K517">
-        <v>14.147582697000001</v>
+        <v>13.442899282999999</v>
       </c>
       <c r="L517" t="s">
         <v>965</v>
       </c>
       <c r="M517">
-        <v>8656468.9176000003</v>
+        <v>6692856.3142999997</v>
       </c>
     </row>
     <row r="518" spans="1:13" x14ac:dyDescent="0.25">
@@ -23858,13 +23888,13 @@
         <v>3.3863136208000002</v>
       </c>
       <c r="K518">
-        <v>4.3989821882999998</v>
+        <v>3.7505267594</v>
       </c>
       <c r="L518" t="s">
         <v>958</v>
       </c>
       <c r="M518">
-        <v>46604.026689999999</v>
+        <v>30609.246557999999</v>
       </c>
     </row>
     <row r="519" spans="1:13" x14ac:dyDescent="0.25">
@@ -23899,13 +23929,13 @@
         <v>0.88864571582999996</v>
       </c>
       <c r="K519">
-        <v>1.6651399491000001</v>
+        <v>1.7518511829000001</v>
       </c>
       <c r="L519" t="s">
         <v>958</v>
       </c>
       <c r="M519">
-        <v>221578.24015999999</v>
+        <v>211703.10675000001</v>
       </c>
     </row>
     <row r="520" spans="1:13" x14ac:dyDescent="0.25">
@@ -23940,13 +23970,13 @@
         <v>1.8104965470000001</v>
       </c>
       <c r="K520">
-        <v>3.6234096692</v>
+        <v>2.8615576024</v>
       </c>
       <c r="L520" t="s">
         <v>961</v>
       </c>
       <c r="M520">
-        <v>1152.6428031999999</v>
+        <v>196.99284698</v>
       </c>
     </row>
     <row r="521" spans="1:13" x14ac:dyDescent="0.25">
@@ -23981,13 +24011,13 @@
         <v>2.4279090702000001</v>
       </c>
       <c r="K521">
-        <v>4.7287531807000001</v>
+        <v>5.1893323700999998</v>
       </c>
       <c r="L521" t="s">
         <v>952</v>
       </c>
       <c r="M521">
-        <v>764206.92165999999</v>
+        <v>761680.35004000005</v>
       </c>
     </row>
     <row r="522" spans="1:13" x14ac:dyDescent="0.25">
@@ -24022,13 +24052,13 @@
         <v>0.86762907291000002</v>
       </c>
       <c r="K522">
-        <v>1.5674300254</v>
+        <v>1.4568659321999999</v>
       </c>
       <c r="L522" t="s">
         <v>953</v>
       </c>
       <c r="M522">
-        <v>21388.792375000001</v>
+        <v>17075.419317</v>
       </c>
     </row>
     <row r="523" spans="1:13" x14ac:dyDescent="0.25">
@@ -24063,13 +24093,13 @@
         <v>1.5933209618999999</v>
       </c>
       <c r="K523">
-        <v>7.1145038168000001</v>
+        <v>6.5619168020999998</v>
       </c>
       <c r="L523" t="s">
         <v>960</v>
       </c>
       <c r="M523">
-        <v>383262.51360000001</v>
+        <v>247683.56836999999</v>
       </c>
     </row>
     <row r="524" spans="1:13" x14ac:dyDescent="0.25">
@@ -24104,13 +24134,13 @@
         <v>1.9526422047000001</v>
       </c>
       <c r="K524">
-        <v>2.2900763358999998</v>
+        <v>1.6956635161</v>
       </c>
       <c r="L524" t="s">
         <v>960</v>
       </c>
       <c r="M524">
-        <v>46414.366153000003</v>
+        <v>52817.225653000001</v>
       </c>
     </row>
     <row r="525" spans="1:13" x14ac:dyDescent="0.25">
@@ -24145,13 +24175,13 @@
         <v>0.16858139777</v>
       </c>
       <c r="K525">
-        <v>0.96081424936000004</v>
+        <v>0.62809784681000003</v>
       </c>
       <c r="L525" t="s">
         <v>962</v>
       </c>
       <c r="M525">
-        <v>6557.6669914000004</v>
+        <v>2825.7186338000001</v>
       </c>
     </row>
     <row r="526" spans="1:13" x14ac:dyDescent="0.25">
@@ -24186,13 +24216,13 @@
         <v>1.6172472706000001</v>
       </c>
       <c r="K526">
-        <v>3.7557251907999998</v>
+        <v>3.7224329260000002</v>
       </c>
       <c r="L526" t="s">
         <v>961</v>
       </c>
       <c r="M526">
-        <v>65861.645170999996</v>
+        <v>81214.258144000007</v>
       </c>
     </row>
     <row r="527" spans="1:13" x14ac:dyDescent="0.25">
@@ -24227,13 +24257,13 @@
         <v>2.0292912671000001</v>
       </c>
       <c r="K527">
-        <v>0.80203562341000001</v>
+        <v>0.76254690667000002</v>
       </c>
       <c r="L527" t="s">
         <v>960</v>
       </c>
       <c r="M527">
-        <v>563.02057124999999</v>
+        <v>344.98133415000001</v>
       </c>
     </row>
     <row r="528" spans="1:13" x14ac:dyDescent="0.25">
@@ -24259,7 +24289,7 @@
         <v>660</v>
       </c>
       <c r="H528">
-        <v>0.12297171571</v>
+        <v>0.13922847163999999</v>
       </c>
       <c r="I528">
         <v>0.24651708357999999</v>
@@ -24268,13 +24298,13 @@
         <v>0.76746946715999997</v>
       </c>
       <c r="K528">
-        <v>6.7521628499000004</v>
+        <v>7.3625910541000001</v>
       </c>
       <c r="L528" t="s">
         <v>957</v>
       </c>
       <c r="M528">
-        <v>787020.76977000001</v>
+        <v>982330.06146999996</v>
       </c>
     </row>
     <row r="529" spans="1:13" x14ac:dyDescent="0.25">
@@ -24309,13 +24339,13 @@
         <v>0.4923357303</v>
       </c>
       <c r="K529">
-        <v>0.25648854962000001</v>
+        <v>0.24481769109000001</v>
       </c>
       <c r="L529" t="s">
         <v>960</v>
       </c>
       <c r="M529">
-        <v>480.93404670000001</v>
+        <v>300.02968034000003</v>
       </c>
     </row>
     <row r="530" spans="1:13" x14ac:dyDescent="0.25">
@@ -24388,13 +24418,13 @@
         <v>-1.0077607124000001</v>
       </c>
       <c r="K531">
-        <v>1.5430025445</v>
+        <v>1.1297734433</v>
       </c>
       <c r="L531" t="s">
         <v>967</v>
       </c>
       <c r="M531">
-        <v>124.2366031</v>
+        <v>51.434457107999997</v>
       </c>
     </row>
     <row r="532" spans="1:13" x14ac:dyDescent="0.25">
@@ -24429,13 +24459,13 @@
         <v>0.34022425545000001</v>
       </c>
       <c r="K532">
-        <v>0.84478371501000005</v>
+        <v>0.82676138302000002</v>
       </c>
       <c r="L532" t="s">
         <v>970</v>
       </c>
       <c r="M532">
-        <v>115.14604405</v>
+        <v>40.854434359999999</v>
       </c>
     </row>
     <row r="533" spans="1:13" x14ac:dyDescent="0.25">
@@ -24470,13 +24500,13 @@
         <v>0.34022425545000001</v>
       </c>
       <c r="K533">
-        <v>0.90585241729999999</v>
+        <v>0.91304958562000005</v>
       </c>
       <c r="L533" t="s">
         <v>970</v>
       </c>
       <c r="M533">
-        <v>219.52502440000001</v>
+        <v>192.81697997000001</v>
       </c>
     </row>
     <row r="534" spans="1:13" x14ac:dyDescent="0.25">
@@ -24511,13 +24541,13 @@
         <v>1.0433913161999999</v>
       </c>
       <c r="K534">
-        <v>3.3567430025</v>
+        <v>3.4615616158</v>
       </c>
       <c r="L534" t="s">
         <v>959</v>
       </c>
       <c r="M534">
-        <v>24340.762020999999</v>
+        <v>24976.520898999999</v>
       </c>
     </row>
     <row r="535" spans="1:13" x14ac:dyDescent="0.25">
@@ -24552,13 +24582,13 @@
         <v>0.57352859436000003</v>
       </c>
       <c r="K535">
-        <v>1.341475827</v>
+        <v>1.2461621816999999</v>
       </c>
       <c r="L535" t="s">
         <v>955</v>
       </c>
       <c r="M535">
-        <v>13576.394177</v>
+        <v>7940.8678344</v>
       </c>
     </row>
     <row r="536" spans="1:13" x14ac:dyDescent="0.25">
@@ -24584,7 +24614,7 @@
         <v>948</v>
       </c>
       <c r="H536">
-        <v>0.16444837692</v>
+        <v>0.20628009324999999</v>
       </c>
       <c r="I536">
         <v>0.57944031364000004</v>
@@ -24596,7 +24626,7 @@
         <v>960</v>
       </c>
       <c r="M536">
-        <v>4.1764068111999997</v>
+        <v>25.521133425999999</v>
       </c>
     </row>
     <row r="537" spans="1:13" x14ac:dyDescent="0.25">
@@ -24622,7 +24652,7 @@
         <v>670</v>
       </c>
       <c r="H537">
-        <v>0.18089321542</v>
+        <v>0.22690810379000001</v>
       </c>
       <c r="I537">
         <v>0.57944031364000004</v>
@@ -24631,13 +24661,13 @@
         <v>3.6736914020000002</v>
       </c>
       <c r="K537">
-        <v>5.4303097711000001</v>
+        <v>5.0167559648999998</v>
       </c>
       <c r="L537" t="s">
         <v>960</v>
       </c>
       <c r="M537">
-        <v>124.08676636</v>
+        <v>390.23308566999998</v>
       </c>
     </row>
     <row r="538" spans="1:13" x14ac:dyDescent="0.25">
@@ -24707,13 +24737,13 @@
         <v>2.2223027156000001</v>
       </c>
       <c r="K539">
-        <v>4.0244274809</v>
+        <v>4.0856460578</v>
       </c>
       <c r="L539" t="s">
         <v>958</v>
       </c>
       <c r="M539">
-        <v>304283.72385000001</v>
+        <v>255917.13493</v>
       </c>
     </row>
     <row r="540" spans="1:13" x14ac:dyDescent="0.25">
@@ -24748,13 +24778,13 @@
         <v>0.99668957639</v>
       </c>
       <c r="K540">
-        <v>1.0625954198000001</v>
+        <v>0.83679489495000003</v>
       </c>
       <c r="L540" t="s">
         <v>958</v>
       </c>
       <c r="M540">
-        <v>35504.634774999999</v>
+        <v>21966.154420999999</v>
       </c>
     </row>
   </sheetData>

--- a/Database/Import_base_ERP_economatica.xlsx
+++ b/Database/Import_base_ERP_economatica.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bteba\Documents\GitHub\ERP\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E2C1DE5-6F9D-4BEF-8956-361B3F247769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4AF45C-A135-4735-804B-B35235C516D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2951,13 +2951,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3264,9 +3265,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J529"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A506" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D529" sqref="D529"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3337,13 +3338,13 @@
         <v>4.3954195975000001</v>
       </c>
       <c r="H2">
-        <v>359608.24077999999</v>
+        <v>587611.2524</v>
       </c>
       <c r="I2" t="s">
         <v>933</v>
       </c>
       <c r="J2">
-        <v>4.9434240586999998</v>
+        <v>4.6621406598000004</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -3369,13 +3370,13 @@
         <v>1.3802047741000001</v>
       </c>
       <c r="H3">
-        <v>41511.365747000003</v>
+        <v>59686.735890999997</v>
       </c>
       <c r="I3" t="s">
         <v>934</v>
       </c>
       <c r="J3">
-        <v>1.7773300473</v>
+        <v>2.1162618011999998</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -3418,7 +3419,7 @@
         <v>677</v>
       </c>
       <c r="E5">
-        <v>0.32653083847999997</v>
+        <v>0.29427302091000002</v>
       </c>
       <c r="F5">
         <v>0.78348144989000001</v>
@@ -3427,13 +3428,13 @@
         <v>5.2829832776999996</v>
       </c>
       <c r="H5">
-        <v>58606.360225999997</v>
+        <v>82318.405167000004</v>
       </c>
       <c r="I5" t="s">
         <v>936</v>
       </c>
       <c r="J5">
-        <v>3.8415873949999999</v>
+        <v>4.1105335737999997</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -3459,10 +3460,13 @@
         <v>2.2421217903000001</v>
       </c>
       <c r="H6">
-        <v>2.1734649542</v>
+        <v>1151.0688802</v>
       </c>
       <c r="I6" t="s">
         <v>937</v>
+      </c>
+      <c r="J6">
+        <v>2.3956012870999999</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -3488,13 +3492,13 @@
         <v>2.2421217903000001</v>
       </c>
       <c r="H7">
-        <v>339.90382918</v>
+        <v>3756.4429547999998</v>
       </c>
       <c r="I7" t="s">
         <v>937</v>
       </c>
       <c r="J7">
-        <v>2.0147870981999998</v>
+        <v>2.3849934584999999</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -3520,13 +3524,13 @@
         <v>3.5871116119000002</v>
       </c>
       <c r="H8">
-        <v>5764.3377598999996</v>
+        <v>16908.207312999999</v>
       </c>
       <c r="I8" t="s">
         <v>938</v>
       </c>
       <c r="J8">
-        <v>0.91744769649000002</v>
+        <v>2.1392454297999999</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -3552,13 +3556,13 @@
         <v>1.4612383405</v>
       </c>
       <c r="H9">
-        <v>182982.33835000001</v>
+        <v>128639.59748</v>
       </c>
       <c r="I9" t="s">
         <v>935</v>
       </c>
       <c r="J9">
-        <v>2.0489665222000002</v>
+        <v>2.0243272869000002</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -3577,7 +3581,7 @@
       <c r="F10">
         <v>1.1000786843E-2</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="4">
         <v>0.2867894936</v>
       </c>
       <c r="H10">
@@ -3610,13 +3614,13 @@
         <v>0.82963583353000003</v>
       </c>
       <c r="H11">
-        <v>8.3421468817999997</v>
+        <v>16.829496893000002</v>
       </c>
       <c r="I11" t="s">
         <v>935</v>
       </c>
       <c r="J11">
-        <v>1.2934213603</v>
+        <v>1.2640995721999999</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -3668,13 +3672,13 @@
         <v>1.0019027636</v>
       </c>
       <c r="H13">
-        <v>1292.0377415</v>
+        <v>1713.139799</v>
       </c>
       <c r="I13" t="s">
         <v>934</v>
       </c>
       <c r="J13">
-        <v>0.18888629044999999</v>
+        <v>0.21746048584</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -3700,7 +3704,7 @@
         <v>2.5703541812999999</v>
       </c>
       <c r="H14">
-        <v>0.64914995282999999</v>
+        <v>15.117332201</v>
       </c>
       <c r="I14" t="s">
         <v>939</v>
@@ -3720,7 +3724,7 @@
         <v>745</v>
       </c>
       <c r="E15">
-        <v>0.12373815251</v>
+        <v>0.12265285757</v>
       </c>
       <c r="F15">
         <v>3.8438670745999999E-2</v>
@@ -3729,13 +3733,13 @@
         <v>2.5703541812999999</v>
       </c>
       <c r="H15">
-        <v>10.790318961000001</v>
+        <v>32.49331591</v>
       </c>
       <c r="I15" t="s">
         <v>939</v>
       </c>
       <c r="J15">
-        <v>1.5470686647</v>
+        <v>1.5239913723</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -3761,7 +3765,7 @@
         <v>2.5703541812999999</v>
       </c>
       <c r="H16">
-        <v>3.4336223159000001</v>
+        <v>0.80088804080999998</v>
       </c>
       <c r="I16" t="s">
         <v>939</v>
@@ -3923,13 +3927,13 @@
         <v>1.6411367585000001</v>
       </c>
       <c r="H22">
-        <v>1376.5791710999999</v>
+        <v>2831.9142185999999</v>
       </c>
       <c r="I22" t="s">
         <v>939</v>
       </c>
       <c r="J22">
-        <v>1.869074817</v>
+        <v>2.8287542872999998</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -3955,13 +3959,13 @@
         <v>3.3986954725</v>
       </c>
       <c r="H23">
-        <v>2923.4291818000002</v>
+        <v>2133.1396147999999</v>
       </c>
       <c r="I23" t="s">
         <v>941</v>
       </c>
       <c r="J23">
-        <v>1.3401932036999999</v>
+        <v>1.3312824864999999</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -3987,13 +3991,13 @@
         <v>5.1023107558999996</v>
       </c>
       <c r="H24">
-        <v>325765.79816000001</v>
+        <v>408229.72820000001</v>
       </c>
       <c r="I24" t="s">
         <v>939</v>
       </c>
       <c r="J24">
-        <v>3.7993128136999998</v>
+        <v>4.0327428309000002</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -4019,13 +4023,13 @@
         <v>1.1200190539999999</v>
       </c>
       <c r="H25">
-        <v>103.40367629000001</v>
+        <v>312.28889514000002</v>
       </c>
       <c r="I25" t="s">
         <v>942</v>
       </c>
       <c r="J25">
-        <v>1.7629387109000001</v>
+        <v>1.3860896008000001</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -4051,13 +4055,13 @@
         <v>1.1200190539999999</v>
       </c>
       <c r="H26">
-        <v>81266.324603999994</v>
+        <v>98107.857512999995</v>
       </c>
       <c r="I26" t="s">
         <v>942</v>
       </c>
       <c r="J26">
-        <v>1.6406123513999999</v>
+        <v>1.3613380008</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -4083,13 +4087,13 @@
         <v>4.6157937099000002</v>
       </c>
       <c r="H27">
-        <v>203.92838416999999</v>
+        <v>613.89281388999996</v>
       </c>
       <c r="I27" t="s">
         <v>936</v>
       </c>
       <c r="J27">
-        <v>8.2192520103</v>
+        <v>8.2652664333000008</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -4115,13 +4119,13 @@
         <v>-7.8431687841000006E-2</v>
       </c>
       <c r="H28">
-        <v>92.420652423999996</v>
+        <v>243.00556136</v>
       </c>
       <c r="I28" t="s">
         <v>943</v>
       </c>
       <c r="J28">
-        <v>0.60263721240000001</v>
+        <v>0.70895654326000002</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -4138,7 +4142,7 @@
         <v>776</v>
       </c>
       <c r="E29">
-        <v>7.7128221043000003E-2</v>
+        <v>8.0383250059999994E-2</v>
       </c>
       <c r="F29">
         <v>0.15120067126</v>
@@ -4147,13 +4151,13 @@
         <v>1.6044636886999999</v>
       </c>
       <c r="H29">
-        <v>466.94611415000003</v>
+        <v>309.45005127000002</v>
       </c>
       <c r="I29" t="s">
         <v>935</v>
       </c>
       <c r="J29">
-        <v>1.8079116371999999</v>
+        <v>1.9005692867999999</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -4170,7 +4174,7 @@
         <v>777</v>
       </c>
       <c r="E30">
-        <v>7.7128221043000003E-2</v>
+        <v>8.0383250059999994E-2</v>
       </c>
       <c r="F30">
         <v>0.15120067126</v>
@@ -4179,13 +4183,13 @@
         <v>1.6044636886999999</v>
       </c>
       <c r="H30">
-        <v>575.06237603</v>
+        <v>530.52524430999995</v>
       </c>
       <c r="I30" t="s">
         <v>935</v>
       </c>
       <c r="J30">
-        <v>1.7917213836999999</v>
+        <v>1.8475301439</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -4202,7 +4206,7 @@
         <v>39</v>
       </c>
       <c r="E31">
-        <v>7.7128221043000003E-2</v>
+        <v>8.0383250059999994E-2</v>
       </c>
       <c r="F31">
         <v>0.15120067126</v>
@@ -4211,13 +4215,13 @@
         <v>1.6044636886999999</v>
       </c>
       <c r="H31">
-        <v>97764.379786000005</v>
+        <v>130322.39923</v>
       </c>
       <c r="I31" t="s">
         <v>935</v>
       </c>
       <c r="J31">
-        <v>5.3553760635999996</v>
+        <v>5.6274530603999997</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -4243,13 +4247,13 @@
         <v>21.829511491000002</v>
       </c>
       <c r="H32">
-        <v>857.11263226999995</v>
+        <v>883.60095562000004</v>
       </c>
       <c r="I32" t="s">
         <v>936</v>
       </c>
       <c r="J32">
-        <v>16.010361761999999</v>
+        <v>17.414518580999999</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
@@ -4275,13 +4279,13 @@
         <v>1.1006114914</v>
       </c>
       <c r="H33">
-        <v>1354367.8725000001</v>
+        <v>1450210.1442</v>
       </c>
       <c r="I33" t="s">
         <v>944</v>
       </c>
       <c r="J33">
-        <v>2.0525643563</v>
+        <v>2.2736112583999999</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
@@ -4307,13 +4311,13 @@
         <v>1.7370897994000001</v>
       </c>
       <c r="H34">
-        <v>88440.841616000005</v>
+        <v>642181.15460000001</v>
       </c>
       <c r="I34" t="s">
         <v>939</v>
       </c>
       <c r="J34">
-        <v>2.3206029969999999</v>
+        <v>12.598564407</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
@@ -4332,14 +4336,20 @@
       <c r="E35">
         <v>0</v>
       </c>
+      <c r="F35">
+        <v>-2.2398746763999999</v>
+      </c>
+      <c r="G35">
+        <v>-632.26561412000001</v>
+      </c>
       <c r="H35">
-        <v>27663.452895999999</v>
+        <v>228949.22312000001</v>
       </c>
       <c r="I35" t="s">
         <v>941</v>
       </c>
       <c r="J35">
-        <v>7.0157765024999999E-2</v>
+        <v>1.0201195149</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
@@ -4365,13 +4375,10 @@
         <v>4.2369075337000002</v>
       </c>
       <c r="H36">
-        <v>3.2986269467999998</v>
+        <v>1.0598351007</v>
       </c>
       <c r="I36" t="s">
         <v>935</v>
-      </c>
-      <c r="J36">
-        <v>1.7449495403999999</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
@@ -4388,7 +4395,7 @@
         <v>49</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>8.5880583484000003E-2</v>
       </c>
       <c r="F37">
         <v>-9.9691689767000005E-2</v>
@@ -4397,13 +4404,13 @@
         <v>1.3009264383000001</v>
       </c>
       <c r="H37">
-        <v>72927.370341000002</v>
+        <v>98782.389028999998</v>
       </c>
       <c r="I37" t="s">
         <v>939</v>
       </c>
       <c r="J37">
-        <v>0.56665887136000004</v>
+        <v>0.57989462889999999</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
@@ -4420,7 +4427,7 @@
         <v>51</v>
       </c>
       <c r="E38">
-        <v>0.39630538106000002</v>
+        <v>0.32017421364999998</v>
       </c>
       <c r="F38">
         <v>0.73951647583000002</v>
@@ -4429,13 +4436,13 @@
         <v>5.3021827063</v>
       </c>
       <c r="H38">
-        <v>367267.48096000002</v>
+        <v>377315.34350000002</v>
       </c>
       <c r="I38" t="s">
         <v>942</v>
       </c>
       <c r="J38">
-        <v>9.1445073257999994</v>
+        <v>8.6630600050000002</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
@@ -4452,7 +4459,7 @@
         <v>53</v>
       </c>
       <c r="E39">
-        <v>5.4973035641E-2</v>
+        <v>6.8120674554000005E-2</v>
       </c>
       <c r="F39">
         <v>0.11018463357</v>
@@ -4461,13 +4468,13 @@
         <v>0.73592134444000001</v>
       </c>
       <c r="H39">
-        <v>23650.873763</v>
+        <v>25386.804236</v>
       </c>
       <c r="I39" t="s">
         <v>939</v>
       </c>
       <c r="J39">
-        <v>1.7446710140999999</v>
+        <v>1.5292952866</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
@@ -4493,13 +4500,13 @@
         <v>0.69558491257999999</v>
       </c>
       <c r="H40">
-        <v>461819.14513000002</v>
+        <v>610202.93655999994</v>
       </c>
       <c r="I40" t="s">
         <v>941</v>
       </c>
       <c r="J40">
-        <v>1.8600802317</v>
+        <v>1.6919486581000001</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
@@ -4525,13 +4532,13 @@
         <v>3.1440669832000001</v>
       </c>
       <c r="H41">
-        <v>111.64938770000001</v>
+        <v>177.39212201000001</v>
       </c>
       <c r="I41" t="s">
         <v>939</v>
       </c>
       <c r="J41">
-        <v>0.34359315691999998</v>
+        <v>0.24398005728</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
@@ -4557,13 +4564,13 @@
         <v>0.33053476029000001</v>
       </c>
       <c r="H42">
-        <v>43.380950935999998</v>
+        <v>94.377148293999994</v>
       </c>
       <c r="I42" t="s">
         <v>945</v>
       </c>
       <c r="J42">
-        <v>0.35258774218</v>
+        <v>0.36597008592000002</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
@@ -4589,13 +4596,13 @@
         <v>1.4043407246999999</v>
       </c>
       <c r="H43">
-        <v>27783.273525000001</v>
+        <v>18825.299051000002</v>
       </c>
       <c r="I43" t="s">
         <v>946</v>
       </c>
       <c r="J43">
-        <v>2.8482853322000001</v>
+        <v>3.2177080018000002</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
@@ -4621,13 +4628,13 @@
         <v>2.4465523798</v>
       </c>
       <c r="H44">
-        <v>177285.20778</v>
+        <v>192608.13376</v>
       </c>
       <c r="I44" t="s">
         <v>935</v>
       </c>
       <c r="J44">
-        <v>2.2198636421</v>
+        <v>2.0137194583000002</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
@@ -4653,13 +4660,13 @@
         <v>0.35810562435999999</v>
       </c>
       <c r="H45">
-        <v>3530.4557312000002</v>
+        <v>2842.9013106000002</v>
       </c>
       <c r="I45" t="s">
         <v>943</v>
       </c>
       <c r="J45">
-        <v>0.28422889421000003</v>
+        <v>0.26519571444000001</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
@@ -4685,13 +4692,13 @@
         <v>0.35810562435999999</v>
       </c>
       <c r="H46">
-        <v>29855.72378</v>
+        <v>16609.944654999999</v>
       </c>
       <c r="I46" t="s">
         <v>943</v>
       </c>
       <c r="J46">
-        <v>0.26983755779000002</v>
+        <v>0.26519571444000001</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
@@ -4717,13 +4724,13 @@
         <v>-12.88028108</v>
       </c>
       <c r="H47">
-        <v>367519.01539999997</v>
+        <v>700008.22568000003</v>
       </c>
       <c r="I47" t="s">
         <v>940</v>
       </c>
       <c r="J47">
-        <v>1.3204051161000001</v>
+        <v>0.95293660053999996</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
@@ -4749,13 +4756,13 @@
         <v>0.71400388355</v>
       </c>
       <c r="H48">
-        <v>1473794.8766999999</v>
+        <v>2108885.0501000001</v>
       </c>
       <c r="I48" t="s">
         <v>936</v>
       </c>
       <c r="J48">
-        <v>1.8420910612000001</v>
+        <v>2.2417877727</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
@@ -4781,13 +4788,13 @@
         <v>0.79739784756999998</v>
       </c>
       <c r="H49">
-        <v>77.127289829000006</v>
+        <v>78.972623200000001</v>
       </c>
       <c r="I49" t="s">
         <v>939</v>
       </c>
       <c r="J49">
-        <v>1.1692960837999999</v>
+        <v>1.1297337435000001</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
@@ -4804,7 +4811,7 @@
         <v>685</v>
       </c>
       <c r="E50">
-        <v>8.8961387843000006E-2</v>
+        <v>0.10406984498000001</v>
       </c>
       <c r="F50">
         <v>9.4795231758999995E-2</v>
@@ -4813,13 +4820,13 @@
         <v>1.3688105334</v>
       </c>
       <c r="H50">
-        <v>6152.4964669000001</v>
+        <v>8213.3203778999996</v>
       </c>
       <c r="I50" t="s">
         <v>936</v>
       </c>
       <c r="J50">
-        <v>0.60309564609999999</v>
+        <v>0.67006117181000002</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
@@ -4845,13 +4852,13 @@
         <v>1.2904395360000001</v>
       </c>
       <c r="H51">
-        <v>53298.649851000002</v>
+        <v>80073.486841000005</v>
       </c>
       <c r="I51" t="s">
         <v>936</v>
       </c>
       <c r="J51">
-        <v>1.455323895</v>
+        <v>1.7502917152999999</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
@@ -4868,7 +4875,7 @@
         <v>779</v>
       </c>
       <c r="E52">
-        <v>0.45014892760000003</v>
+        <v>0.42271256775999999</v>
       </c>
       <c r="F52">
         <v>0.61181238668000004</v>
@@ -4877,7 +4884,7 @@
         <v>7.6127097856999999</v>
       </c>
       <c r="H52">
-        <v>33.274218488999999</v>
+        <v>12.671168717</v>
       </c>
       <c r="I52" t="s">
         <v>936</v>
@@ -4897,7 +4904,7 @@
         <v>689</v>
       </c>
       <c r="E53">
-        <v>0.49516382046000001</v>
+        <v>0.46498382465999999</v>
       </c>
       <c r="F53">
         <v>0.61181238668000004</v>
@@ -4906,13 +4913,13 @@
         <v>7.6127097856999999</v>
       </c>
       <c r="H53">
-        <v>41.652533798</v>
+        <v>310.78789814999999</v>
       </c>
       <c r="I53" t="s">
         <v>936</v>
       </c>
       <c r="J53">
-        <v>3.9720088507</v>
+        <v>4.1069976308999996</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
@@ -4929,7 +4936,7 @@
         <v>691</v>
       </c>
       <c r="E54">
-        <v>0.15008024799</v>
+        <v>0.12759970982999999</v>
       </c>
       <c r="F54">
         <v>0.23337204988999999</v>
@@ -4938,13 +4945,13 @@
         <v>1.4394553018</v>
       </c>
       <c r="H54">
-        <v>466.80174987999999</v>
+        <v>443.35808569</v>
       </c>
       <c r="I54" t="s">
         <v>936</v>
       </c>
       <c r="J54">
-        <v>1.609609321</v>
+        <v>1.5947102295</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
@@ -4961,7 +4968,7 @@
         <v>780</v>
       </c>
       <c r="E55">
-        <v>0.15008024799</v>
+        <v>0.12759970982999999</v>
       </c>
       <c r="F55">
         <v>0.23337204988999999</v>
@@ -4970,13 +4977,13 @@
         <v>1.4394553018</v>
       </c>
       <c r="H55">
-        <v>131.76078876</v>
+        <v>150.48082783000001</v>
       </c>
       <c r="I55" t="s">
         <v>936</v>
       </c>
       <c r="J55">
-        <v>1.7480910655999999</v>
+        <v>1.7432198296000001</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
@@ -4993,7 +5000,7 @@
         <v>693</v>
       </c>
       <c r="E56">
-        <v>1.9518432551</v>
+        <v>1.8896332882</v>
       </c>
       <c r="F56">
         <v>6.4566466608999997</v>
@@ -5031,13 +5038,13 @@
         <v>4.7955541313000003</v>
       </c>
       <c r="H57">
-        <v>179.86245174000001</v>
+        <v>439.91189352999999</v>
       </c>
       <c r="I57" t="s">
         <v>936</v>
       </c>
       <c r="J57">
-        <v>2.1569015452999998</v>
+        <v>2.4132810014000001</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
@@ -5063,7 +5070,7 @@
         <v>4.7955541313000003</v>
       </c>
       <c r="H58">
-        <v>0.26978580093999999</v>
+        <v>0.89462329997000001</v>
       </c>
       <c r="I58" t="s">
         <v>936</v>
@@ -5092,13 +5099,13 @@
         <v>4.7955541313000003</v>
       </c>
       <c r="H59">
-        <v>70713.741722000006</v>
+        <v>57493.829819999999</v>
       </c>
       <c r="I59" t="s">
         <v>936</v>
       </c>
       <c r="J59">
-        <v>2.0417708539000001</v>
+        <v>2.2205721156</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
@@ -5121,7 +5128,7 @@
         <v>-25.857526719999999</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>0.22568781875999999</v>
       </c>
       <c r="I60" t="s">
         <v>938</v>
@@ -5147,10 +5154,13 @@
         <v>-25.857526719999999</v>
       </c>
       <c r="H61">
-        <v>6.8067608374999997</v>
+        <v>2.3427969576000001</v>
       </c>
       <c r="I61" t="s">
         <v>938</v>
+      </c>
+      <c r="J61">
+        <v>1.6618931438</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
@@ -5176,7 +5186,7 @@
         <v>3.0664594231</v>
       </c>
       <c r="H62">
-        <v>0.18447434130000001</v>
+        <v>1.3287250819</v>
       </c>
       <c r="I62" t="s">
         <v>939</v>
@@ -5205,13 +5215,13 @@
         <v>3.0664594231</v>
       </c>
       <c r="H63">
-        <v>13.175803347</v>
+        <v>29.648740449999998</v>
       </c>
       <c r="I63" t="s">
         <v>939</v>
       </c>
       <c r="J63">
-        <v>1.8960585726999999</v>
+        <v>1.8828895725000001</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
@@ -5254,7 +5264,7 @@
         <v>697</v>
       </c>
       <c r="E65">
-        <v>0.57625067643000005</v>
+        <v>0.5078463862</v>
       </c>
       <c r="F65">
         <v>0.81833152747000004</v>
@@ -5263,13 +5273,13 @@
         <v>1.2224610967</v>
       </c>
       <c r="H65">
-        <v>530233.83437000006</v>
+        <v>764273.90246999997</v>
       </c>
       <c r="I65" t="s">
         <v>936</v>
       </c>
       <c r="J65">
-        <v>5.9238338519999996</v>
+        <v>6.4937590609000004</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
@@ -5295,13 +5305,13 @@
         <v>2.5440485863000002</v>
       </c>
       <c r="H66">
-        <v>17374.159412000001</v>
+        <v>14291.662812</v>
       </c>
       <c r="I66" t="s">
         <v>947</v>
       </c>
       <c r="J66">
-        <v>2.4465271905999999</v>
+        <v>2.8181464587999998</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
@@ -5353,13 +5363,13 @@
         <v>92.073934409000003</v>
       </c>
       <c r="H68">
-        <v>33.548984584000003</v>
+        <v>76.535470869999997</v>
       </c>
       <c r="I68" t="s">
         <v>948</v>
       </c>
       <c r="J68">
-        <v>61.163179765999999</v>
+        <v>54.366889430999997</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
@@ -5385,13 +5395,13 @@
         <v>0.50949985000999998</v>
       </c>
       <c r="H69">
-        <v>15760.309311999999</v>
+        <v>3420.7723003000001</v>
       </c>
       <c r="I69" t="s">
         <v>939</v>
       </c>
       <c r="J69">
-        <v>2.6749896562000002</v>
+        <v>1.5929422580999999</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
@@ -5417,13 +5427,13 @@
         <v>2.2748824458999999</v>
       </c>
       <c r="H70">
-        <v>8478.7597834999997</v>
+        <v>16742.333855000001</v>
       </c>
       <c r="I70" t="s">
         <v>949</v>
       </c>
       <c r="J70">
-        <v>1.8870639874999999</v>
+        <v>2.4698560871000002</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
@@ -5449,13 +5459,13 @@
         <v>1.7211393732</v>
       </c>
       <c r="H71">
-        <v>30511.510310000001</v>
+        <v>45324.701332999997</v>
       </c>
       <c r="I71" t="s">
         <v>934</v>
       </c>
       <c r="J71">
-        <v>2.6623972369</v>
+        <v>2.2718432869999998</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
@@ -5510,13 +5520,13 @@
         <v>-3.1129685608000002E-2</v>
       </c>
       <c r="H73">
-        <v>92.978130460000003</v>
+        <v>258.58206730000001</v>
       </c>
       <c r="I73" t="s">
         <v>949</v>
       </c>
       <c r="J73">
-        <v>0.36518016153999999</v>
+        <v>0.3765779145</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
@@ -5533,7 +5543,7 @@
         <v>700</v>
       </c>
       <c r="E74">
-        <v>8.8852517172000003E-2</v>
+        <v>9.1002457573999995E-2</v>
       </c>
       <c r="F74">
         <v>0.10892669817</v>
@@ -5542,13 +5552,13 @@
         <v>0.52510372135000005</v>
       </c>
       <c r="H74">
-        <v>14667.620140999999</v>
+        <v>16418.806668000001</v>
       </c>
       <c r="I74" t="s">
         <v>936</v>
       </c>
       <c r="J74">
-        <v>2.6048318911999999</v>
+        <v>2.7757151443999999</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
@@ -5565,7 +5575,7 @@
         <v>787</v>
       </c>
       <c r="E75">
-        <v>0.23644636914</v>
+        <v>0.23536051001</v>
       </c>
       <c r="F75">
         <v>0.28310236501000002</v>
@@ -5574,13 +5584,13 @@
         <v>3.0262050498000002</v>
       </c>
       <c r="H75">
-        <v>331058.90879999998</v>
+        <v>442715.90084999998</v>
       </c>
       <c r="I75" t="s">
         <v>936</v>
       </c>
       <c r="J75">
-        <v>2.0098627359000001</v>
+        <v>2.4999116014</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
@@ -5597,7 +5607,7 @@
         <v>702</v>
       </c>
       <c r="E76">
-        <v>0.26009100713</v>
+        <v>0.25889656205</v>
       </c>
       <c r="F76">
         <v>0.28310236501000002</v>
@@ -5606,13 +5616,13 @@
         <v>3.0262050498000002</v>
       </c>
       <c r="H76">
-        <v>1932891.5684</v>
+        <v>2670556.6861999999</v>
       </c>
       <c r="I76" t="s">
         <v>936</v>
       </c>
       <c r="J76">
-        <v>2.2236152984999999</v>
+        <v>2.7651073158999999</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
@@ -5638,13 +5648,13 @@
         <v>4.1823399557999998</v>
       </c>
       <c r="H77">
-        <v>5246.3898092999998</v>
+        <v>9744.6035269000004</v>
       </c>
       <c r="I77" t="s">
         <v>939</v>
       </c>
       <c r="J77">
-        <v>3.2290561082</v>
+        <v>3.1646688588999998</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
@@ -5670,13 +5680,13 @@
         <v>4.1823399557999998</v>
       </c>
       <c r="H78">
-        <v>206575.56485</v>
+        <v>233664.37278999999</v>
       </c>
       <c r="I78" t="s">
         <v>939</v>
       </c>
       <c r="J78">
-        <v>3.3297954631</v>
+        <v>3.4422403734000002</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
@@ -5693,7 +5703,7 @@
         <v>704</v>
       </c>
       <c r="E79">
-        <v>0.48147514381000001</v>
+        <v>0.48645720538999998</v>
       </c>
       <c r="F79">
         <v>1.2061303730999999</v>
@@ -5702,13 +5712,13 @@
         <v>6.1087736838</v>
       </c>
       <c r="H79">
-        <v>1600494.1831</v>
+        <v>1877466.841</v>
       </c>
       <c r="I79" t="s">
         <v>936</v>
       </c>
       <c r="J79">
-        <v>4.8049074456999996</v>
+        <v>4.9715356599999998</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
@@ -5734,13 +5744,13 @@
         <v>3.9329152718999998</v>
       </c>
       <c r="H80">
-        <v>23261.383483000001</v>
+        <v>21273.531792999998</v>
       </c>
       <c r="I80" t="s">
         <v>934</v>
       </c>
       <c r="J80">
-        <v>4.6124233211999996</v>
+        <v>4.5808139739999998</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
@@ -5766,13 +5776,13 @@
         <v>0.77450297424000003</v>
       </c>
       <c r="H81">
-        <v>623.99628141999995</v>
+        <v>1090.5695307999999</v>
       </c>
       <c r="I81" t="s">
         <v>949</v>
       </c>
       <c r="J81">
-        <v>3.2812247026999999</v>
+        <v>3.1682048018</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
@@ -5798,13 +5808,13 @@
         <v>0.77450297424000003</v>
       </c>
       <c r="H82">
-        <v>172243.02843000001</v>
+        <v>203816.03938</v>
       </c>
       <c r="I82" t="s">
         <v>949</v>
       </c>
       <c r="J82">
-        <v>3.2128658548</v>
+        <v>3.1894204589999999</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
@@ -5830,7 +5840,7 @@
         <v>0.77450297424000003</v>
       </c>
       <c r="H83">
-        <v>4.6441109038999997</v>
+        <v>1.9644297981000001</v>
       </c>
       <c r="I83" t="s">
         <v>949</v>
@@ -5859,13 +5869,10 @@
         <v>1.3993634561999999</v>
       </c>
       <c r="H84">
-        <v>15.06342151</v>
+        <v>11.190691445000001</v>
       </c>
       <c r="I84" t="s">
         <v>936</v>
-      </c>
-      <c r="J84">
-        <v>1.7089711993000001</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
@@ -5891,13 +5898,13 @@
         <v>1.3993634561999999</v>
       </c>
       <c r="H85">
-        <v>7.8053432982000004</v>
+        <v>30.278123315999999</v>
       </c>
       <c r="I85" t="s">
         <v>936</v>
       </c>
       <c r="J85">
-        <v>1.8510856464000001</v>
+        <v>1.7644354867000001</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
@@ -5923,13 +5930,13 @@
         <v>1.8268270313999999</v>
       </c>
       <c r="H86">
-        <v>603105.89549999998</v>
+        <v>698032.73427000002</v>
       </c>
       <c r="I86" t="s">
         <v>944</v>
       </c>
       <c r="J86">
-        <v>4.0781449567000001</v>
+        <v>4.6373890598000003</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
@@ -5955,13 +5962,13 @@
         <v>0.68461560330000004</v>
       </c>
       <c r="H87">
-        <v>7596.6688378999997</v>
+        <v>10802.092678000001</v>
       </c>
       <c r="I87" t="s">
         <v>939</v>
       </c>
       <c r="J87">
-        <v>0.72676248897999995</v>
+        <v>0.62409391463999997</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
@@ -6004,7 +6011,7 @@
         <v>792</v>
       </c>
       <c r="E89">
-        <v>5.3247994508000003E-2</v>
+        <v>4.9986424314000001E-2</v>
       </c>
       <c r="F89">
         <v>0.18465419372</v>
@@ -6013,13 +6020,13 @@
         <v>0.90389513691000001</v>
       </c>
       <c r="H89">
-        <v>218.18523865</v>
+        <v>393.25353113</v>
       </c>
       <c r="I89" t="s">
         <v>936</v>
       </c>
       <c r="J89">
-        <v>2.7736299579999999</v>
+        <v>2.8870973444999999</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
@@ -6036,7 +6043,7 @@
         <v>793</v>
       </c>
       <c r="E90">
-        <v>5.3247994508000003E-2</v>
+        <v>4.9986424314000001E-2</v>
       </c>
       <c r="F90">
         <v>0.18465419372</v>
@@ -6045,13 +6052,13 @@
         <v>0.90389513691000001</v>
       </c>
       <c r="H90">
-        <v>145.42913519000001</v>
+        <v>206.16996739000001</v>
       </c>
       <c r="I90" t="s">
         <v>936</v>
       </c>
       <c r="J90">
-        <v>1.3710276400999999</v>
+        <v>1.6725009724</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
@@ -6068,7 +6075,7 @@
         <v>707</v>
       </c>
       <c r="E91">
-        <v>5.3247994508000003E-2</v>
+        <v>4.9986424314000001E-2</v>
       </c>
       <c r="F91">
         <v>0.18465419372</v>
@@ -6077,13 +6084,13 @@
         <v>0.90389513691000001</v>
       </c>
       <c r="H91">
-        <v>1228242.0145</v>
+        <v>1338314.5815999999</v>
       </c>
       <c r="I91" t="s">
         <v>936</v>
       </c>
       <c r="J91">
-        <v>5.4904190903999996</v>
+        <v>6.2869064035999997</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
@@ -6126,7 +6133,7 @@
         <v>709</v>
       </c>
       <c r="E93">
-        <v>0.21051784286</v>
+        <v>0.25991711244999999</v>
       </c>
       <c r="F93">
         <v>0.24175586779</v>
@@ -6135,13 +6142,13 @@
         <v>0.89597660888999997</v>
       </c>
       <c r="H93">
-        <v>144874.52893</v>
+        <v>220920.42885</v>
       </c>
       <c r="I93" t="s">
         <v>936</v>
       </c>
       <c r="J93">
-        <v>2.5742503013000002</v>
+        <v>2.8906332874</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
@@ -6158,7 +6165,7 @@
         <v>103</v>
       </c>
       <c r="E94">
-        <v>6.1137784961000002E-2</v>
+        <v>0.10368617234999999</v>
       </c>
       <c r="F94">
         <v>0.34490558861999998</v>
@@ -6167,13 +6174,13 @@
         <v>1.2068146889</v>
       </c>
       <c r="H94">
-        <v>1339.1225876999999</v>
+        <v>2140.9526618999998</v>
       </c>
       <c r="I94" t="s">
         <v>942</v>
       </c>
       <c r="J94">
-        <v>1.8924607386000001</v>
+        <v>2.2417877727</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
@@ -6199,13 +6206,13 @@
         <v>1.8264197716999999</v>
       </c>
       <c r="H95">
-        <v>27105.503538000001</v>
+        <v>20917.945947</v>
       </c>
       <c r="I95" t="s">
         <v>944</v>
       </c>
       <c r="J95">
-        <v>1.4841065678000001</v>
+        <v>1.6848767724</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
@@ -6231,13 +6238,13 @@
         <v>1.8323512898000001</v>
       </c>
       <c r="H96">
-        <v>196610.87009000001</v>
+        <v>296070.58794</v>
       </c>
       <c r="I96" t="s">
         <v>941</v>
       </c>
       <c r="J96">
-        <v>1.6226231808</v>
+        <v>1.5858703723000001</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
@@ -6321,13 +6328,13 @@
         <v>6.7472450827000001</v>
       </c>
       <c r="H99">
-        <v>73433.225619999997</v>
+        <v>143538.66240999999</v>
       </c>
       <c r="I99" t="s">
         <v>941</v>
       </c>
       <c r="J99">
-        <v>0.9804097933</v>
+        <v>1.3153707435999999</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
@@ -6353,13 +6360,13 @@
         <v>1.3316487097</v>
       </c>
       <c r="H100">
-        <v>80273.791662999996</v>
+        <v>69600.055959000005</v>
       </c>
       <c r="I100" t="s">
         <v>946</v>
       </c>
       <c r="J100">
-        <v>1.2520462681</v>
+        <v>0.88044977192999996</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
@@ -6385,13 +6392,13 @@
         <v>1.2749631843</v>
       </c>
       <c r="H101">
-        <v>334360.40211999998</v>
+        <v>337686.13666000002</v>
       </c>
       <c r="I101" t="s">
         <v>940</v>
       </c>
       <c r="J101">
-        <v>2.0939394485</v>
+        <v>2.3425621442</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
@@ -6417,13 +6424,13 @@
         <v>2.0041597953000001</v>
       </c>
       <c r="H102">
-        <v>101803.36233</v>
+        <v>116977.03161999999</v>
       </c>
       <c r="I102" t="s">
         <v>941</v>
       </c>
       <c r="J102">
-        <v>1.6801885265000001</v>
+        <v>1.7980269439000001</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
@@ -6449,13 +6456,13 @@
         <v>2.9206882460000001</v>
       </c>
       <c r="H103">
-        <v>269.70193209000001</v>
+        <v>233.11397349000001</v>
       </c>
       <c r="I103" t="s">
         <v>935</v>
       </c>
       <c r="J103">
-        <v>3.7777258091000001</v>
+        <v>3.4440083447999998</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.3">
@@ -6481,13 +6488,13 @@
         <v>2.9206882460000001</v>
       </c>
       <c r="H104">
-        <v>194.53078170000001</v>
+        <v>287.81333752</v>
       </c>
       <c r="I104" t="s">
         <v>935</v>
       </c>
       <c r="J104">
-        <v>3.2830236197999998</v>
+        <v>2.9525122873999998</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
@@ -6513,13 +6520,13 @@
         <v>2.9206882460000001</v>
       </c>
       <c r="H105">
-        <v>263.60993817999997</v>
+        <v>515.04975702000002</v>
       </c>
       <c r="I105" t="s">
         <v>935</v>
       </c>
       <c r="J105">
-        <v>3.5312741728999999</v>
+        <v>3.1911884304</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
@@ -6545,13 +6552,10 @@
         <v>4.2803330530999997</v>
       </c>
       <c r="H106">
-        <v>25.128107661000001</v>
+        <v>9.9044110569000008</v>
       </c>
       <c r="I106" t="s">
         <v>942</v>
-      </c>
-      <c r="J106">
-        <v>4.8121031139000001</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
@@ -6577,13 +6581,13 @@
         <v>4.2803330530999997</v>
       </c>
       <c r="H107">
-        <v>59.049715141999997</v>
+        <v>107.669028</v>
       </c>
       <c r="I107" t="s">
         <v>942</v>
       </c>
       <c r="J107">
-        <v>4.0313731133999999</v>
+        <v>4.3315300025000001</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.3">
@@ -6609,10 +6613,13 @@
         <v>-9.7496393347999994</v>
       </c>
       <c r="H108">
-        <v>0.58637083994000005</v>
+        <v>0.72456271402000005</v>
       </c>
       <c r="I108" t="s">
         <v>935</v>
+      </c>
+      <c r="J108">
+        <v>2.4751600013999999</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
@@ -6739,7 +6746,7 @@
         <v>802</v>
       </c>
       <c r="E113">
-        <v>1.895402706</v>
+        <v>1.6605183591999999</v>
       </c>
       <c r="F113">
         <v>2.9629321323000002</v>
@@ -6748,13 +6755,10 @@
         <v>16.192612833999998</v>
       </c>
       <c r="H113">
-        <v>44.306739546999999</v>
+        <v>43.931151552999999</v>
       </c>
       <c r="I113" t="s">
         <v>935</v>
-      </c>
-      <c r="J113">
-        <v>12.322581805</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.3">
@@ -6771,7 +6775,7 @@
         <v>125</v>
       </c>
       <c r="E114">
-        <v>2.0849429761999998</v>
+        <v>1.8265701948999999</v>
       </c>
       <c r="F114">
         <v>2.9629321323000002</v>
@@ -6780,13 +6784,13 @@
         <v>16.192612833999998</v>
       </c>
       <c r="H114">
-        <v>893.19441887999994</v>
+        <v>1236.3633292</v>
       </c>
       <c r="I114" t="s">
         <v>935</v>
       </c>
       <c r="J114">
-        <v>13.036751875</v>
+        <v>13.940454722</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.3">
@@ -6838,7 +6842,7 @@
         <v>-1.3750867138</v>
       </c>
       <c r="H116">
-        <v>0.60050165246999998</v>
+        <v>1.6615425096000001</v>
       </c>
       <c r="I116" t="s">
         <v>939</v>
@@ -6867,13 +6871,13 @@
         <v>-1.3750867138</v>
       </c>
       <c r="H117">
-        <v>11.126999522</v>
+        <v>6.1325658294999998</v>
       </c>
       <c r="I117" t="s">
         <v>939</v>
       </c>
       <c r="J117">
-        <v>0.98580654446000004</v>
+        <v>0.88398571478999999</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.3">
@@ -6890,7 +6894,7 @@
         <v>804</v>
       </c>
       <c r="E118">
-        <v>0.21539547219999999</v>
+        <v>0.30521321005000002</v>
       </c>
       <c r="F118">
         <v>0.38610731632</v>
@@ -6899,13 +6903,13 @@
         <v>1.7781687933000001</v>
       </c>
       <c r="H118">
-        <v>8195.9138332000002</v>
+        <v>12703.457555000001</v>
       </c>
       <c r="I118" t="s">
         <v>935</v>
       </c>
       <c r="J118">
-        <v>2.1982766374999998</v>
+        <v>2.5405749442999999</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.3">
@@ -6922,7 +6926,7 @@
         <v>130</v>
       </c>
       <c r="E119">
-        <v>0.21539547219999999</v>
+        <v>0.30521321005000002</v>
       </c>
       <c r="F119">
         <v>0.38610731632</v>
@@ -6931,13 +6935,13 @@
         <v>1.7781687933000001</v>
       </c>
       <c r="H119">
-        <v>461643.18508999998</v>
+        <v>688765.79452999996</v>
       </c>
       <c r="I119" t="s">
         <v>935</v>
       </c>
       <c r="J119">
-        <v>1.7791289643999999</v>
+        <v>2.0561507726000001</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.3">
@@ -6954,7 +6958,7 @@
         <v>132</v>
       </c>
       <c r="E120">
-        <v>7.3557510579999999E-2</v>
+        <v>5.8719289993000003E-2</v>
       </c>
       <c r="F120">
         <v>0.15956225383</v>
@@ -6963,13 +6967,10 @@
         <v>0.90257570115999997</v>
       </c>
       <c r="H120">
-        <v>558332.90966</v>
+        <v>486563.96969</v>
       </c>
       <c r="I120" t="s">
         <v>947</v>
-      </c>
-      <c r="J120">
-        <v>1.0127903002</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.3">
@@ -7047,13 +7048,13 @@
         <v>0.76058120466000001</v>
       </c>
       <c r="H123">
-        <v>55894.410537000003</v>
+        <v>56893.248132000001</v>
       </c>
       <c r="I123" t="s">
         <v>941</v>
       </c>
       <c r="J123">
-        <v>1.3114105308999999</v>
+        <v>1.5151515151999999</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.3">
@@ -7070,7 +7071,7 @@
         <v>138</v>
       </c>
       <c r="E124">
-        <v>1.0991443952</v>
+        <v>0.56599721031000005</v>
       </c>
       <c r="F124">
         <v>1.3814601411</v>
@@ -7079,13 +7080,10 @@
         <v>5.2723055909000003</v>
       </c>
       <c r="H124">
-        <v>41.837760813000003</v>
+        <v>172.09791337999999</v>
       </c>
       <c r="I124" t="s">
         <v>935</v>
-      </c>
-      <c r="J124">
-        <v>7.1057223551000002</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.3">
@@ -7102,7 +7100,7 @@
         <v>806</v>
       </c>
       <c r="E125">
-        <v>1.0991443952</v>
+        <v>0.56599721031000005</v>
       </c>
       <c r="F125">
         <v>1.3814601411</v>
@@ -7111,7 +7109,7 @@
         <v>5.2723055909000003</v>
       </c>
       <c r="H125">
-        <v>2.9786340290000002</v>
+        <v>0</v>
       </c>
       <c r="I125" t="s">
         <v>935</v>
@@ -7166,13 +7164,10 @@
         <v>11.108087399</v>
       </c>
       <c r="H127">
-        <v>3.2459436954999998</v>
+        <v>1.1633040739</v>
       </c>
       <c r="I127" t="s">
         <v>935</v>
-      </c>
-      <c r="J127">
-        <v>6.2962096817999997</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.3">
@@ -7198,13 +7193,13 @@
         <v>11.108087399</v>
       </c>
       <c r="H128">
-        <v>4110.0679905999996</v>
+        <v>1629.6767927000001</v>
       </c>
       <c r="I128" t="s">
         <v>935</v>
       </c>
       <c r="J128">
-        <v>5.5046861789000001</v>
+        <v>5.7105477175999999</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.3">
@@ -7259,13 +7254,13 @@
         <v>1.2454661086000001</v>
       </c>
       <c r="H130">
-        <v>243153.42095</v>
+        <v>262189.62018999999</v>
       </c>
       <c r="I130" t="s">
         <v>939</v>
       </c>
       <c r="J130">
-        <v>0.31840831818999998</v>
+        <v>0.24221208585000001</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.3">
@@ -7308,7 +7303,7 @@
         <v>810</v>
       </c>
       <c r="E132">
-        <v>2.1803484066999999</v>
+        <v>3.2571619602999999</v>
       </c>
       <c r="F132">
         <v>3.8122964087</v>
@@ -7317,13 +7312,10 @@
         <v>1.3015327552</v>
       </c>
       <c r="H132">
-        <v>68.647199470000004</v>
+        <v>91.091823116</v>
       </c>
       <c r="I132" t="s">
         <v>933</v>
-      </c>
-      <c r="J132">
-        <v>18.888629044999998</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.3">
@@ -7340,7 +7332,7 @@
         <v>146</v>
       </c>
       <c r="E133">
-        <v>2.3983832474</v>
+        <v>3.5828781563000001</v>
       </c>
       <c r="F133">
         <v>3.8122964087</v>
@@ -7349,13 +7341,13 @@
         <v>1.3015327552</v>
       </c>
       <c r="H133">
-        <v>564.60461368999995</v>
+        <v>1304.0918145000001</v>
       </c>
       <c r="I133" t="s">
         <v>933</v>
       </c>
       <c r="J133">
-        <v>20.669556926999999</v>
+        <v>21.215657154999999</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.3">
@@ -7485,7 +7477,7 @@
         <v>1.3073730404999999</v>
       </c>
       <c r="H138">
-        <v>1.4215043369</v>
+        <v>0</v>
       </c>
       <c r="I138" t="s">
         <v>943</v>
@@ -7514,13 +7506,13 @@
         <v>4.0924227332000003</v>
       </c>
       <c r="H139">
-        <v>96805.359370000006</v>
+        <v>139662.63055999999</v>
       </c>
       <c r="I139" t="s">
         <v>939</v>
       </c>
       <c r="J139">
-        <v>3.7579377214999998</v>
+        <v>4.1936282309999999</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.3">
@@ -7546,13 +7538,13 @@
         <v>1.6384648458</v>
       </c>
       <c r="H140">
-        <v>176183.25740999999</v>
+        <v>204102.77499999999</v>
       </c>
       <c r="I140" t="s">
         <v>935</v>
       </c>
       <c r="J140">
-        <v>1.4913022360999999</v>
+        <v>1.6583572009000001</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.3">
@@ -7578,7 +7570,7 @@
         <v>1.6384648458</v>
       </c>
       <c r="H141">
-        <v>2.2803376917999998</v>
+        <v>22.069056815</v>
       </c>
       <c r="I141" t="s">
         <v>935</v>
@@ -7607,13 +7599,13 @@
         <v>1.6384648458</v>
       </c>
       <c r="H142">
-        <v>521875.86872000003</v>
+        <v>513979.67106000002</v>
       </c>
       <c r="I142" t="s">
         <v>935</v>
       </c>
       <c r="J142">
-        <v>1.6729928583</v>
+        <v>1.8439942010999999</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.3">
@@ -7639,13 +7631,13 @@
         <v>2.2203018430000001</v>
       </c>
       <c r="H143">
-        <v>508672.55082</v>
+        <v>523206.03886999999</v>
       </c>
       <c r="I143" t="s">
         <v>933</v>
       </c>
       <c r="J143">
-        <v>2.4357336883</v>
+        <v>2.3620098298999999</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.3">
@@ -7662,7 +7654,7 @@
         <v>159</v>
       </c>
       <c r="E144">
-        <v>0.54257399825999997</v>
+        <v>0.50729245426000003</v>
       </c>
       <c r="F144">
         <v>0.7133234007</v>
@@ -7671,7 +7663,7 @@
         <v>2.0280296350000002</v>
       </c>
       <c r="H144">
-        <v>73.554413603</v>
+        <v>508.87355626999999</v>
       </c>
       <c r="I144" t="s">
         <v>935</v>
@@ -7691,7 +7683,7 @@
         <v>816</v>
       </c>
       <c r="E145">
-        <v>0.59683139809999997</v>
+        <v>0.55802169968000004</v>
       </c>
       <c r="F145">
         <v>0.7133234007</v>
@@ -7700,7 +7692,7 @@
         <v>2.0280296350000002</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>31.526901006999999</v>
       </c>
       <c r="I145" t="s">
         <v>935</v>
@@ -7720,7 +7712,7 @@
         <v>817</v>
       </c>
       <c r="E146">
-        <v>0.59683139809999997</v>
+        <v>0.55802169968000004</v>
       </c>
       <c r="F146">
         <v>0.7133234007</v>
@@ -7729,7 +7721,7 @@
         <v>2.0280296350000002</v>
       </c>
       <c r="H146">
-        <v>2.3457011396</v>
+        <v>31.551913262999999</v>
       </c>
       <c r="I146" t="s">
         <v>935</v>
@@ -7752,7 +7744,7 @@
         <v>0</v>
       </c>
       <c r="H147">
-        <v>2.6940534078999998</v>
+        <v>0.38680786477000001</v>
       </c>
       <c r="I147" t="s">
         <v>942</v>
@@ -7775,13 +7767,10 @@
         <v>0</v>
       </c>
       <c r="H148">
-        <v>104.560804</v>
+        <v>22.458214187999999</v>
       </c>
       <c r="I148" t="s">
         <v>942</v>
-      </c>
-      <c r="J148">
-        <v>0.11153285722</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.3">
@@ -7798,7 +7787,7 @@
         <v>163</v>
       </c>
       <c r="E149">
-        <v>0.69530449494000002</v>
+        <v>0.53805419584000003</v>
       </c>
       <c r="F149">
         <v>0.97421584580999998</v>
@@ -7807,13 +7796,13 @@
         <v>3.5668513800000001</v>
       </c>
       <c r="H149">
-        <v>178490.30968999999</v>
+        <v>214816.79047000001</v>
       </c>
       <c r="I149" t="s">
         <v>935</v>
       </c>
       <c r="J149">
-        <v>5.8878555109999997</v>
+        <v>6.0270146034999996</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.3">
@@ -7868,13 +7857,13 @@
         <v>4.6900383143999997</v>
       </c>
       <c r="H151">
-        <v>221.1404948</v>
+        <v>195.84865406</v>
       </c>
       <c r="I151" t="s">
         <v>949</v>
       </c>
       <c r="J151">
-        <v>5.2906150497000004</v>
+        <v>5.1235812028999996</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.3">
@@ -7900,10 +7889,13 @@
         <v>4.6900383143999997</v>
       </c>
       <c r="H152">
-        <v>41.326205698000003</v>
+        <v>58.011752164000001</v>
       </c>
       <c r="I152" t="s">
         <v>949</v>
+      </c>
+      <c r="J152">
+        <v>5.0404865457000003</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.3">
@@ -7920,7 +7912,7 @@
         <v>166</v>
       </c>
       <c r="E153">
-        <v>3.3809177756000001E-2</v>
+        <v>6.3751479626000002E-2</v>
       </c>
       <c r="F153">
         <v>6.9700703525999996E-2</v>
@@ -7929,13 +7921,13 @@
         <v>0.78245510558999998</v>
       </c>
       <c r="H153">
-        <v>12678.309230000001</v>
+        <v>11287.393758</v>
       </c>
       <c r="I153" t="s">
         <v>939</v>
       </c>
       <c r="J153">
-        <v>0.67459389447999996</v>
+        <v>0.64530957180000004</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.3">
@@ -7961,13 +7953,13 @@
         <v>0.44094257404999998</v>
       </c>
       <c r="H154">
-        <v>190024.87153</v>
+        <v>241742.09315</v>
       </c>
       <c r="I154" t="s">
         <v>946</v>
       </c>
       <c r="J154">
-        <v>0.93363794995000005</v>
+        <v>1.004207772</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.3">
@@ -7984,19 +7976,19 @@
         <v>170</v>
       </c>
       <c r="E155">
-        <v>0.18404392020999999</v>
+        <v>0.21237149364999999</v>
       </c>
       <c r="G155">
         <v>2.1419045055999999</v>
       </c>
       <c r="H155">
-        <v>2753.4533397</v>
+        <v>3405.8879058000002</v>
       </c>
       <c r="I155" t="s">
         <v>939</v>
       </c>
       <c r="J155">
-        <v>3.3194570602</v>
+        <v>3.4033450019</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.3">
@@ -8048,13 +8040,13 @@
         <v>0.69474017039000002</v>
       </c>
       <c r="H157">
-        <v>131456.67997999999</v>
+        <v>130258.33869999999</v>
       </c>
       <c r="I157" t="s">
         <v>943</v>
       </c>
       <c r="J157">
-        <v>3.7057691269999999</v>
+        <v>4.2113079452999997</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.3">
@@ -8080,13 +8072,13 @@
         <v>0.22027774648000001</v>
       </c>
       <c r="H158">
-        <v>70001.891252000001</v>
+        <v>181537.36497</v>
       </c>
       <c r="I158" t="s">
         <v>940</v>
       </c>
       <c r="J158">
-        <v>0.35258774218</v>
+        <v>0.34829037162999998</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.3">
@@ -8112,13 +8104,13 @@
         <v>4.2632057357999997</v>
       </c>
       <c r="H159">
-        <v>425810.96019000001</v>
+        <v>477113.54665999999</v>
       </c>
       <c r="I159" t="s">
         <v>943</v>
       </c>
       <c r="J159">
-        <v>3.3909586428999998</v>
+        <v>3.8577136592999999</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.3">
@@ -8144,13 +8136,13 @@
         <v>3.4486103121</v>
       </c>
       <c r="H160">
-        <v>2006.3737896</v>
+        <v>2792.6321134999998</v>
       </c>
       <c r="I160" t="s">
         <v>941</v>
       </c>
       <c r="J160">
-        <v>1.3096116138</v>
+        <v>1.2587956578999999</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.3">
@@ -8176,13 +8168,13 @@
         <v>1.9243203965</v>
       </c>
       <c r="H161">
-        <v>42090.077975</v>
+        <v>13662.347005</v>
       </c>
       <c r="I161" t="s">
         <v>939</v>
       </c>
       <c r="J161">
-        <v>0.49830002339000001</v>
+        <v>0.52862345744999995</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.3">
@@ -8208,13 +8200,13 @@
         <v>2.2199645239999999</v>
       </c>
       <c r="H162">
-        <v>14507.112675</v>
+        <v>19804.529723</v>
       </c>
       <c r="I162" t="s">
         <v>945</v>
       </c>
       <c r="J162">
-        <v>2.7523430895000001</v>
+        <v>2.7226760016</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.3">
@@ -8240,13 +8232,13 @@
         <v>1.5783154226</v>
       </c>
       <c r="H163">
-        <v>67432.217124000003</v>
+        <v>132784.02806000001</v>
       </c>
       <c r="I163" t="s">
         <v>939</v>
       </c>
       <c r="J163">
-        <v>1.1800895861</v>
+        <v>1.4515045437</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.3">
@@ -8272,13 +8264,13 @@
         <v>1.6418738636000001</v>
       </c>
       <c r="H164">
-        <v>3752.3174224999998</v>
+        <v>4591.3126748000004</v>
       </c>
       <c r="I164" t="s">
         <v>939</v>
       </c>
       <c r="J164">
-        <v>1.8852650704</v>
+        <v>1.7167002580999999</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.3">
@@ -8304,13 +8296,13 @@
         <v>1.6418738636000001</v>
       </c>
       <c r="H165">
-        <v>119.66708439999999</v>
+        <v>1295.4493672000001</v>
       </c>
       <c r="I165" t="s">
         <v>939</v>
       </c>
       <c r="J165">
-        <v>1.8456888952999999</v>
+        <v>1.6795728581</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.3">
@@ -8327,7 +8319,7 @@
         <v>190</v>
       </c>
       <c r="E166">
-        <v>8.1030795281999995E-2</v>
+        <v>7.0158634087999994E-2</v>
       </c>
       <c r="F166">
         <v>0.14563204221000001</v>
@@ -8336,13 +8328,13 @@
         <v>1.6092941718</v>
       </c>
       <c r="H166">
-        <v>9938.4375378000004</v>
+        <v>16599.210565000001</v>
       </c>
       <c r="I166" t="s">
         <v>941</v>
       </c>
       <c r="J166">
-        <v>1.7395527892</v>
+        <v>1.7803472296</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.3">
@@ -8359,7 +8351,7 @@
         <v>192</v>
       </c>
       <c r="E167">
-        <v>9.4907313921000006E-2</v>
+        <v>0.38667047517000003</v>
       </c>
       <c r="F167">
         <v>0.507492206</v>
@@ -8368,13 +8360,13 @@
         <v>2.4317297629999999</v>
       </c>
       <c r="H167">
-        <v>202746.09487</v>
+        <v>184802.38097</v>
       </c>
       <c r="I167" t="s">
         <v>943</v>
       </c>
       <c r="J167">
-        <v>4.5175804166000004</v>
+        <v>5.1147413457999997</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.3">
@@ -8400,7 +8392,7 @@
         <v>3.1547576597</v>
       </c>
       <c r="H168">
-        <v>5.8442383432999998</v>
+        <v>0</v>
       </c>
       <c r="I168" t="s">
         <v>936</v>
@@ -8429,7 +8421,7 @@
         <v>1.8504103055000001</v>
       </c>
       <c r="H169">
-        <v>3.6659273124</v>
+        <v>0</v>
       </c>
       <c r="I169" t="s">
         <v>942</v>
@@ -8458,13 +8450,13 @@
         <v>1.8504103055000001</v>
       </c>
       <c r="H170">
-        <v>65.168361529999999</v>
+        <v>21.294873504000002</v>
       </c>
       <c r="I170" t="s">
         <v>942</v>
       </c>
       <c r="J170">
-        <v>0.71776790371999999</v>
+        <v>0.77260351473</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.3">
@@ -8490,13 +8482,13 @@
         <v>-3.6283692030000001</v>
       </c>
       <c r="H171">
-        <v>317.71982955999999</v>
+        <v>1502.3939171</v>
       </c>
       <c r="I171" t="s">
         <v>939</v>
       </c>
       <c r="J171">
-        <v>1.1369155768000001</v>
+        <v>1.5575828295</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.3">
@@ -8522,7 +8514,7 @@
         <v>-7.8901915914000004E-2</v>
       </c>
       <c r="H172">
-        <v>1.950269813</v>
+        <v>13.374002068999999</v>
       </c>
       <c r="I172" t="s">
         <v>939</v>
@@ -8577,13 +8569,13 @@
         <v>0.85437801000000002</v>
       </c>
       <c r="H174">
-        <v>110375.50266</v>
+        <v>106812.58087000001</v>
       </c>
       <c r="I174" t="s">
         <v>940</v>
       </c>
       <c r="J174">
-        <v>1.1872852543000001</v>
+        <v>1.3843216294</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.3">
@@ -8600,7 +8592,7 @@
         <v>824</v>
       </c>
       <c r="E175">
-        <v>1.7606024552999999</v>
+        <v>1.6579341962</v>
       </c>
       <c r="F175">
         <v>0.99270838050999999</v>
@@ -8609,7 +8601,7 @@
         <v>3.3417394494999999</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>0.70623312927000004</v>
       </c>
       <c r="I175" t="s">
         <v>935</v>
@@ -8629,7 +8621,7 @@
         <v>202</v>
       </c>
       <c r="E176">
-        <v>1.9366627007999999</v>
+        <v>1.8237276158</v>
       </c>
       <c r="F176">
         <v>0.99270838050999999</v>
@@ -8638,13 +8630,13 @@
         <v>3.3417394494999999</v>
       </c>
       <c r="H176">
-        <v>108.44371313000001</v>
+        <v>193.28927376999999</v>
       </c>
       <c r="I176" t="s">
         <v>935</v>
       </c>
       <c r="J176">
-        <v>6.7504640195999999</v>
+        <v>7.6411725186000004</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.3">
@@ -8670,13 +8662,13 @@
         <v>10.012935172000001</v>
       </c>
       <c r="H177">
-        <v>902625.42012000002</v>
+        <v>1244072.9517000001</v>
       </c>
       <c r="I177" t="s">
         <v>935</v>
       </c>
       <c r="J177">
-        <v>6.4491176312</v>
+        <v>7.3812807185000002</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.3">
@@ -8702,7 +8694,7 @@
         <v>10.012935172000001</v>
       </c>
       <c r="H178">
-        <v>1.7883333333</v>
+        <v>3.2959789057000002</v>
       </c>
       <c r="I178" t="s">
         <v>935</v>
@@ -8731,13 +8723,13 @@
         <v>10.012935172000001</v>
       </c>
       <c r="H179">
-        <v>221506.83981</v>
+        <v>252747.74913000001</v>
       </c>
       <c r="I179" t="s">
         <v>935</v>
       </c>
       <c r="J179">
-        <v>7.2136573781999997</v>
+        <v>8.1574201761000005</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.3">
@@ -8763,13 +8755,13 @@
         <v>1.2826192239</v>
       </c>
       <c r="H180">
-        <v>4117.3435255000004</v>
+        <v>7666.9253165</v>
       </c>
       <c r="I180" t="s">
         <v>939</v>
       </c>
       <c r="J180">
-        <v>3.1984745182999998</v>
+        <v>3.1823485732000001</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.3">
@@ -8795,10 +8787,13 @@
         <v>3.7771859140999999</v>
       </c>
       <c r="H181">
-        <v>0.88033460681999998</v>
+        <v>4.2988057361000003</v>
       </c>
       <c r="I181" t="s">
         <v>935</v>
+      </c>
+      <c r="J181">
+        <v>8.3978642904999994</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.3">
@@ -8824,10 +8819,13 @@
         <v>6.0185075379999997</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1.2101764435</v>
       </c>
       <c r="I182" t="s">
         <v>935</v>
+      </c>
+      <c r="J182">
+        <v>12.101764435</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.3">
@@ -8853,13 +8851,13 @@
         <v>6.0185075379999997</v>
       </c>
       <c r="H183">
-        <v>274.44383534999997</v>
+        <v>415.98651038999998</v>
       </c>
       <c r="I183" t="s">
         <v>935</v>
       </c>
       <c r="J183">
-        <v>8.5610462501000004</v>
+        <v>7.2999540326999997</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.3">
@@ -8885,13 +8883,13 @@
         <v>1.0840809675</v>
       </c>
       <c r="H184">
-        <v>466.18997574000002</v>
+        <v>158.77122388999999</v>
       </c>
       <c r="I184" t="s">
         <v>941</v>
       </c>
       <c r="J184">
-        <v>1.1333177427000001</v>
+        <v>1.0484070577</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.3">
@@ -8917,13 +8915,13 @@
         <v>3.7936554412999999</v>
       </c>
       <c r="H185">
-        <v>986888.28237000003</v>
+        <v>1757626.0482999999</v>
       </c>
       <c r="I185" t="s">
         <v>948</v>
       </c>
       <c r="J185">
-        <v>6.5030851426999998</v>
+        <v>8.2794102046999996</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.3">
@@ -8949,13 +8947,10 @@
         <v>3.1557338964000001</v>
       </c>
       <c r="H186">
-        <v>138957.66315000001</v>
+        <v>0</v>
       </c>
       <c r="I186" t="s">
         <v>933</v>
-      </c>
-      <c r="J186">
-        <v>3.9468240119</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.3">
@@ -8975,10 +8970,10 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>0.49013714269000003</v>
+        <v>0.50125844001999997</v>
       </c>
       <c r="G187">
-        <v>3.9311990937000001</v>
+        <v>4.0862113728000002</v>
       </c>
       <c r="H187">
         <v>0</v>
@@ -9001,7 +8996,7 @@
         <v>828</v>
       </c>
       <c r="E188">
-        <v>6.9416895408000001E-2</v>
+        <v>7.7733792772999993E-2</v>
       </c>
       <c r="F188">
         <v>0.23048299149000001</v>
@@ -9010,13 +9005,13 @@
         <v>1.3352087722999999</v>
       </c>
       <c r="H188">
-        <v>187.45621383</v>
+        <v>474.55319470000001</v>
       </c>
       <c r="I188" t="s">
         <v>935</v>
       </c>
       <c r="J188">
-        <v>2.6120275594</v>
+        <v>2.5936140872000002</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.3">
@@ -9033,7 +9028,7 @@
         <v>829</v>
       </c>
       <c r="E189">
-        <v>6.9416895408000001E-2</v>
+        <v>7.7733792772999993E-2</v>
       </c>
       <c r="F189">
         <v>0.23048299149000001</v>
@@ -9042,13 +9037,13 @@
         <v>1.3352087722999999</v>
       </c>
       <c r="H189">
-        <v>253.96361497999999</v>
+        <v>592.95658279999998</v>
       </c>
       <c r="I189" t="s">
         <v>935</v>
       </c>
       <c r="J189">
-        <v>1.4067531346</v>
+        <v>1.4391287437</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.3">
@@ -9065,7 +9060,7 @@
         <v>220</v>
       </c>
       <c r="E190">
-        <v>6.9416895408000001E-2</v>
+        <v>7.7733792772999993E-2</v>
       </c>
       <c r="F190">
         <v>0.23048299149000001</v>
@@ -9074,13 +9069,13 @@
         <v>1.3352087722999999</v>
       </c>
       <c r="H190">
-        <v>380665.41226000001</v>
+        <v>660414.35996000003</v>
       </c>
       <c r="I190" t="s">
         <v>935</v>
       </c>
       <c r="J190">
-        <v>8.2066595908999993</v>
+        <v>8.3642728333999994</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.3">
@@ -9097,7 +9092,7 @@
         <v>712</v>
       </c>
       <c r="E191">
-        <v>0.67446023418000001</v>
+        <v>0.91242809736999997</v>
       </c>
       <c r="F191">
         <v>1.3968160958</v>
@@ -9106,7 +9101,7 @@
         <v>3.4841591026000001</v>
       </c>
       <c r="H191">
-        <v>4.6394507373999998</v>
+        <v>103.0390974</v>
       </c>
       <c r="I191" t="s">
         <v>935</v>
@@ -9126,7 +9121,7 @@
         <v>830</v>
       </c>
       <c r="E192">
-        <v>0.67089071783999998</v>
+        <v>0.75507877485999997</v>
       </c>
       <c r="F192">
         <v>1.3968160958</v>
@@ -9135,13 +9130,13 @@
         <v>3.4841591026000001</v>
       </c>
       <c r="H192">
-        <v>412.29908247999998</v>
+        <v>111.19326469000001</v>
       </c>
       <c r="I192" t="s">
         <v>935</v>
       </c>
       <c r="J192">
-        <v>13.247107703999999</v>
+        <v>14.776705207999999</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.3">
@@ -9167,13 +9162,13 @@
         <v>1.5589009561</v>
       </c>
       <c r="H193">
-        <v>275056.95757000003</v>
+        <v>616302.46215000004</v>
       </c>
       <c r="I193" t="s">
         <v>935</v>
       </c>
       <c r="J193">
-        <v>2.2846246560000001</v>
+        <v>2.321346487</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.3">
@@ -9190,7 +9185,7 @@
         <v>225</v>
       </c>
       <c r="E194">
-        <v>0.46535010606999999</v>
+        <v>0.48569340155000001</v>
       </c>
       <c r="F194">
         <v>1.0380964973</v>
@@ -9199,13 +9194,13 @@
         <v>2.6441167820000002</v>
       </c>
       <c r="H194">
-        <v>202575.75305999999</v>
+        <v>196791.91746999999</v>
       </c>
       <c r="I194" t="s">
         <v>935</v>
       </c>
       <c r="J194">
-        <v>7.967403623</v>
+        <v>7.9841589759999998</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.3">
@@ -9231,13 +9226,13 @@
         <v>0.32779094611999998</v>
       </c>
       <c r="H195">
-        <v>9099.0974411000007</v>
+        <v>7591.1006853999997</v>
       </c>
       <c r="I195" t="s">
         <v>941</v>
       </c>
       <c r="J195">
-        <v>0.35798449332999999</v>
+        <v>0.29878717160000001</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.3">
@@ -9263,13 +9258,10 @@
         <v>4.7736840453999996</v>
       </c>
       <c r="H196">
-        <v>26.176678665000001</v>
+        <v>104.68203078000001</v>
       </c>
       <c r="I196" t="s">
         <v>935</v>
-      </c>
-      <c r="J196">
-        <v>4.6771843349999997</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.3">
@@ -9353,13 +9345,13 @@
         <v>0.45983031993000001</v>
       </c>
       <c r="H199">
-        <v>76.274664247000004</v>
+        <v>3286.4593042000001</v>
       </c>
       <c r="I199" t="s">
         <v>935</v>
       </c>
       <c r="J199">
-        <v>1.2394538488</v>
+        <v>1.0607828577</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.3">
@@ -9385,7 +9377,7 @@
         <v>0.45983031993000001</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>6.4802170546999998</v>
       </c>
       <c r="I200" t="s">
         <v>935</v>
@@ -9472,13 +9464,13 @@
         <v>3.7332059154000001</v>
       </c>
       <c r="H203">
-        <v>927407.75323000003</v>
+        <v>1047986.4266</v>
       </c>
       <c r="I203" t="s">
         <v>935</v>
       </c>
       <c r="J203">
-        <v>5.5208764323999997</v>
+        <v>6.0464622892</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.3">
@@ -9504,13 +9496,13 @@
         <v>0.47823556030999997</v>
       </c>
       <c r="H204">
-        <v>1715.3749759</v>
+        <v>2087.1680851000001</v>
       </c>
       <c r="I204" t="s">
         <v>939</v>
       </c>
       <c r="J204">
-        <v>0.1834895393</v>
+        <v>0.18740497153999999</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.3">
@@ -9536,13 +9528,13 @@
         <v>0.32617671919000002</v>
       </c>
       <c r="H205">
-        <v>1894.14285</v>
+        <v>2049.1872564</v>
       </c>
       <c r="I205" t="s">
         <v>939</v>
       </c>
       <c r="J205">
-        <v>0.60443612945000003</v>
+        <v>0.66122131466</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.3">
@@ -9597,7 +9589,7 @@
         <v>-13.529357026</v>
       </c>
       <c r="H207">
-        <v>2.6504768295000001</v>
+        <v>10.533189194</v>
       </c>
       <c r="I207" t="s">
         <v>939</v>
@@ -9617,7 +9609,7 @@
         <v>241</v>
       </c>
       <c r="E208">
-        <v>0.12315410554</v>
+        <v>0.12983196093999999</v>
       </c>
       <c r="F208">
         <v>0.34191975886999998</v>
@@ -9626,13 +9618,13 @@
         <v>2.4965800099000002</v>
       </c>
       <c r="H208">
-        <v>3854.3405004000001</v>
+        <v>16369.139057</v>
       </c>
       <c r="I208" t="s">
         <v>950</v>
       </c>
       <c r="J208">
-        <v>1.0631599777</v>
+        <v>1.0360312576999999</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.3">
@@ -9658,13 +9650,13 @@
         <v>5.3517426010999998</v>
       </c>
       <c r="H209">
-        <v>13.940496702000001</v>
+        <v>30.509444872</v>
       </c>
       <c r="I209" t="s">
         <v>939</v>
       </c>
       <c r="J209">
-        <v>2.7631365917999999</v>
+        <v>3.0762702874999999</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.3">
@@ -9690,13 +9682,13 @@
         <v>5.3517426010999998</v>
       </c>
       <c r="H210">
-        <v>3870.8728344000001</v>
+        <v>2992.3196462000001</v>
       </c>
       <c r="I210" t="s">
         <v>939</v>
       </c>
       <c r="J210">
-        <v>2.6965766607999999</v>
+        <v>2.7668752873</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.3">
@@ -9748,13 +9740,13 @@
         <v>2.0101160671999998</v>
       </c>
       <c r="H212">
-        <v>16288.751184000001</v>
+        <v>15605.134324000001</v>
       </c>
       <c r="I212" t="s">
         <v>943</v>
       </c>
       <c r="J212">
-        <v>1.1782906689999999</v>
+        <v>1.1226618578000001</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.3">
@@ -9806,13 +9798,13 @@
         <v>4.2088414516999997</v>
       </c>
       <c r="H214">
-        <v>60.476742862000002</v>
+        <v>18.328724703999999</v>
       </c>
       <c r="I214" t="s">
         <v>944</v>
       </c>
       <c r="J214">
-        <v>14.387738581000001</v>
+        <v>14.120787807999999</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.3">
@@ -9829,7 +9821,7 @@
         <v>251</v>
       </c>
       <c r="E215">
-        <v>5.5303521712000002E-2</v>
+        <v>5.6024261137E-2</v>
       </c>
       <c r="F215">
         <v>0.23302265050000001</v>
@@ -9838,13 +9830,13 @@
         <v>4.3150436456000003</v>
       </c>
       <c r="H215">
-        <v>80929.032772999999</v>
+        <v>117487.10756</v>
       </c>
       <c r="I215" t="s">
         <v>943</v>
       </c>
       <c r="J215">
-        <v>2.3277986652</v>
+        <v>2.4910717443000001</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.3">
@@ -9870,13 +9862,13 @@
         <v>-0.50786793881000003</v>
       </c>
       <c r="H216">
-        <v>90.830526254000006</v>
+        <v>195.75263715</v>
       </c>
       <c r="I216" t="s">
         <v>949</v>
       </c>
       <c r="J216">
-        <v>0.68178956268000002</v>
+        <v>0.73370814328</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.3">
@@ -9902,13 +9894,10 @@
         <v>1.9000611490999999</v>
       </c>
       <c r="H217">
-        <v>12.202988354</v>
+        <v>13.500806881999999</v>
       </c>
       <c r="I217" t="s">
         <v>937</v>
-      </c>
-      <c r="J217">
-        <v>2.5220817067999999</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.3">
@@ -9934,13 +9923,13 @@
         <v>1.9000611490999999</v>
       </c>
       <c r="H218">
-        <v>21525.362926000002</v>
+        <v>19113.732016999998</v>
       </c>
       <c r="I218" t="s">
         <v>937</v>
       </c>
       <c r="J218">
-        <v>1.4517260609</v>
+        <v>1.4408967151000001</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.3">
@@ -9966,13 +9955,13 @@
         <v>6.4953604893000003</v>
       </c>
       <c r="H219">
-        <v>25.522399622999998</v>
+        <v>50.042249658000003</v>
       </c>
       <c r="I219" t="s">
         <v>943</v>
       </c>
       <c r="J219">
-        <v>1.8888629045000001</v>
+        <v>1.4674162866</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.3">
@@ -9989,7 +9978,7 @@
         <v>257</v>
       </c>
       <c r="E220">
-        <v>0.11749202487</v>
+        <v>0.17939507810999999</v>
       </c>
       <c r="F220">
         <v>0.18417267145999999</v>
@@ -9998,13 +9987,13 @@
         <v>1.9014896636</v>
       </c>
       <c r="H220">
-        <v>136518.37805999999</v>
+        <v>234798.99612</v>
       </c>
       <c r="I220" t="s">
         <v>939</v>
       </c>
       <c r="J220">
-        <v>2.7037723291</v>
+        <v>2.8199144301999999</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.3">
@@ -10021,7 +10010,7 @@
         <v>259</v>
       </c>
       <c r="E221">
-        <v>0.12338940313000001</v>
+        <v>0.11714873431</v>
       </c>
       <c r="F221">
         <v>0.29658067589999998</v>
@@ -10030,13 +10019,13 @@
         <v>1.4755281785000001</v>
       </c>
       <c r="H221">
-        <v>21094.452196999999</v>
+        <v>44131.696560999997</v>
       </c>
       <c r="I221" t="s">
         <v>948</v>
       </c>
       <c r="J221">
-        <v>3.4462427915</v>
+        <v>3.4899756019999999</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.3">
@@ -10062,13 +10051,13 @@
         <v>1.2519606909000001</v>
       </c>
       <c r="H222">
-        <v>5621.6383401000003</v>
+        <v>339.86584147999997</v>
       </c>
       <c r="I222" t="s">
         <v>936</v>
       </c>
       <c r="J222">
-        <v>0.40475633668</v>
+        <v>0.36597008592000002</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.3">
@@ -10088,19 +10077,19 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>-0.44770718846000002</v>
+        <v>-0.44770263123999998</v>
       </c>
       <c r="G223">
         <v>5.1375611260999996</v>
       </c>
       <c r="H223">
-        <v>31267.599963000001</v>
+        <v>48459.319631999999</v>
       </c>
       <c r="I223" t="s">
         <v>943</v>
       </c>
       <c r="J223">
-        <v>0.60083829535</v>
+        <v>0.46497648598000002</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.3">
@@ -10152,13 +10141,10 @@
         <v>-87.831090644</v>
       </c>
       <c r="H225">
-        <v>1.7462062415999999</v>
+        <v>1.6953129399</v>
       </c>
       <c r="I225" t="s">
         <v>939</v>
-      </c>
-      <c r="J225">
-        <v>1.8888629045000001</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.3">
@@ -10184,10 +10170,13 @@
         <v>4.0322837676000001</v>
       </c>
       <c r="H226">
-        <v>3.4133589569999998</v>
+        <v>11.637333509999999</v>
       </c>
       <c r="I226" t="s">
         <v>935</v>
+      </c>
+      <c r="J226">
+        <v>4.6762844312</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.3">
@@ -10213,13 +10202,13 @@
         <v>4.0322837676000001</v>
       </c>
       <c r="H227">
-        <v>47.791167788000003</v>
+        <v>53.598826664000001</v>
       </c>
       <c r="I227" t="s">
         <v>935</v>
       </c>
       <c r="J227">
-        <v>4.7131626760999996</v>
+        <v>4.8530815742</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.3">
@@ -10236,7 +10225,7 @@
         <v>842</v>
       </c>
       <c r="E228">
-        <v>0.22349629122</v>
+        <v>0.17320448589000001</v>
       </c>
       <c r="F228">
         <v>0.60446241632999997</v>
@@ -10245,13 +10234,13 @@
         <v>4.9401000089</v>
       </c>
       <c r="H228">
-        <v>2761.4528851</v>
+        <v>3149.9544525000001</v>
       </c>
       <c r="I228" t="s">
         <v>937</v>
       </c>
       <c r="J228">
-        <v>2.9412293799000002</v>
+        <v>2.8658816873999999</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.3">
@@ -10268,7 +10257,7 @@
         <v>269</v>
       </c>
       <c r="E229">
-        <v>0.22349629122</v>
+        <v>0.17320448589000001</v>
       </c>
       <c r="F229">
         <v>0.60446241632999997</v>
@@ -10277,13 +10266,13 @@
         <v>4.9401000089</v>
       </c>
       <c r="H229">
-        <v>672639.79429999995</v>
+        <v>768995.72378</v>
       </c>
       <c r="I229" t="s">
         <v>937</v>
       </c>
       <c r="J229">
-        <v>3.3064095414999999</v>
+        <v>3.2353877161</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.3">
@@ -10300,7 +10289,7 @@
         <v>843</v>
       </c>
       <c r="E230">
-        <v>0.28970114625999999</v>
+        <v>0.25192761778</v>
       </c>
       <c r="F230">
         <v>0.41694531059000001</v>
@@ -10309,13 +10298,13 @@
         <v>3.4293656004000002</v>
       </c>
       <c r="H230">
-        <v>1833.4728132</v>
+        <v>1698.4424240999999</v>
       </c>
       <c r="I230" t="s">
         <v>937</v>
       </c>
       <c r="J230">
-        <v>1.9248412455999999</v>
+        <v>1.8652098582000001</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.3">
@@ -10332,7 +10321,7 @@
         <v>271</v>
       </c>
       <c r="E231">
-        <v>0.28970114625999999</v>
+        <v>0.25192761778</v>
       </c>
       <c r="F231">
         <v>0.41694531059000001</v>
@@ -10341,13 +10330,13 @@
         <v>3.4293656004000002</v>
       </c>
       <c r="H231">
-        <v>225764.30668000001</v>
+        <v>254331.63456000001</v>
       </c>
       <c r="I231" t="s">
         <v>937</v>
       </c>
       <c r="J231">
-        <v>1.9158466602999999</v>
+        <v>1.8546020296000001</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.3">
@@ -10373,13 +10362,13 @@
         <v>1.1163588178999999</v>
       </c>
       <c r="H232">
-        <v>781.79544457999998</v>
+        <v>293.85372963999998</v>
       </c>
       <c r="I232" t="s">
         <v>941</v>
       </c>
       <c r="J232">
-        <v>0.78972458580000005</v>
+        <v>0.83094657189999999</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.3">
@@ -10431,13 +10420,13 @@
         <v>-9.2536666724999996</v>
       </c>
       <c r="H234">
-        <v>23844.226781000001</v>
+        <v>16840.022131000002</v>
       </c>
       <c r="I234" t="s">
         <v>940</v>
       </c>
       <c r="J234">
-        <v>0.18528845634999999</v>
+        <v>0.19094091438999999</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.3">
@@ -10463,13 +10452,13 @@
         <v>1.8714763955</v>
       </c>
       <c r="H235">
-        <v>9173.5822205999993</v>
+        <v>5348.0115372999999</v>
       </c>
       <c r="I235" t="s">
         <v>939</v>
       </c>
       <c r="J235">
-        <v>0.69977873319999995</v>
+        <v>0.70718857182999995</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.3">
@@ -10495,13 +10484,13 @@
         <v>0.93893239471000001</v>
       </c>
       <c r="H236">
-        <v>136916.66771000001</v>
+        <v>199288.32295</v>
       </c>
       <c r="I236" t="s">
         <v>939</v>
       </c>
       <c r="J236">
-        <v>3.1013329975000001</v>
+        <v>3.1911884304</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.3">
@@ -10553,13 +10542,10 @@
         <v>8.8676173177000006</v>
       </c>
       <c r="H238">
-        <v>255.09213693000001</v>
+        <v>153.27325298</v>
       </c>
       <c r="I238" t="s">
         <v>941</v>
-      </c>
-      <c r="J238">
-        <v>4.4595153717000002</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.3">
@@ -10585,13 +10571,13 @@
         <v>8.8676173177000006</v>
       </c>
       <c r="H239">
-        <v>547.48154884999997</v>
+        <v>679.02334612000004</v>
       </c>
       <c r="I239" t="s">
         <v>941</v>
       </c>
       <c r="J239">
-        <v>4.5512601414000002</v>
+        <v>4.4711997453999999</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.3">
@@ -10608,7 +10594,7 @@
         <v>282</v>
       </c>
       <c r="E240">
-        <v>6.3638980809000004E-2</v>
+        <v>6.2507348672000002E-2</v>
       </c>
       <c r="F240">
         <v>0.12740182209000001</v>
@@ -10617,13 +10603,13 @@
         <v>0.81414295720999996</v>
       </c>
       <c r="H240">
-        <v>21779.835230000001</v>
+        <v>24837.481906000001</v>
       </c>
       <c r="I240" t="s">
         <v>942</v>
       </c>
       <c r="J240">
-        <v>1.0361762218999999</v>
+        <v>1.0607828577</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.3">
@@ -10649,13 +10635,13 @@
         <v>0.79853384290999996</v>
       </c>
       <c r="H241">
-        <v>105544.12798</v>
+        <v>90888.715188000002</v>
       </c>
       <c r="I241" t="s">
         <v>941</v>
       </c>
       <c r="J241">
-        <v>1.246649517</v>
+        <v>1.3931614864999999</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.3">
@@ -10681,13 +10667,13 @@
         <v>3.1925570451</v>
       </c>
       <c r="H242">
-        <v>422721.16076</v>
+        <v>640687.54264</v>
       </c>
       <c r="I242" t="s">
         <v>941</v>
       </c>
       <c r="J242">
-        <v>2.7955170987</v>
+        <v>2.3956012870999999</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.3">
@@ -10713,13 +10699,13 @@
         <v>2.1394846838000001</v>
       </c>
       <c r="H243">
-        <v>65737.898363999993</v>
+        <v>112118.26052</v>
       </c>
       <c r="I243" t="s">
         <v>941</v>
       </c>
       <c r="J243">
-        <v>2.1587004623000001</v>
+        <v>3.0568226017</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.3">
@@ -10745,13 +10731,10 @@
         <v>1.4817598293000001</v>
       </c>
       <c r="H244">
-        <v>223537.60467</v>
+        <v>0</v>
       </c>
       <c r="I244" t="s">
         <v>941</v>
-      </c>
-      <c r="J244">
-        <v>1.1045350699000001</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.3">
@@ -10777,13 +10760,13 @@
         <v>2.0484094353</v>
       </c>
       <c r="H245">
-        <v>36186.180172</v>
+        <v>47966.140439000003</v>
       </c>
       <c r="I245" t="s">
         <v>942</v>
       </c>
       <c r="J245">
-        <v>1.2520462681</v>
+        <v>1.5310632580000001</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.3">
@@ -10835,13 +10818,13 @@
         <v>14.873998789</v>
       </c>
       <c r="H247">
-        <v>6.1276737541999999</v>
+        <v>9.4931037240999991</v>
       </c>
       <c r="I247" t="s">
         <v>939</v>
       </c>
       <c r="J247">
-        <v>6.4347262947999999</v>
+        <v>6.8774088611000002</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.3">
@@ -10893,13 +10876,13 @@
         <v>-0.88730007914999998</v>
       </c>
       <c r="H249">
-        <v>129.22693661</v>
+        <v>109.9450949</v>
       </c>
       <c r="I249" t="s">
         <v>937</v>
       </c>
       <c r="J249">
-        <v>0.45872384824000001</v>
+        <v>0.41900922881000002</v>
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.3">
@@ -10925,13 +10908,13 @@
         <v>-0.88730007914999998</v>
       </c>
       <c r="H250">
-        <v>42.633514771000002</v>
+        <v>89.375513209999994</v>
       </c>
       <c r="I250" t="s">
         <v>937</v>
       </c>
       <c r="J250">
-        <v>0.20507654391999999</v>
+        <v>0.21038860011999999</v>
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.3">
@@ -10957,13 +10940,13 @@
         <v>1.3133192775</v>
       </c>
       <c r="H251">
-        <v>750388.74202000001</v>
+        <v>1121638.2608</v>
       </c>
       <c r="I251" t="s">
         <v>939</v>
       </c>
       <c r="J251">
-        <v>0.68898523088999997</v>
+        <v>0.74961988613999997</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.3">
@@ -10989,13 +10972,13 @@
         <v>3.9604113982000002</v>
       </c>
       <c r="H252">
-        <v>9081.1765393000005</v>
+        <v>6170.4042185999997</v>
       </c>
       <c r="I252" t="s">
         <v>943</v>
       </c>
       <c r="J252">
-        <v>0.91564877943</v>
+        <v>0.94940065769000004</v>
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.3">
@@ -11021,13 +11004,13 @@
         <v>2.1325399882</v>
       </c>
       <c r="H253">
-        <v>3425.0202215999998</v>
+        <v>4102.5498930000003</v>
       </c>
       <c r="I253" t="s">
         <v>943</v>
       </c>
       <c r="J253">
-        <v>0.37057691269999998</v>
+        <v>0.36597008592000002</v>
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.3">
@@ -11082,10 +11065,13 @@
         <v>-137.99887502000001</v>
       </c>
       <c r="H255">
-        <v>2.2396864048</v>
+        <v>1.1576580058999999</v>
       </c>
       <c r="I255" t="s">
         <v>937</v>
+      </c>
+      <c r="J255">
+        <v>1.0413351719999999</v>
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.3">
@@ -11111,13 +11097,13 @@
         <v>0.35316661714000003</v>
       </c>
       <c r="H256">
-        <v>49559.219147000003</v>
+        <v>36085.618238000003</v>
       </c>
       <c r="I256" t="s">
         <v>940</v>
       </c>
       <c r="J256">
-        <v>0.66739822627000001</v>
+        <v>0.61702202892000002</v>
       </c>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.3">
@@ -11134,7 +11120,7 @@
         <v>307</v>
       </c>
       <c r="F257">
-        <v>7.8464096958999995E-3</v>
+        <v>9.4084456391999999E-3</v>
       </c>
       <c r="G257">
         <v>0.24918805614</v>
@@ -11195,13 +11181,13 @@
         <v>-1.4042459772</v>
       </c>
       <c r="H259">
-        <v>13.463142392</v>
+        <v>36.624602887999998</v>
       </c>
       <c r="I259" t="s">
         <v>939</v>
       </c>
       <c r="J259">
-        <v>0.45152818003</v>
+        <v>0.41900922881000002</v>
       </c>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.3">
@@ -11218,7 +11204,7 @@
         <v>311</v>
       </c>
       <c r="E260">
-        <v>0.30377339253000002</v>
+        <v>0.25678912598999998</v>
       </c>
       <c r="F260">
         <v>0.53833703457000004</v>
@@ -11227,13 +11213,13 @@
         <v>3.7027578558999998</v>
       </c>
       <c r="H260">
-        <v>332350.48683000001</v>
+        <v>401548.59334999998</v>
       </c>
       <c r="I260" t="s">
         <v>939</v>
       </c>
       <c r="J260">
-        <v>5.1448826656</v>
+        <v>5.0457904600000001</v>
       </c>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.3">
@@ -11285,13 +11271,13 @@
         <v>0.69282779207</v>
       </c>
       <c r="H262">
-        <v>404.06643097</v>
+        <v>463.57995663000003</v>
       </c>
       <c r="I262" t="s">
         <v>939</v>
       </c>
       <c r="J262">
-        <v>0.47131626761000001</v>
+        <v>0.49149605742000002</v>
       </c>
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.3">
@@ -11317,13 +11303,10 @@
         <v>0.69282779207</v>
       </c>
       <c r="H263">
-        <v>17.113631774000002</v>
+        <v>4.1694993355000003</v>
       </c>
       <c r="I263" t="s">
         <v>939</v>
-      </c>
-      <c r="J263">
-        <v>1.6190253467</v>
       </c>
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.3">
@@ -11349,13 +11332,13 @@
         <v>0.69282779207</v>
       </c>
       <c r="H264">
-        <v>324609.49465000001</v>
+        <v>243278.40565</v>
       </c>
       <c r="I264" t="s">
         <v>939</v>
       </c>
       <c r="J264">
-        <v>3.7021712929000001</v>
+        <v>3.9054488879</v>
       </c>
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.3">
@@ -11381,13 +11364,13 @@
         <v>0.70552100502000004</v>
       </c>
       <c r="H265">
-        <v>3341.9911396000002</v>
+        <v>4858.6031574999997</v>
       </c>
       <c r="I265" t="s">
         <v>941</v>
       </c>
       <c r="J265">
-        <v>0.22486463148999999</v>
+        <v>0.28110745729999997</v>
       </c>
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.3">
@@ -11491,13 +11474,13 @@
         <v>-5.3422854744999997</v>
       </c>
       <c r="H269">
-        <v>520.10081695999997</v>
+        <v>602.52001805999998</v>
       </c>
       <c r="I269" t="s">
         <v>939</v>
       </c>
       <c r="J269">
-        <v>0.36158232744000002</v>
+        <v>0.36066617162999998</v>
       </c>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.3">
@@ -11523,13 +11506,13 @@
         <v>-5.3422854744999997</v>
       </c>
       <c r="H270">
-        <v>486.40706487</v>
+        <v>461.01205263000003</v>
       </c>
       <c r="I270" t="s">
         <v>939</v>
       </c>
       <c r="J270">
-        <v>0.33999532282</v>
+        <v>0.37480994306999998</v>
       </c>
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.3">
@@ -11555,13 +11538,13 @@
         <v>0.48215877504999999</v>
       </c>
       <c r="H271">
-        <v>12832.20268</v>
+        <v>20142.074874000002</v>
       </c>
       <c r="I271" t="s">
         <v>941</v>
       </c>
       <c r="J271">
-        <v>6.1163179765999998E-2</v>
+        <v>2.4751600014000001E-2</v>
       </c>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.3">
@@ -11578,7 +11561,7 @@
         <v>325</v>
       </c>
       <c r="E272">
-        <v>0.12861653747999999</v>
+        <v>0.12674205168</v>
       </c>
       <c r="F272">
         <v>0.34603758698999998</v>
@@ -11587,13 +11570,13 @@
         <v>1.6229201808</v>
       </c>
       <c r="H272">
-        <v>84502.172386000006</v>
+        <v>79903.291436</v>
       </c>
       <c r="I272" t="s">
         <v>951</v>
       </c>
       <c r="J272">
-        <v>4.1536994728999996</v>
+        <v>3.8966090308000001</v>
       </c>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.3">
@@ -11720,7 +11703,7 @@
         <v>331</v>
       </c>
       <c r="E277">
-        <v>1.7581975611E-2</v>
+        <v>4.0507440338000002E-2</v>
       </c>
       <c r="F277">
         <v>0.12950840186000001</v>
@@ -11729,13 +11712,13 @@
         <v>5.0612051323999996</v>
       </c>
       <c r="H277">
-        <v>49968.226906999997</v>
+        <v>51552.268634</v>
       </c>
       <c r="I277" t="s">
         <v>948</v>
       </c>
       <c r="J277">
-        <v>2.0924166621000002</v>
+        <v>2.0455429440000001</v>
       </c>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.3">
@@ -11752,7 +11735,7 @@
         <v>333</v>
       </c>
       <c r="E278">
-        <v>0.14711458205</v>
+        <v>0.10798899184999999</v>
       </c>
       <c r="F278">
         <v>0.28406122306999998</v>
@@ -11761,13 +11744,13 @@
         <v>1.1019032013000001</v>
       </c>
       <c r="H278">
-        <v>17788.174040000002</v>
+        <v>39391.161386</v>
       </c>
       <c r="I278" t="s">
         <v>952</v>
       </c>
       <c r="J278">
-        <v>1.523682743</v>
+        <v>1.4126091722</v>
       </c>
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.3">
@@ -11793,13 +11776,13 @@
         <v>10.899497658</v>
       </c>
       <c r="H279">
-        <v>102802.67366</v>
+        <v>404862.77549999999</v>
       </c>
       <c r="I279" t="s">
         <v>936</v>
       </c>
       <c r="J279">
-        <v>5.6845778841000003</v>
+        <v>8.5534457763000002</v>
       </c>
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.3">
@@ -11816,7 +11799,7 @@
         <v>857</v>
       </c>
       <c r="E280">
-        <v>0.16941635865999999</v>
+        <v>0.15459131101000001</v>
       </c>
       <c r="F280">
         <v>0.27657938030000001</v>
@@ -11825,13 +11808,13 @@
         <v>1.5589989956000001</v>
       </c>
       <c r="H280">
-        <v>4246.5808221999996</v>
+        <v>8417.5375653999999</v>
       </c>
       <c r="I280" t="s">
         <v>939</v>
       </c>
       <c r="J280">
-        <v>1.7701343790999999</v>
+        <v>1.9264648526999999</v>
       </c>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.3">
@@ -11848,7 +11831,7 @@
         <v>335</v>
       </c>
       <c r="E281">
-        <v>0.16941635865999999</v>
+        <v>0.15459131101000001</v>
       </c>
       <c r="F281">
         <v>0.27657938030000001</v>
@@ -11857,13 +11840,13 @@
         <v>1.5589989956000001</v>
       </c>
       <c r="H281">
-        <v>829461.78725000005</v>
+        <v>1026353.4878999999</v>
       </c>
       <c r="I281" t="s">
         <v>939</v>
       </c>
       <c r="J281">
-        <v>1.7665365449999999</v>
+        <v>1.9335367384</v>
       </c>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.3">
@@ -11880,7 +11863,7 @@
         <v>858</v>
       </c>
       <c r="E282">
-        <v>0.47155336682999999</v>
+        <v>0.47046078912</v>
       </c>
       <c r="F282">
         <v>0.71006140302999998</v>
@@ -11889,13 +11872,13 @@
         <v>3.593417139</v>
       </c>
       <c r="H282">
-        <v>49335.574521000002</v>
+        <v>59966.148437999997</v>
       </c>
       <c r="I282" t="s">
         <v>936</v>
       </c>
       <c r="J282">
-        <v>5.0499829102999998</v>
+        <v>5.6207966478999998</v>
       </c>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.3">
@@ -11912,7 +11895,7 @@
         <v>718</v>
       </c>
       <c r="E283">
-        <v>0.47155336682999999</v>
+        <v>0.47046078912</v>
       </c>
       <c r="F283">
         <v>0.71006140302999998</v>
@@ -11921,13 +11904,13 @@
         <v>3.593417139</v>
       </c>
       <c r="H283">
-        <v>2758815.4194</v>
+        <v>3876017.1266000001</v>
       </c>
       <c r="I283" t="s">
         <v>936</v>
       </c>
       <c r="J283">
-        <v>5.8271150767000002</v>
+        <v>6.485334677</v>
       </c>
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.3">
@@ -11944,7 +11927,7 @@
         <v>337</v>
       </c>
       <c r="E284">
-        <v>9.3347470180000003E-2</v>
+        <v>1.2002155969E-2</v>
       </c>
       <c r="F284">
         <v>5.7206661366999999E-2</v>
@@ -11953,13 +11936,13 @@
         <v>1.3771196154000001</v>
       </c>
       <c r="H284">
-        <v>15631.764214999999</v>
+        <v>16409.472457</v>
       </c>
       <c r="I284" t="s">
         <v>939</v>
       </c>
       <c r="J284">
-        <v>1.2096354201999999</v>
+        <v>1.1880768007</v>
       </c>
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.3">
@@ -11976,7 +11959,7 @@
         <v>339</v>
       </c>
       <c r="E285">
-        <v>0</v>
+        <v>0.36875195899000002</v>
       </c>
       <c r="F285">
         <v>0.18386661857</v>
@@ -11985,13 +11968,13 @@
         <v>3.9888715639000001</v>
       </c>
       <c r="H285">
-        <v>808988.22644</v>
+        <v>1221026.6680000001</v>
       </c>
       <c r="I285" t="s">
         <v>944</v>
       </c>
       <c r="J285">
-        <v>5.8051053265999997</v>
+        <v>6.1879000035000002</v>
       </c>
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.3">
@@ -12008,7 +11991,7 @@
         <v>341</v>
       </c>
       <c r="E286">
-        <v>6.4337751668000001E-2</v>
+        <v>6.2399459228999997E-2</v>
       </c>
       <c r="F286">
         <v>0.14788661832</v>
@@ -12017,13 +12000,13 @@
         <v>1.4682956777</v>
       </c>
       <c r="H286">
-        <v>82011.285321999996</v>
+        <v>61294.739834</v>
       </c>
       <c r="I286" t="s">
         <v>943</v>
       </c>
       <c r="J286">
-        <v>0.70500474593999995</v>
+        <v>0.77260351473</v>
       </c>
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.3">
@@ -12049,13 +12032,13 @@
         <v>-7.1641775643000001</v>
       </c>
       <c r="H287">
-        <v>661.22561035000001</v>
+        <v>3628.5303718</v>
       </c>
       <c r="I287" t="s">
         <v>943</v>
       </c>
       <c r="J287">
-        <v>9.3543686700999995E-2</v>
+        <v>3.7127400020999998E-2</v>
       </c>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.3">
@@ -12081,10 +12064,13 @@
         <v>11.081092202000001</v>
       </c>
       <c r="H288">
-        <v>5.1580492916000003</v>
+        <v>4.5271432723</v>
       </c>
       <c r="I288" t="s">
         <v>944</v>
+      </c>
+      <c r="J288">
+        <v>4.0309748593999997</v>
       </c>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.3">
@@ -12139,13 +12125,13 @@
         <v>1.1946764997999999</v>
       </c>
       <c r="H290">
-        <v>14719.512444</v>
+        <v>24424.278599000001</v>
       </c>
       <c r="I290" t="s">
         <v>940</v>
       </c>
       <c r="J290">
-        <v>1.6909820287999999</v>
+        <v>1.7520596867</v>
       </c>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.3">
@@ -12197,7 +12183,7 @@
         <v>-3.2765594841999999</v>
       </c>
       <c r="H292">
-        <v>1.0328906864</v>
+        <v>0.36595853690000002</v>
       </c>
       <c r="I292" t="s">
         <v>942</v>
@@ -12226,13 +12212,13 @@
         <v>-3.2765594841999999</v>
       </c>
       <c r="H293">
-        <v>3.6677448578999998</v>
+        <v>127.88603261999999</v>
       </c>
       <c r="I293" t="s">
         <v>942</v>
       </c>
       <c r="J293">
-        <v>2.9682131357000001</v>
+        <v>3.4475442877</v>
       </c>
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.3">
@@ -12249,7 +12235,7 @@
         <v>353</v>
       </c>
       <c r="E294">
-        <v>0.17024019601000001</v>
+        <v>0.15316252480000001</v>
       </c>
       <c r="F294">
         <v>0.27796811001999999</v>
@@ -12258,13 +12244,13 @@
         <v>0.88295549967999998</v>
       </c>
       <c r="H294">
-        <v>34817.717798999998</v>
+        <v>48688.086523999998</v>
       </c>
       <c r="I294" t="s">
         <v>937</v>
       </c>
       <c r="J294">
-        <v>1.6928243214000001</v>
+        <v>1.9748240868</v>
       </c>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.3">
@@ -12281,7 +12267,7 @@
         <v>861</v>
       </c>
       <c r="E295">
-        <v>4.2599986664E-2</v>
+        <v>4.5180419584000001E-2</v>
       </c>
       <c r="F295">
         <v>6.4536881963999995E-2</v>
@@ -12290,13 +12276,13 @@
         <v>0.37306734906</v>
       </c>
       <c r="H295">
-        <v>5758.8022793</v>
+        <v>5348.4839635999997</v>
       </c>
       <c r="I295" t="s">
         <v>952</v>
       </c>
       <c r="J295">
-        <v>0.77533324938000003</v>
+        <v>0.76376365757999998</v>
       </c>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.3">
@@ -12313,7 +12299,7 @@
         <v>862</v>
       </c>
       <c r="E296">
-        <v>4.2599986664E-2</v>
+        <v>4.5180419584000001E-2</v>
       </c>
       <c r="F296">
         <v>6.4536881963999995E-2</v>
@@ -12322,13 +12308,13 @@
         <v>0.37306734906</v>
       </c>
       <c r="H296">
-        <v>27120.345006</v>
+        <v>23406.067535999999</v>
       </c>
       <c r="I296" t="s">
         <v>952</v>
       </c>
       <c r="J296">
-        <v>0.76633866411999996</v>
+        <v>0.77083554330000004</v>
       </c>
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.3">
@@ -12345,7 +12331,7 @@
         <v>355</v>
       </c>
       <c r="E297">
-        <v>4.2599986664E-2</v>
+        <v>4.5180419584000001E-2</v>
       </c>
       <c r="F297">
         <v>6.4536881963999995E-2</v>
@@ -12354,13 +12340,13 @@
         <v>0.37306734906</v>
       </c>
       <c r="H297">
-        <v>355389.70455999998</v>
+        <v>330054.81143</v>
       </c>
       <c r="I297" t="s">
         <v>952</v>
       </c>
       <c r="J297">
-        <v>3.8568781592999999</v>
+        <v>3.8170503165</v>
       </c>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.3">
@@ -12386,13 +12372,13 @@
         <v>0.24996270513999999</v>
       </c>
       <c r="H298">
-        <v>2345.6955481</v>
+        <v>1276.2165193000001</v>
       </c>
       <c r="I298" t="s">
         <v>939</v>
       </c>
       <c r="J298">
-        <v>0.11153285722</v>
+        <v>0.1078462572</v>
       </c>
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.3">
@@ -12409,7 +12395,7 @@
         <v>359</v>
       </c>
       <c r="E299">
-        <v>0.12905431766</v>
+        <v>0.12688673803</v>
       </c>
       <c r="F299">
         <v>0.2825028436</v>
@@ -12418,13 +12404,13 @@
         <v>1.3529584351999999</v>
       </c>
       <c r="H299">
-        <v>22408.448383999999</v>
+        <v>20005.453582999999</v>
       </c>
       <c r="I299" t="s">
         <v>943</v>
       </c>
       <c r="J299">
-        <v>1.5452697475999999</v>
+        <v>1.4674162866</v>
       </c>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.3">
@@ -12502,13 +12488,13 @@
         <v>1.4715308491000001</v>
       </c>
       <c r="H302">
-        <v>29102.691734</v>
+        <v>35578.411199000002</v>
       </c>
       <c r="I302" t="s">
         <v>935</v>
       </c>
       <c r="J302">
-        <v>0.89586069185999995</v>
+        <v>1.1315017149</v>
       </c>
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.3">
@@ -12571,7 +12557,7 @@
         <v>371</v>
       </c>
       <c r="E305">
-        <v>0.38059404009999998</v>
+        <v>0.30813935217999999</v>
       </c>
       <c r="F305">
         <v>0.38835600547999999</v>
@@ -12580,13 +12566,13 @@
         <v>4.9031369254000001</v>
       </c>
       <c r="H305">
-        <v>1406226.9106000001</v>
+        <v>2657066.0767999999</v>
       </c>
       <c r="I305" t="s">
         <v>939</v>
       </c>
       <c r="J305">
-        <v>7.5554516181000002</v>
+        <v>7.3140978042000002</v>
       </c>
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.3">
@@ -12612,13 +12598,13 @@
         <v>7.4889146167999998</v>
       </c>
       <c r="H306">
-        <v>21285.493713</v>
+        <v>38824.742549000002</v>
       </c>
       <c r="I306" t="s">
         <v>943</v>
       </c>
       <c r="J306">
-        <v>4.2004713162999998</v>
+        <v>4.1370531452000003</v>
       </c>
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.3">
@@ -12644,13 +12630,13 @@
         <v>1.7995868590999999</v>
       </c>
       <c r="H307">
-        <v>4038.6934520999998</v>
+        <v>1829.3835756000001</v>
       </c>
       <c r="I307" t="s">
         <v>940</v>
       </c>
       <c r="J307">
-        <v>6.4311284607000001</v>
+        <v>6.1896679749999999</v>
       </c>
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.3">
@@ -12676,13 +12662,13 @@
         <v>-0.42098595445999998</v>
       </c>
       <c r="H308">
-        <v>2843.8447213999998</v>
+        <v>2372.8787548999999</v>
       </c>
       <c r="I308" t="s">
         <v>941</v>
       </c>
       <c r="J308">
-        <v>0.24825055317</v>
+        <v>0.20685265725999999</v>
       </c>
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.3">
@@ -12708,13 +12694,13 @@
         <v>2.1142757614000001</v>
       </c>
       <c r="H309">
-        <v>684052.40416999999</v>
+        <v>1936292.7734000001</v>
       </c>
       <c r="I309" t="s">
         <v>941</v>
       </c>
       <c r="J309">
-        <v>2.2450484808</v>
+        <v>3.0073194016999998</v>
       </c>
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.3">
@@ -12740,13 +12726,13 @@
         <v>0.31228354491999999</v>
       </c>
       <c r="H310">
-        <v>787.69942741</v>
+        <v>795.88153123999996</v>
       </c>
       <c r="I310" t="s">
         <v>939</v>
       </c>
       <c r="J310">
-        <v>0.33279965461</v>
+        <v>0.29171528588000001</v>
       </c>
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.3">
@@ -12772,13 +12758,13 @@
         <v>0.75146306521999995</v>
       </c>
       <c r="H311">
-        <v>645.71379363000005</v>
+        <v>896.56902415000002</v>
       </c>
       <c r="I311" t="s">
         <v>937</v>
       </c>
       <c r="J311">
-        <v>0.2806310601</v>
+        <v>0.26873165729999998</v>
       </c>
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.3">
@@ -12804,13 +12790,13 @@
         <v>0.98556464394999999</v>
       </c>
       <c r="H312">
-        <v>144346.87005</v>
+        <v>125595.51469</v>
       </c>
       <c r="I312" t="s">
         <v>947</v>
       </c>
       <c r="J312">
-        <v>0.72856140602999997</v>
+        <v>0.80442700046000004</v>
       </c>
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.3">
@@ -12836,13 +12822,13 @@
         <v>4.6133886154999999</v>
       </c>
       <c r="H313">
-        <v>83256.090932999999</v>
+        <v>91789.933810999995</v>
       </c>
       <c r="I313" t="s">
         <v>944</v>
       </c>
       <c r="J313">
-        <v>5.2762237133000003</v>
+        <v>4.8018104027000001</v>
       </c>
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.3">
@@ -12894,13 +12880,13 @@
         <v>2.9742220429000001</v>
       </c>
       <c r="H315">
-        <v>1062704.8030999999</v>
+        <v>1159100.987</v>
       </c>
       <c r="I315" t="s">
         <v>941</v>
       </c>
       <c r="J315">
-        <v>2.1676950476000001</v>
+        <v>2.1498532583999999</v>
       </c>
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.3">
@@ -12955,13 +12941,13 @@
         <v>1.1687513693</v>
       </c>
       <c r="H317">
-        <v>70.217222192999998</v>
+        <v>220.38241758000001</v>
       </c>
       <c r="I317" t="s">
         <v>937</v>
       </c>
       <c r="J317">
-        <v>2.3098094947000001</v>
+        <v>1.9447685724999999</v>
       </c>
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.3">
@@ -12978,7 +12964,7 @@
         <v>864</v>
       </c>
       <c r="E318">
-        <v>9.8190422767999996E-2</v>
+        <v>0.10796719202000001</v>
       </c>
       <c r="F318">
         <v>0.15696395142</v>
@@ -12987,13 +12973,13 @@
         <v>0.63182055245000002</v>
       </c>
       <c r="H318">
-        <v>4992.5696434000001</v>
+        <v>5072.5393390999998</v>
       </c>
       <c r="I318" t="s">
         <v>948</v>
       </c>
       <c r="J318">
-        <v>0.88866502366</v>
+        <v>1.0201195149</v>
       </c>
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.3">
@@ -13010,7 +12996,7 @@
         <v>394</v>
       </c>
       <c r="E319">
-        <v>9.8190422767999996E-2</v>
+        <v>0.10796719202000001</v>
       </c>
       <c r="F319">
         <v>0.15696395142</v>
@@ -13019,13 +13005,13 @@
         <v>0.63182055245000002</v>
       </c>
       <c r="H319">
-        <v>146336.71</v>
+        <v>290346.73517</v>
       </c>
       <c r="I319" t="s">
         <v>948</v>
       </c>
       <c r="J319">
-        <v>1.142312328</v>
+        <v>1.2994590007</v>
       </c>
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.3">
@@ -13051,13 +13037,13 @@
         <v>1.5903454021000001</v>
       </c>
       <c r="H320">
-        <v>236578.27239</v>
+        <v>304731.67998000002</v>
       </c>
       <c r="I320" t="s">
         <v>944</v>
       </c>
       <c r="J320">
-        <v>2.2234614761999998</v>
+        <v>2.5741664014999999</v>
       </c>
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.3">
@@ -13083,13 +13069,13 @@
         <v>0.88104544061000001</v>
       </c>
       <c r="H321">
-        <v>10740.220889</v>
+        <v>11635.317096999999</v>
       </c>
       <c r="I321" t="s">
         <v>939</v>
       </c>
       <c r="J321">
-        <v>0.81850725862999996</v>
+        <v>0.82387468619000004</v>
       </c>
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.3">
@@ -13115,7 +13101,7 @@
         <v>26.024279859</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>65.373770555999997</v>
       </c>
       <c r="I322" t="s">
         <v>952</v>
@@ -13144,7 +13130,7 @@
         <v>26.024279859</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>9.1838257165999995</v>
       </c>
       <c r="I323" t="s">
         <v>952</v>
@@ -13173,13 +13159,13 @@
         <v>1.8374194186999999</v>
       </c>
       <c r="H324">
-        <v>35405.684818000002</v>
+        <v>36469.742919999997</v>
       </c>
       <c r="I324" t="s">
         <v>947</v>
       </c>
       <c r="J324">
-        <v>1.0523664753999999</v>
+        <v>1.2199002863999999</v>
       </c>
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.3">
@@ -13205,13 +13191,13 @@
         <v>1.2210007074</v>
       </c>
       <c r="H325">
-        <v>6420.3482586</v>
+        <v>11524.026456</v>
       </c>
       <c r="I325" t="s">
         <v>943</v>
       </c>
       <c r="J325">
-        <v>0.62062638292000005</v>
+        <v>0.59934231462999998</v>
       </c>
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.3">
@@ -13292,7 +13278,7 @@
         <v>2.7362827954000002</v>
       </c>
       <c r="H328">
-        <v>1.7112622246</v>
+        <v>1.7255617250999999</v>
       </c>
       <c r="I328" t="s">
         <v>936</v>
@@ -13321,7 +13307,7 @@
         <v>5.6606751701000002</v>
       </c>
       <c r="H329">
-        <v>0.36839196905999999</v>
+        <v>3.4198979810000001</v>
       </c>
       <c r="I329" t="s">
         <v>936</v>
@@ -13350,13 +13336,10 @@
         <v>5.6606751701000002</v>
       </c>
       <c r="H330">
-        <v>8.3125859079000008</v>
+        <v>6.0719811743000003</v>
       </c>
       <c r="I330" t="s">
         <v>936</v>
-      </c>
-      <c r="J330">
-        <v>2.7901203474999998</v>
       </c>
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.3">
@@ -13373,7 +13356,7 @@
         <v>869</v>
       </c>
       <c r="E331">
-        <v>0.24706536383</v>
+        <v>0.32191154637000002</v>
       </c>
       <c r="F331">
         <v>0.99209804090999998</v>
@@ -13382,13 +13365,13 @@
         <v>3.2039395449999999</v>
       </c>
       <c r="H331">
-        <v>51.202073722000002</v>
+        <v>329.18680664999999</v>
       </c>
       <c r="I331" t="s">
         <v>936</v>
       </c>
       <c r="J331">
-        <v>4.5332709709000003</v>
+        <v>6.3646971465000002</v>
       </c>
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.3">
@@ -13405,7 +13388,7 @@
         <v>719</v>
       </c>
       <c r="E332">
-        <v>0.27177152991999998</v>
+        <v>0.35410247927999999</v>
       </c>
       <c r="F332">
         <v>0.99209804090999998</v>
@@ -13414,13 +13397,13 @@
         <v>3.2039395449999999</v>
       </c>
       <c r="H332">
-        <v>1325.2823989999999</v>
+        <v>2319.7188015000002</v>
       </c>
       <c r="I332" t="s">
         <v>936</v>
       </c>
       <c r="J332">
-        <v>4.9740056486000004</v>
+        <v>6.8950885754</v>
       </c>
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.3">
@@ -13446,13 +13429,13 @@
         <v>1.6355741145</v>
       </c>
       <c r="H333">
-        <v>38303.032319999998</v>
+        <v>59128.487138999997</v>
       </c>
       <c r="I333" t="s">
         <v>948</v>
       </c>
       <c r="J333">
-        <v>5.8176977460000003</v>
+        <v>5.6681164032</v>
       </c>
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.3">
@@ -13478,13 +13461,13 @@
         <v>10.80997108</v>
       </c>
       <c r="H334">
-        <v>4445.5634786999999</v>
+        <v>2328.7521329000001</v>
       </c>
       <c r="I334" t="s">
         <v>938</v>
       </c>
       <c r="J334">
-        <v>62.962096817999999</v>
+        <v>33.591457161999998</v>
       </c>
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.3">
@@ -13510,7 +13493,7 @@
         <v>10.21885076</v>
       </c>
       <c r="H335">
-        <v>2.8881930374000002</v>
+        <v>0</v>
       </c>
       <c r="I335" t="s">
         <v>937</v>
@@ -13539,13 +13522,13 @@
         <v>10.21885076</v>
       </c>
       <c r="H336">
-        <v>2591.561557</v>
+        <v>747.28507277000006</v>
       </c>
       <c r="I336" t="s">
         <v>937</v>
       </c>
       <c r="J336">
-        <v>8.0051808810999994</v>
+        <v>7.9346557759999996</v>
       </c>
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.3">
@@ -13562,7 +13545,7 @@
         <v>412</v>
       </c>
       <c r="E337">
-        <v>6.3095196714000004E-2</v>
+        <v>0.10244943256</v>
       </c>
       <c r="F337">
         <v>0.23149503423000001</v>
@@ -13571,13 +13554,13 @@
         <v>1.2527566499</v>
       </c>
       <c r="H337">
-        <v>42736.331584</v>
+        <v>34985.207354999999</v>
       </c>
       <c r="I337" t="s">
         <v>939</v>
       </c>
       <c r="J337">
-        <v>1.8870639874999999</v>
+        <v>1.946536544</v>
       </c>
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.3">
@@ -13649,7 +13632,7 @@
         <v>416</v>
       </c>
       <c r="E340">
-        <v>3.9262307896E-2</v>
+        <v>0</v>
       </c>
       <c r="F340">
         <v>3.4251867668000001E-2</v>
@@ -13658,13 +13641,13 @@
         <v>7.4118966064999998E-3</v>
       </c>
       <c r="H340">
-        <v>177011.15139000001</v>
+        <v>268359.31838999997</v>
       </c>
       <c r="I340" t="s">
         <v>944</v>
       </c>
       <c r="J340">
-        <v>1.2016765907</v>
+        <v>1.3242106008000001</v>
       </c>
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.3">
@@ -13690,13 +13673,13 @@
         <v>-8.8803547034000001</v>
       </c>
       <c r="H341">
-        <v>121.46006084</v>
+        <v>149.56173082000001</v>
       </c>
       <c r="I341" t="s">
         <v>944</v>
       </c>
       <c r="J341">
-        <v>2.1227221212999998</v>
+        <v>2.8305222587999999</v>
       </c>
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.3">
@@ -13713,7 +13696,7 @@
         <v>420</v>
       </c>
       <c r="E342">
-        <v>0.11765467726999999</v>
+        <v>2.5881859002000001E-2</v>
       </c>
       <c r="F342">
         <v>0.13640832204</v>
@@ -13722,13 +13705,13 @@
         <v>1.8483395757000001</v>
       </c>
       <c r="H342">
-        <v>11353.377492</v>
+        <v>11610.940301000001</v>
       </c>
       <c r="I342" t="s">
         <v>943</v>
       </c>
       <c r="J342">
-        <v>0.62352030742999998</v>
+        <v>0.65768537180999997</v>
       </c>
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.3">
@@ -13754,13 +13737,13 @@
         <v>0.84586254958999996</v>
       </c>
       <c r="H343">
-        <v>2340.737654</v>
+        <v>9554.2619042999995</v>
       </c>
       <c r="I343" t="s">
         <v>941</v>
       </c>
       <c r="J343">
-        <v>0.39036500026999998</v>
+        <v>0.51978360030000004</v>
       </c>
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.3">
@@ -13777,7 +13760,7 @@
         <v>424</v>
       </c>
       <c r="E344">
-        <v>6.0295929392999996</v>
+        <v>4.7076009024000003</v>
       </c>
       <c r="F344">
         <v>15.101238198000001</v>
@@ -13786,7 +13769,7 @@
         <v>25.843222024999999</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>7.0830662964000002</v>
       </c>
       <c r="I344" t="s">
         <v>939</v>
@@ -13815,13 +13798,13 @@
         <v>3.3081828294000002</v>
       </c>
       <c r="H345">
-        <v>16841.715732000001</v>
+        <v>27237.813630000001</v>
       </c>
       <c r="I345" t="s">
         <v>943</v>
       </c>
       <c r="J345">
-        <v>1.9932000935</v>
+        <v>2.5193592871999999</v>
       </c>
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.3">
@@ -13847,13 +13830,13 @@
         <v>1.4063029883</v>
       </c>
       <c r="H346">
-        <v>94435.590347000005</v>
+        <v>136277.74794999999</v>
       </c>
       <c r="I346" t="s">
         <v>939</v>
       </c>
       <c r="J346">
-        <v>1.0865458993999999</v>
+        <v>1.2623316007000001</v>
       </c>
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.3">
@@ -13879,10 +13862,13 @@
         <v>3.9687719245999999</v>
       </c>
       <c r="H347">
-        <v>13.636929345</v>
+        <v>9.8252179387999998</v>
       </c>
       <c r="I347" t="s">
         <v>940</v>
+      </c>
+      <c r="J347">
+        <v>5.2685548602000001</v>
       </c>
     </row>
     <row r="348" spans="1:10" x14ac:dyDescent="0.3">
@@ -13908,7 +13894,7 @@
         <v>3.9687719245999999</v>
       </c>
       <c r="H348">
-        <v>2.5812861617</v>
+        <v>3.1961229074999999</v>
       </c>
       <c r="I348" t="s">
         <v>940</v>
@@ -13937,7 +13923,7 @@
         <v>3.9687719245999999</v>
       </c>
       <c r="H349">
-        <v>3.7224140023999999</v>
+        <v>7.9893845744999998</v>
       </c>
       <c r="I349" t="s">
         <v>940</v>
@@ -13966,13 +13952,13 @@
         <v>2.3531520496999998</v>
       </c>
       <c r="H350">
-        <v>247941.61454000001</v>
+        <v>367555.74202000001</v>
       </c>
       <c r="I350" t="s">
         <v>943</v>
       </c>
       <c r="J350">
-        <v>1.2016765907</v>
+        <v>1.3206746578999999</v>
       </c>
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.3">
@@ -13998,13 +13984,13 @@
         <v>0.77547973709999996</v>
       </c>
       <c r="H351">
-        <v>18596.374402000001</v>
+        <v>36305.821528</v>
       </c>
       <c r="I351" t="s">
         <v>951</v>
       </c>
       <c r="J351">
-        <v>0.35438665923000001</v>
+        <v>0.32884268589999999</v>
       </c>
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.3">
@@ -14030,13 +14016,13 @@
         <v>2.4404692754999999</v>
       </c>
       <c r="H352">
-        <v>299360.29154000001</v>
+        <v>475567.88507999998</v>
       </c>
       <c r="I352" t="s">
         <v>939</v>
       </c>
       <c r="J352">
-        <v>4.0547590351</v>
+        <v>4.5330787455000001</v>
       </c>
     </row>
     <row r="353" spans="1:10" x14ac:dyDescent="0.3">
@@ -14062,13 +14048,13 @@
         <v>3.0661178178999999</v>
       </c>
       <c r="H353">
-        <v>73.759562559000003</v>
+        <v>186.19363129000001</v>
       </c>
       <c r="I353" t="s">
         <v>937</v>
       </c>
       <c r="J353">
-        <v>2.3349943334000001</v>
+        <v>2.4946076870999998</v>
       </c>
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.3">
@@ -14085,7 +14071,7 @@
         <v>439</v>
       </c>
       <c r="E354">
-        <v>0.1984580138</v>
+        <v>0.16169665084000001</v>
       </c>
       <c r="F354">
         <v>0.72181621902000004</v>
@@ -14094,13 +14080,13 @@
         <v>5.1096307986999996</v>
       </c>
       <c r="H354">
-        <v>62057.479035999997</v>
+        <v>66466.896485999998</v>
       </c>
       <c r="I354" t="s">
         <v>935</v>
       </c>
       <c r="J354">
-        <v>3.3110593803000001</v>
+        <v>3.5182631449000001</v>
       </c>
     </row>
     <row r="355" spans="1:10" x14ac:dyDescent="0.3">
@@ -14126,13 +14112,13 @@
         <v>0.39248958039999998</v>
       </c>
       <c r="H355">
-        <v>1657.4894741000001</v>
+        <v>3662.9431958999999</v>
       </c>
       <c r="I355" t="s">
         <v>947</v>
       </c>
       <c r="J355">
-        <v>0.14571228120999999</v>
+        <v>0.23160425728</v>
       </c>
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.3">
@@ -14158,13 +14144,13 @@
         <v>-11.370593239</v>
       </c>
       <c r="H356">
-        <v>21.551326894999999</v>
+        <v>23.723822633000001</v>
       </c>
       <c r="I356" t="s">
         <v>939</v>
       </c>
       <c r="J356">
-        <v>0.75554516180999998</v>
+        <v>0.72310031470000002</v>
       </c>
     </row>
     <row r="357" spans="1:10" x14ac:dyDescent="0.3">
@@ -14181,7 +14167,7 @@
         <v>724</v>
       </c>
       <c r="E357">
-        <v>1.1699457941</v>
+        <v>1.1624074681000001</v>
       </c>
       <c r="F357">
         <v>4.8582568860000004</v>
@@ -14190,10 +14176,13 @@
         <v>26.184080007999999</v>
       </c>
       <c r="H357">
-        <v>21.45570781</v>
+        <v>86.419688074000007</v>
       </c>
       <c r="I357" t="s">
         <v>936</v>
+      </c>
+      <c r="J357">
+        <v>18.740497154</v>
       </c>
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.3">
@@ -14219,13 +14208,13 @@
         <v>-4.9932224280000002</v>
       </c>
       <c r="H358">
-        <v>7.4698174664000003</v>
+        <v>74.714491394000007</v>
       </c>
       <c r="I358" t="s">
         <v>938</v>
       </c>
       <c r="J358">
-        <v>1.0811491482</v>
+        <v>2.1056539725999999</v>
       </c>
     </row>
     <row r="359" spans="1:10" x14ac:dyDescent="0.3">
@@ -14271,13 +14260,13 @@
         <v>0</v>
       </c>
       <c r="H360">
-        <v>139267.88763000001</v>
+        <v>265276.89315999998</v>
       </c>
       <c r="I360" t="s">
         <v>936</v>
       </c>
       <c r="J360">
-        <v>2.1497058771000002</v>
+        <v>2.4574802871000001</v>
       </c>
     </row>
     <row r="361" spans="1:10" x14ac:dyDescent="0.3">
@@ -14303,13 +14292,13 @@
         <v>0.56070542943000001</v>
       </c>
       <c r="H361">
-        <v>136.08787418</v>
+        <v>204.20882091999999</v>
       </c>
       <c r="I361" t="s">
         <v>949</v>
       </c>
       <c r="J361">
-        <v>0.91025202827999996</v>
+        <v>0.86100208620999996</v>
       </c>
     </row>
     <row r="362" spans="1:10" x14ac:dyDescent="0.3">
@@ -14335,13 +14324,13 @@
         <v>0.84175240607000001</v>
       </c>
       <c r="H362">
-        <v>11625.449307999999</v>
+        <v>20000.112053000001</v>
       </c>
       <c r="I362" t="s">
         <v>946</v>
       </c>
       <c r="J362">
-        <v>1.1621004155000001</v>
+        <v>1.1438775149</v>
       </c>
     </row>
     <row r="363" spans="1:10" x14ac:dyDescent="0.3">
@@ -14384,7 +14373,7 @@
         <v>453</v>
       </c>
       <c r="E364">
-        <v>0.46930639982</v>
+        <v>0.34225461597000001</v>
       </c>
       <c r="F364">
         <v>1.8384005282</v>
@@ -14413,7 +14402,7 @@
         <v>455</v>
       </c>
       <c r="E365">
-        <v>0.20759454599999999</v>
+        <v>0.23584961232000001</v>
       </c>
       <c r="F365">
         <v>0.18780529277999999</v>
@@ -14422,13 +14411,13 @@
         <v>0.53965324773000001</v>
       </c>
       <c r="H365">
-        <v>40156.771298</v>
+        <v>50230.34117</v>
       </c>
       <c r="I365" t="s">
         <v>939</v>
       </c>
       <c r="J365">
-        <v>2.043569771</v>
+        <v>1.9907358297</v>
       </c>
     </row>
     <row r="366" spans="1:10" x14ac:dyDescent="0.3">
@@ -14454,13 +14443,13 @@
         <v>-101.14818151999999</v>
       </c>
       <c r="H366">
-        <v>13887.773866</v>
+        <v>20993.688641000001</v>
       </c>
       <c r="I366" t="s">
         <v>945</v>
       </c>
       <c r="J366">
-        <v>0.97141520804000003</v>
+        <v>0.87514585763999997</v>
       </c>
     </row>
     <row r="367" spans="1:10" x14ac:dyDescent="0.3">
@@ -14486,13 +14475,13 @@
         <v>-101.14818151999999</v>
       </c>
       <c r="H367">
-        <v>303.48712841999998</v>
+        <v>366.40590359999999</v>
       </c>
       <c r="I367" t="s">
         <v>945</v>
       </c>
       <c r="J367">
-        <v>2.4213423518999999</v>
+        <v>2.1304055726</v>
       </c>
     </row>
     <row r="368" spans="1:10" x14ac:dyDescent="0.3">
@@ -14518,13 +14507,13 @@
         <v>0.90586819647000005</v>
       </c>
       <c r="H368">
-        <v>117081.37321000001</v>
+        <v>144678.70619</v>
       </c>
       <c r="I368" t="s">
         <v>939</v>
       </c>
       <c r="J368">
-        <v>1.1117307380999999</v>
+        <v>1.1774689721</v>
       </c>
     </row>
     <row r="369" spans="1:10" x14ac:dyDescent="0.3">
@@ -14550,13 +14539,13 @@
         <v>1.7651490622999999</v>
       </c>
       <c r="H369">
-        <v>53302.562465000003</v>
+        <v>73178.401364000005</v>
       </c>
       <c r="I369" t="s">
         <v>939</v>
       </c>
       <c r="J369">
-        <v>6.9438198204999999</v>
+        <v>8.1804038046999992</v>
       </c>
     </row>
     <row r="370" spans="1:10" x14ac:dyDescent="0.3">
@@ -14582,13 +14571,13 @@
         <v>-444.56408198000003</v>
       </c>
       <c r="H370">
-        <v>72.802988608999996</v>
+        <v>164.40948727</v>
       </c>
       <c r="I370" t="s">
         <v>948</v>
       </c>
       <c r="J370">
-        <v>0.70517548435999999</v>
+        <v>0.68420494325000003</v>
       </c>
     </row>
     <row r="371" spans="1:10" x14ac:dyDescent="0.3">
@@ -14608,19 +14597,19 @@
         <v>0.12265499472999999</v>
       </c>
       <c r="F371">
-        <v>-0.12499636744000001</v>
+        <v>-0.12542003046</v>
       </c>
       <c r="G371">
         <v>2.6161794507999998</v>
       </c>
       <c r="H371">
-        <v>276.57791978</v>
+        <v>293.81627236000003</v>
       </c>
       <c r="I371" t="s">
         <v>949</v>
       </c>
       <c r="J371">
-        <v>3.4395294032999999</v>
+        <v>4.0115271737000002</v>
       </c>
     </row>
     <row r="372" spans="1:10" x14ac:dyDescent="0.3">
@@ -14646,13 +14635,13 @@
         <v>1.9035690483000001</v>
       </c>
       <c r="H372">
-        <v>136401.05170000001</v>
+        <v>170742.20684999999</v>
       </c>
       <c r="I372" t="s">
         <v>941</v>
       </c>
       <c r="J372">
-        <v>0.48570760402000002</v>
+        <v>0.55337505746000004</v>
       </c>
     </row>
     <row r="373" spans="1:10" x14ac:dyDescent="0.3">
@@ -14678,13 +14667,13 @@
         <v>0.35124994471999998</v>
       </c>
       <c r="H373">
-        <v>235.41701767999999</v>
+        <v>603.69195803000002</v>
       </c>
       <c r="I373" t="s">
         <v>947</v>
       </c>
       <c r="J373">
-        <v>0.35618557628000003</v>
+        <v>0.37304197164000003</v>
       </c>
     </row>
     <row r="374" spans="1:10" x14ac:dyDescent="0.3">
@@ -14710,13 +14699,13 @@
         <v>0.89598622075000001</v>
       </c>
       <c r="H374">
-        <v>4379.9039970000003</v>
+        <v>12339.870755</v>
       </c>
       <c r="I374" t="s">
         <v>941</v>
       </c>
       <c r="J374">
-        <v>0.45872384824000001</v>
+        <v>0.54453520031000002</v>
       </c>
     </row>
     <row r="375" spans="1:10" x14ac:dyDescent="0.3">
@@ -14742,10 +14731,13 @@
         <v>7.1543759852999997</v>
       </c>
       <c r="H375">
-        <v>1.4922969607000001</v>
+        <v>233.77849283</v>
       </c>
       <c r="I375" t="s">
         <v>937</v>
+      </c>
+      <c r="J375">
+        <v>7.1956437184000004</v>
       </c>
     </row>
     <row r="376" spans="1:10" x14ac:dyDescent="0.3">
@@ -14771,10 +14763,13 @@
         <v>7.1543759852999997</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>15.247494758</v>
       </c>
       <c r="I376" t="s">
         <v>937</v>
+      </c>
+      <c r="J376">
+        <v>7.4254800041999998</v>
       </c>
     </row>
     <row r="377" spans="1:10" x14ac:dyDescent="0.3">
@@ -14791,7 +14786,7 @@
         <v>735</v>
       </c>
       <c r="E377">
-        <v>0.19929687259000001</v>
+        <v>0.13876752548999999</v>
       </c>
       <c r="F377">
         <v>0.27830230123999999</v>
@@ -14800,13 +14795,13 @@
         <v>9.2512901348999996</v>
       </c>
       <c r="H377">
-        <v>29.843811850000002</v>
+        <v>17.954018312999999</v>
       </c>
       <c r="I377" t="s">
         <v>939</v>
       </c>
       <c r="J377">
-        <v>8.0051808810999994</v>
+        <v>7.4643753757000004</v>
       </c>
     </row>
     <row r="378" spans="1:10" x14ac:dyDescent="0.3">
@@ -14823,7 +14818,7 @@
         <v>877</v>
       </c>
       <c r="E378">
-        <v>0.22780118631999999</v>
+        <v>0.16121890451000001</v>
       </c>
       <c r="F378">
         <v>0.27830230123999999</v>
@@ -14832,13 +14827,13 @@
         <v>9.2512901348999996</v>
       </c>
       <c r="H378">
-        <v>8.0846600056</v>
+        <v>5.9574728505000003</v>
       </c>
       <c r="I378" t="s">
         <v>939</v>
       </c>
       <c r="J378">
-        <v>8.9819928403000002</v>
+        <v>8.5746614334999993</v>
       </c>
     </row>
     <row r="379" spans="1:10" x14ac:dyDescent="0.3">
@@ -14864,13 +14859,13 @@
         <v>-15.854994227000001</v>
       </c>
       <c r="H379">
-        <v>442.00670808000001</v>
+        <v>973.23658545000001</v>
       </c>
       <c r="I379" t="s">
         <v>937</v>
       </c>
       <c r="J379">
-        <v>0.42814225836000003</v>
+        <v>0.32707471447000003</v>
       </c>
     </row>
     <row r="380" spans="1:10" x14ac:dyDescent="0.3">
@@ -14896,13 +14891,13 @@
         <v>-8.5380044012000003</v>
       </c>
       <c r="H380">
-        <v>954.71196506000001</v>
+        <v>4924.5145014999998</v>
       </c>
       <c r="I380" t="s">
         <v>943</v>
       </c>
       <c r="J380">
-        <v>3.0581589882999999E-2</v>
+        <v>2.8287542873000001E-2</v>
       </c>
     </row>
     <row r="381" spans="1:10" x14ac:dyDescent="0.3">
@@ -14921,14 +14916,20 @@
       <c r="E381">
         <v>0</v>
       </c>
+      <c r="F381">
+        <v>-2.9725568457999998</v>
+      </c>
+      <c r="G381">
+        <v>-16.494072024000001</v>
+      </c>
       <c r="H381">
-        <v>644.70332569000004</v>
+        <v>288.99941984999998</v>
       </c>
       <c r="I381" t="s">
         <v>933</v>
       </c>
       <c r="J381">
-        <v>0.46052276530000003</v>
+        <v>0.53923128602000003</v>
       </c>
     </row>
     <row r="382" spans="1:10" x14ac:dyDescent="0.3">
@@ -14945,7 +14946,7 @@
         <v>878</v>
       </c>
       <c r="E382">
-        <v>1.2706494082999999</v>
+        <v>1.2325996034</v>
       </c>
       <c r="F382">
         <v>1.6945049201</v>
@@ -14954,13 +14955,13 @@
         <v>6.3201944166999997</v>
       </c>
       <c r="H382">
-        <v>1602815.7275</v>
+        <v>1625015.2075</v>
       </c>
       <c r="I382" t="s">
         <v>933</v>
       </c>
       <c r="J382">
-        <v>7.2640270556999997</v>
+        <v>7.5916693186000002</v>
       </c>
     </row>
     <row r="383" spans="1:10" x14ac:dyDescent="0.3">
@@ -14977,7 +14978,7 @@
         <v>481</v>
       </c>
       <c r="E383">
-        <v>1.2706494082999999</v>
+        <v>1.2325996034</v>
       </c>
       <c r="F383">
         <v>1.6945049201</v>
@@ -14986,13 +14987,13 @@
         <v>6.3201944166999997</v>
       </c>
       <c r="H383">
-        <v>4717361.7488000002</v>
+        <v>5982728.9616</v>
       </c>
       <c r="I383" t="s">
         <v>933</v>
       </c>
       <c r="J383">
-        <v>6.8448793826000003</v>
+        <v>6.9605035183000004</v>
       </c>
     </row>
     <row r="384" spans="1:10" x14ac:dyDescent="0.3">
@@ -15018,13 +15019,13 @@
         <v>3.1762375554000002</v>
       </c>
       <c r="H384">
-        <v>168608.84388</v>
+        <v>152641.88706000001</v>
       </c>
       <c r="I384" t="s">
         <v>933</v>
       </c>
       <c r="J384">
-        <v>3.3351922143000001</v>
+        <v>3.6066617163000001</v>
       </c>
     </row>
     <row r="385" spans="1:10" x14ac:dyDescent="0.3">
@@ -15050,13 +15051,13 @@
         <v>3.6785705444999999</v>
       </c>
       <c r="H385">
-        <v>1494438.5403</v>
+        <v>1728399.8167000001</v>
       </c>
       <c r="I385" t="s">
         <v>933</v>
       </c>
       <c r="J385">
-        <v>7.8720610193000002</v>
+        <v>8.2811781761999992</v>
       </c>
     </row>
     <row r="386" spans="1:10" x14ac:dyDescent="0.3">
@@ -15082,13 +15083,13 @@
         <v>1.6149638271</v>
       </c>
       <c r="H386">
-        <v>24.215345903999999</v>
+        <v>36.551957358000003</v>
       </c>
       <c r="I386" t="s">
         <v>942</v>
       </c>
       <c r="J386">
-        <v>1.7809278814</v>
+        <v>1.6565892295</v>
       </c>
     </row>
     <row r="387" spans="1:10" x14ac:dyDescent="0.3">
@@ -15114,13 +15115,13 @@
         <v>1.6149638271</v>
       </c>
       <c r="H387">
-        <v>111.58746916</v>
+        <v>305.30593479999999</v>
       </c>
       <c r="I387" t="s">
         <v>942</v>
       </c>
       <c r="J387">
-        <v>1.0703556459000001</v>
+        <v>1.2835472579</v>
       </c>
     </row>
     <row r="388" spans="1:10" x14ac:dyDescent="0.3">
@@ -15137,7 +15138,7 @@
         <v>489</v>
       </c>
       <c r="E388">
-        <v>1.8828071291E-3</v>
+        <v>5.3675596504000004E-4</v>
       </c>
       <c r="F388">
         <v>4.2531673334999997E-3</v>
@@ -15146,13 +15147,13 @@
         <v>0.80339555509000005</v>
       </c>
       <c r="H388">
-        <v>114585.81058</v>
+        <v>413107.53980000003</v>
       </c>
       <c r="I388" t="s">
         <v>941</v>
       </c>
       <c r="J388">
-        <v>0.65300688984999999</v>
+        <v>0.85923411478</v>
       </c>
     </row>
     <row r="389" spans="1:10" x14ac:dyDescent="0.3">
@@ -15168,6 +15169,9 @@
       <c r="D389" t="s">
         <v>880</v>
       </c>
+      <c r="E389">
+        <v>7.3247317115000002E-2</v>
+      </c>
       <c r="F389">
         <v>0.2265598529</v>
       </c>
@@ -15175,13 +15179,13 @@
         <v>1.0422767906999999</v>
       </c>
       <c r="H389">
-        <v>12.836936679000001</v>
+        <v>45.177397003000003</v>
       </c>
       <c r="I389" t="s">
         <v>936</v>
       </c>
       <c r="J389">
-        <v>0.92250427885999997</v>
+        <v>0.98829602914000003</v>
       </c>
     </row>
     <row r="390" spans="1:10" x14ac:dyDescent="0.3">
@@ -15198,7 +15202,7 @@
         <v>727</v>
       </c>
       <c r="E390">
-        <v>7.9590110961999999E-2</v>
+        <v>7.3247317115000002E-2</v>
       </c>
       <c r="F390">
         <v>0.2265598529</v>
@@ -15207,13 +15211,13 @@
         <v>1.0422767906999999</v>
       </c>
       <c r="H390">
-        <v>2347.5583304000002</v>
+        <v>5694.5274638000001</v>
       </c>
       <c r="I390" t="s">
         <v>936</v>
       </c>
       <c r="J390">
-        <v>0.73103098473000006</v>
+        <v>0.85923411478</v>
       </c>
     </row>
     <row r="391" spans="1:10" x14ac:dyDescent="0.3">
@@ -15239,13 +15243,13 @@
         <v>0.62911080114999995</v>
       </c>
       <c r="H391">
-        <v>27194.562720999998</v>
+        <v>47850.849298000001</v>
       </c>
       <c r="I391" t="s">
         <v>943</v>
       </c>
       <c r="J391">
-        <v>1.8528845635</v>
+        <v>2.1268696297999998</v>
       </c>
     </row>
     <row r="392" spans="1:10" x14ac:dyDescent="0.3">
@@ -15271,13 +15275,13 @@
         <v>-7.0765733667999999</v>
       </c>
       <c r="H392">
-        <v>5.0530823071000004</v>
+        <v>44.801076258000002</v>
       </c>
       <c r="I392" t="s">
         <v>948</v>
       </c>
       <c r="J392">
-        <v>0.89945852596999998</v>
+        <v>1.0607828577</v>
       </c>
     </row>
     <row r="393" spans="1:10" x14ac:dyDescent="0.3">
@@ -15346,7 +15350,7 @@
         <v>729</v>
       </c>
       <c r="E395">
-        <v>0.24620249467999999</v>
+        <v>0.30360748968000001</v>
       </c>
       <c r="F395">
         <v>0.80420761107000005</v>
@@ -15355,13 +15359,13 @@
         <v>3.9000626605000002</v>
       </c>
       <c r="H395">
-        <v>156864.08525999999</v>
+        <v>169716.88238</v>
       </c>
       <c r="I395" t="s">
         <v>936</v>
       </c>
       <c r="J395">
-        <v>5.5102432807000001</v>
+        <v>6.0217106891999999</v>
       </c>
     </row>
     <row r="396" spans="1:10" x14ac:dyDescent="0.3">
@@ -15387,13 +15391,13 @@
         <v>0.52684752335999996</v>
       </c>
       <c r="H396">
-        <v>7662.0896936999998</v>
+        <v>11560.740124</v>
       </c>
       <c r="I396" t="s">
         <v>950</v>
       </c>
       <c r="J396">
-        <v>0.84189318031000004</v>
+        <v>0.86453802906999999</v>
       </c>
     </row>
     <row r="397" spans="1:10" x14ac:dyDescent="0.3">
@@ -15419,13 +15423,13 @@
         <v>2.3511218396000002</v>
       </c>
       <c r="H397">
-        <v>31291.143250000001</v>
+        <v>54647.295088999999</v>
       </c>
       <c r="I397" t="s">
         <v>951</v>
       </c>
       <c r="J397">
-        <v>1.4121498857999999</v>
+        <v>1.1544853435</v>
       </c>
     </row>
     <row r="398" spans="1:10" x14ac:dyDescent="0.3">
@@ -15451,13 +15455,13 @@
         <v>6.3999366194000004E-4</v>
       </c>
       <c r="H398">
-        <v>3.4628724646000002</v>
+        <v>4.8131471308</v>
       </c>
       <c r="I398" t="s">
         <v>936</v>
       </c>
       <c r="J398">
-        <v>0.66200147510999996</v>
+        <v>0.45260068597000003</v>
       </c>
     </row>
     <row r="399" spans="1:10" x14ac:dyDescent="0.3">
@@ -15509,13 +15513,13 @@
         <v>1.3858117151</v>
       </c>
       <c r="H400">
-        <v>11608.686905</v>
+        <v>20395.977857999998</v>
       </c>
       <c r="I400" t="s">
         <v>943</v>
       </c>
       <c r="J400">
-        <v>1.9428304161000001</v>
+        <v>2.3478660585000002</v>
       </c>
     </row>
     <row r="401" spans="1:10" x14ac:dyDescent="0.3">
@@ -15541,13 +15545,13 @@
         <v>2.0478752309999999</v>
       </c>
       <c r="H401">
-        <v>3611.852574</v>
+        <v>5390.0654800000002</v>
       </c>
       <c r="I401" t="s">
         <v>941</v>
       </c>
       <c r="J401">
-        <v>0.93903470110999998</v>
+        <v>1.1173579435000001</v>
       </c>
     </row>
     <row r="402" spans="1:10" x14ac:dyDescent="0.3">
@@ -15599,13 +15603,13 @@
         <v>0.92355009061000004</v>
       </c>
       <c r="H403">
-        <v>29077.360660999999</v>
+        <v>31119.559075000001</v>
       </c>
       <c r="I403" t="s">
         <v>939</v>
       </c>
       <c r="J403">
-        <v>0.25184838726999997</v>
+        <v>0.40132951451999999</v>
       </c>
     </row>
     <row r="404" spans="1:10" x14ac:dyDescent="0.3">
@@ -15654,13 +15658,13 @@
         <v>0.63688066031000001</v>
       </c>
       <c r="H405">
-        <v>41877.030937000003</v>
+        <v>60755.144066000001</v>
       </c>
       <c r="I405" t="s">
         <v>941</v>
       </c>
       <c r="J405">
-        <v>0.66919714332000002</v>
+        <v>0.75138785757000004</v>
       </c>
     </row>
     <row r="406" spans="1:10" x14ac:dyDescent="0.3">
@@ -15677,7 +15681,7 @@
         <v>514</v>
       </c>
       <c r="E406">
-        <v>6.0770138717000002E-2</v>
+        <v>5.6569234354999998E-2</v>
       </c>
       <c r="F406">
         <v>0.12264775838</v>
@@ -15686,13 +15690,13 @@
         <v>0.70855103806999997</v>
       </c>
       <c r="H406">
-        <v>555043.39135000005</v>
+        <v>900112.63687000005</v>
       </c>
       <c r="I406" t="s">
         <v>941</v>
       </c>
       <c r="J406">
-        <v>4.6115197095999996</v>
+        <v>4.8725292599000003</v>
       </c>
     </row>
     <row r="407" spans="1:10" x14ac:dyDescent="0.3">
@@ -15709,7 +15713,7 @@
         <v>516</v>
       </c>
       <c r="E407">
-        <v>3.9634516004000003E-2</v>
+        <v>3.6268995450000001E-2</v>
       </c>
       <c r="F407">
         <v>1.0096907170000001E-2</v>
@@ -15718,13 +15722,13 @@
         <v>0.41439914316999998</v>
       </c>
       <c r="H407">
-        <v>166093.95384999999</v>
+        <v>221636.04243</v>
       </c>
       <c r="I407" t="s">
         <v>934</v>
       </c>
       <c r="J407">
-        <v>0.53068053031999995</v>
+        <v>0.56751882890000005</v>
       </c>
     </row>
     <row r="408" spans="1:10" x14ac:dyDescent="0.3">
@@ -15741,7 +15745,7 @@
         <v>882</v>
       </c>
       <c r="E408">
-        <v>0.12028416639</v>
+        <v>0.10143628849</v>
       </c>
       <c r="F408">
         <v>0.20814737243</v>
@@ -15750,13 +15754,13 @@
         <v>1.7530030407999999</v>
       </c>
       <c r="H408">
-        <v>1926.1255334</v>
+        <v>1468.3983665000001</v>
       </c>
       <c r="I408" t="s">
         <v>948</v>
       </c>
       <c r="J408">
-        <v>1.6573361687999999</v>
+        <v>1.5787984866</v>
       </c>
     </row>
     <row r="409" spans="1:10" x14ac:dyDescent="0.3">
@@ -15773,7 +15777,7 @@
         <v>518</v>
       </c>
       <c r="E409">
-        <v>0.12028416639</v>
+        <v>0.10143628849</v>
       </c>
       <c r="F409">
         <v>0.20814737243</v>
@@ -15782,13 +15786,13 @@
         <v>1.7530030407999999</v>
       </c>
       <c r="H409">
-        <v>77795.548425999994</v>
+        <v>105225.73158000001</v>
       </c>
       <c r="I409" t="s">
         <v>948</v>
       </c>
       <c r="J409">
-        <v>1.9388019488999999</v>
+        <v>1.946536544</v>
       </c>
     </row>
     <row r="410" spans="1:10" x14ac:dyDescent="0.3">
@@ -15814,13 +15818,13 @@
         <v>1.5221051929E-3</v>
       </c>
       <c r="H410">
-        <v>8675.0559489000007</v>
+        <v>9554.9341461000004</v>
       </c>
       <c r="I410" t="s">
         <v>948</v>
       </c>
       <c r="J410">
-        <v>0.50909352569999999</v>
+        <v>0.83094657189999999</v>
       </c>
     </row>
     <row r="411" spans="1:10" x14ac:dyDescent="0.3">
@@ -15846,13 +15850,13 @@
         <v>1.5221051929E-3</v>
       </c>
       <c r="H411">
-        <v>2589.9940467000001</v>
+        <v>1092.4522259</v>
       </c>
       <c r="I411" t="s">
         <v>948</v>
       </c>
       <c r="J411">
-        <v>0.21047329508000001</v>
+        <v>0.15911742866</v>
       </c>
     </row>
     <row r="412" spans="1:10" x14ac:dyDescent="0.3">
@@ -15869,7 +15873,7 @@
         <v>521</v>
       </c>
       <c r="E412">
-        <v>0.1005293508</v>
+        <v>0.12859131871999999</v>
       </c>
       <c r="F412">
         <v>0.22607375885</v>
@@ -15878,13 +15882,13 @@
         <v>2.0560061357000001</v>
       </c>
       <c r="H412">
-        <v>609450.43741999997</v>
+        <v>969612.76592999999</v>
       </c>
       <c r="I412" t="s">
         <v>939</v>
       </c>
       <c r="J412">
-        <v>4.8649924133000004</v>
+        <v>5.6451327747000004</v>
       </c>
     </row>
     <row r="413" spans="1:10" x14ac:dyDescent="0.3">
@@ -15901,7 +15905,7 @@
         <v>523</v>
       </c>
       <c r="E413">
-        <v>0.11841069643</v>
+        <v>0.13224437057999999</v>
       </c>
       <c r="F413">
         <v>0.17645855460000001</v>
@@ -15910,13 +15914,13 @@
         <v>0.38599822741000001</v>
       </c>
       <c r="H413">
-        <v>44.681352273999998</v>
+        <v>46.242373358999998</v>
       </c>
       <c r="I413" t="s">
         <v>935</v>
       </c>
       <c r="J413">
-        <v>1.1585704592999999</v>
+        <v>1.2375800007</v>
       </c>
     </row>
     <row r="414" spans="1:10" x14ac:dyDescent="0.3">
@@ -15942,13 +15946,13 @@
         <v>0.69885579541999998</v>
       </c>
       <c r="H414">
-        <v>174.69704748000001</v>
+        <v>388.79860423000002</v>
       </c>
       <c r="I414" t="s">
         <v>935</v>
       </c>
       <c r="J414">
-        <v>0.16370145173</v>
+        <v>0.18033308581999999</v>
       </c>
     </row>
     <row r="415" spans="1:10" x14ac:dyDescent="0.3">
@@ -15974,13 +15978,13 @@
         <v>0.69885579541999998</v>
       </c>
       <c r="H415">
-        <v>312.12001306000002</v>
+        <v>743.26980859000003</v>
       </c>
       <c r="I415" t="s">
         <v>935</v>
       </c>
       <c r="J415">
-        <v>0.16370145173</v>
+        <v>0.17502917153</v>
       </c>
     </row>
     <row r="416" spans="1:10" x14ac:dyDescent="0.3">
@@ -16006,13 +16010,13 @@
         <v>0.69885579541999998</v>
       </c>
       <c r="H416">
-        <v>75.734611947999994</v>
+        <v>146.00141126</v>
       </c>
       <c r="I416" t="s">
         <v>935</v>
       </c>
       <c r="J416">
-        <v>0.49470218927999998</v>
+        <v>0.52508751459000003</v>
       </c>
     </row>
     <row r="417" spans="1:10" x14ac:dyDescent="0.3">
@@ -16064,13 +16068,13 @@
         <v>6.7357744052999999</v>
       </c>
       <c r="H418">
-        <v>247.56910224000001</v>
+        <v>555.59310794999999</v>
       </c>
       <c r="I418" t="s">
         <v>948</v>
       </c>
       <c r="J418">
-        <v>12.322581805</v>
+        <v>11.474134577999999</v>
       </c>
     </row>
     <row r="419" spans="1:10" x14ac:dyDescent="0.3">
@@ -16093,13 +16097,13 @@
         <v>1.7023908955</v>
       </c>
       <c r="H419">
-        <v>38.162162778000003</v>
+        <v>68.351115843000002</v>
       </c>
       <c r="I419" t="s">
         <v>943</v>
       </c>
       <c r="J419">
-        <v>0.55046861789000001</v>
+        <v>0.58343057176000002</v>
       </c>
     </row>
     <row r="420" spans="1:10" x14ac:dyDescent="0.3">
@@ -16151,13 +16155,13 @@
         <v>2.5292691528</v>
       </c>
       <c r="H421">
-        <v>7429.0421834999997</v>
+        <v>7904.3532341</v>
       </c>
       <c r="I421" t="s">
         <v>938</v>
       </c>
       <c r="J421">
-        <v>1.8834661533999999</v>
+        <v>1.9447685724999999</v>
       </c>
     </row>
     <row r="422" spans="1:10" x14ac:dyDescent="0.3">
@@ -16183,13 +16187,13 @@
         <v>-8.8970639764000001</v>
       </c>
       <c r="H422">
-        <v>1201.0379112999999</v>
+        <v>2009.1648814</v>
       </c>
       <c r="I422" t="s">
         <v>943</v>
       </c>
       <c r="J422">
-        <v>0.96062170573000005</v>
+        <v>0.67713305752999997</v>
       </c>
     </row>
     <row r="423" spans="1:10" x14ac:dyDescent="0.3">
@@ -16215,13 +16219,13 @@
         <v>1.7369919596000001</v>
       </c>
       <c r="H423">
-        <v>899467.31484000001</v>
+        <v>1207340.9844</v>
       </c>
       <c r="I423" t="s">
         <v>940</v>
       </c>
       <c r="J423">
-        <v>3.7273561316000001</v>
+        <v>3.8630175736000001</v>
       </c>
     </row>
     <row r="424" spans="1:10" x14ac:dyDescent="0.3">
@@ -16244,13 +16248,13 @@
         <v>8.9842173279999997</v>
       </c>
       <c r="H424">
-        <v>1506281.5330999999</v>
+        <v>1833262.7855</v>
       </c>
       <c r="I424" t="s">
         <v>939</v>
       </c>
       <c r="J424">
-        <v>13.486481138</v>
+        <v>16.747993352000002</v>
       </c>
     </row>
     <row r="425" spans="1:10" x14ac:dyDescent="0.3">
@@ -16293,7 +16297,7 @@
         <v>887</v>
       </c>
       <c r="E426">
-        <v>5.8125151032999998E-2</v>
+        <v>4.8516908068999998E-2</v>
       </c>
       <c r="F426">
         <v>0.20703072758999999</v>
@@ -16302,13 +16306,13 @@
         <v>1.3408171983999999</v>
       </c>
       <c r="H426">
-        <v>3801.1857493000002</v>
+        <v>4574.2882716000004</v>
       </c>
       <c r="I426" t="s">
         <v>939</v>
       </c>
       <c r="J426">
-        <v>0.91583332277999996</v>
+        <v>0.95470457197000003</v>
       </c>
     </row>
     <row r="427" spans="1:10" x14ac:dyDescent="0.3">
@@ -16325,7 +16329,7 @@
         <v>888</v>
       </c>
       <c r="E427">
-        <v>6.3937666239999996E-2</v>
+        <v>5.3368598901999999E-2</v>
       </c>
       <c r="F427">
         <v>0.20703072758999999</v>
@@ -16334,13 +16338,13 @@
         <v>1.3408171983999999</v>
       </c>
       <c r="H427">
-        <v>21203.779687999999</v>
+        <v>29537.193886000001</v>
       </c>
       <c r="I427" t="s">
         <v>939</v>
       </c>
       <c r="J427">
-        <v>0.97809430715000001</v>
+        <v>1.0342632863000001</v>
       </c>
     </row>
     <row r="428" spans="1:10" x14ac:dyDescent="0.3">
@@ -16357,7 +16361,7 @@
         <v>540</v>
       </c>
       <c r="E428">
-        <v>6.2775163157000005E-2</v>
+        <v>5.2398260847999999E-2</v>
       </c>
       <c r="F428">
         <v>0.20703072758999999</v>
@@ -16366,13 +16370,13 @@
         <v>1.3408171983999999</v>
       </c>
       <c r="H428">
-        <v>82653.301680999997</v>
+        <v>110584.58104</v>
       </c>
       <c r="I428" t="s">
         <v>939</v>
       </c>
       <c r="J428">
-        <v>4.8228137998999996</v>
+        <v>5.0670061172</v>
       </c>
     </row>
     <row r="429" spans="1:10" x14ac:dyDescent="0.3">
@@ -16398,13 +16402,13 @@
         <v>-51.462988289999998</v>
       </c>
       <c r="H429">
-        <v>60.251871940999997</v>
+        <v>60.205443371999998</v>
       </c>
       <c r="I429" t="s">
         <v>939</v>
       </c>
       <c r="J429">
-        <v>2.1191242872</v>
+        <v>2.3496340298999998</v>
       </c>
     </row>
     <row r="430" spans="1:10" x14ac:dyDescent="0.3">
@@ -16430,13 +16434,13 @@
         <v>-51.462988289999998</v>
       </c>
       <c r="H430">
-        <v>26.273386646999999</v>
+        <v>218.74931556000001</v>
       </c>
       <c r="I430" t="s">
         <v>939</v>
       </c>
       <c r="J430">
-        <v>1.1135296551</v>
+        <v>1.0095116863</v>
       </c>
     </row>
     <row r="431" spans="1:10" x14ac:dyDescent="0.3">
@@ -16482,7 +16486,7 @@
         <v>891</v>
       </c>
       <c r="E432">
-        <v>0.15374631950000001</v>
+        <v>0.14814606115000001</v>
       </c>
       <c r="F432">
         <v>0.26474317056000002</v>
@@ -16491,13 +16495,13 @@
         <v>2.3399560351000002</v>
       </c>
       <c r="H432">
-        <v>3842.3491835999998</v>
+        <v>6721.6596995</v>
       </c>
       <c r="I432" t="s">
         <v>936</v>
       </c>
       <c r="J432">
-        <v>2.3290296073999999</v>
+        <v>2.6413493157999999</v>
       </c>
     </row>
     <row r="433" spans="1:10" x14ac:dyDescent="0.3">
@@ -16514,7 +16518,7 @@
         <v>892</v>
       </c>
       <c r="E433">
-        <v>0.16912095145</v>
+        <v>0.16296066727</v>
       </c>
       <c r="F433">
         <v>0.26474317056000002</v>
@@ -16523,13 +16527,13 @@
         <v>2.3399560351000002</v>
       </c>
       <c r="H433">
-        <v>5554.3607986999996</v>
+        <v>7271.7038682000002</v>
       </c>
       <c r="I433" t="s">
         <v>936</v>
       </c>
       <c r="J433">
-        <v>2.5600668068000001</v>
+        <v>2.8994731444999999</v>
       </c>
     </row>
     <row r="434" spans="1:10" x14ac:dyDescent="0.3">
@@ -16546,7 +16550,7 @@
         <v>733</v>
       </c>
       <c r="E434">
-        <v>0.16143363548</v>
+        <v>0.15555336420999999</v>
       </c>
       <c r="F434">
         <v>0.26474317056000002</v>
@@ -16555,13 +16559,13 @@
         <v>2.3399560351000002</v>
       </c>
       <c r="H434">
-        <v>345475.76431</v>
+        <v>256559.26371999999</v>
       </c>
       <c r="I434" t="s">
         <v>936</v>
       </c>
       <c r="J434">
-        <v>4.8715474259000002</v>
+        <v>5.5514302888999998</v>
       </c>
     </row>
     <row r="435" spans="1:10" x14ac:dyDescent="0.3">
@@ -16581,13 +16585,13 @@
         <v>0</v>
       </c>
       <c r="H435">
-        <v>10.296308182000001</v>
+        <v>95.505631444000002</v>
       </c>
       <c r="I435" t="s">
         <v>942</v>
       </c>
       <c r="J435">
-        <v>0.39036500026999998</v>
+        <v>0.48796011455999999</v>
       </c>
     </row>
     <row r="436" spans="1:10" x14ac:dyDescent="0.3">
@@ -16607,13 +16611,13 @@
         <v>0</v>
       </c>
       <c r="H436">
-        <v>67.692051973000005</v>
+        <v>351.84343364</v>
       </c>
       <c r="I436" t="s">
         <v>942</v>
       </c>
       <c r="J436">
-        <v>0.14751119826</v>
+        <v>0.24574802871000001</v>
       </c>
     </row>
     <row r="437" spans="1:10" x14ac:dyDescent="0.3">
@@ -16630,7 +16634,7 @@
         <v>545</v>
       </c>
       <c r="E437">
-        <v>0.13357175296000001</v>
+        <v>0.14578263053000001</v>
       </c>
       <c r="F437">
         <v>0.14044191727999999</v>
@@ -16639,13 +16643,13 @@
         <v>0.51427884320999995</v>
       </c>
       <c r="H437">
-        <v>209019.82492000001</v>
+        <v>363867.18504000001</v>
       </c>
       <c r="I437" t="s">
         <v>940</v>
       </c>
       <c r="J437">
-        <v>2.4555217758999999</v>
+        <v>2.2983628585</v>
       </c>
     </row>
     <row r="438" spans="1:10" x14ac:dyDescent="0.3">
@@ -16671,13 +16675,13 @@
         <v>5.9109492173999998</v>
       </c>
       <c r="H438">
-        <v>1255.6695791</v>
+        <v>1469.8438819</v>
       </c>
       <c r="I438" t="s">
         <v>939</v>
       </c>
       <c r="J438">
-        <v>4.3713684362</v>
+        <v>4.3845691454000004</v>
       </c>
     </row>
     <row r="439" spans="1:10" x14ac:dyDescent="0.3">
@@ -16694,7 +16698,7 @@
         <v>549</v>
       </c>
       <c r="E439">
-        <v>0.25017511714000001</v>
+        <v>0.16194256536000001</v>
       </c>
       <c r="F439">
         <v>0.85306843062000004</v>
@@ -16703,13 +16707,13 @@
         <v>3.9716491589</v>
       </c>
       <c r="H439">
-        <v>241128.11395999999</v>
+        <v>165874.77071000001</v>
       </c>
       <c r="I439" t="s">
         <v>939</v>
       </c>
       <c r="J439">
-        <v>5.8878555109999997</v>
+        <v>4.9008168027999996</v>
       </c>
     </row>
     <row r="440" spans="1:10" x14ac:dyDescent="0.3">
@@ -16764,13 +16768,13 @@
         <v>0.73942666541000002</v>
       </c>
       <c r="H441">
-        <v>9050.5897174000002</v>
+        <v>6259.5372427000002</v>
       </c>
       <c r="I441" t="s">
         <v>948</v>
       </c>
       <c r="J441">
-        <v>1.0775513140999999</v>
+        <v>1.1827728864</v>
       </c>
     </row>
     <row r="442" spans="1:10" x14ac:dyDescent="0.3">
@@ -16796,13 +16800,13 @@
         <v>3.7592745309</v>
       </c>
       <c r="H442">
-        <v>6702.2135694999997</v>
+        <v>55128.709667000003</v>
       </c>
       <c r="I442" t="s">
         <v>940</v>
       </c>
       <c r="J442">
-        <v>0.79332241989999996</v>
+        <v>1.1297337435000001</v>
       </c>
     </row>
     <row r="443" spans="1:10" x14ac:dyDescent="0.3">
@@ -16828,13 +16832,13 @@
         <v>1.8589968623999999</v>
       </c>
       <c r="H443">
-        <v>12486.155116</v>
+        <v>10677.106653999999</v>
       </c>
       <c r="I443" t="s">
         <v>939</v>
       </c>
       <c r="J443">
-        <v>0.86527910198000002</v>
+        <v>1.1403415721000001</v>
       </c>
     </row>
     <row r="444" spans="1:10" x14ac:dyDescent="0.3">
@@ -16860,13 +16864,13 @@
         <v>1.7237216849999999</v>
       </c>
       <c r="H444">
-        <v>59080.657788999997</v>
+        <v>64526.579055000002</v>
       </c>
       <c r="I444" t="s">
         <v>935</v>
       </c>
       <c r="J444">
-        <v>1.5848459228</v>
+        <v>1.4320568579999999</v>
       </c>
     </row>
     <row r="445" spans="1:10" x14ac:dyDescent="0.3">
@@ -16892,13 +16896,13 @@
         <v>2.6107654131000002</v>
       </c>
       <c r="H445">
-        <v>351344.59544</v>
+        <v>319212.40846000001</v>
       </c>
       <c r="I445" t="s">
         <v>937</v>
       </c>
       <c r="J445">
-        <v>2.3224019139999998</v>
+        <v>2.0968141155</v>
       </c>
     </row>
     <row r="446" spans="1:10" x14ac:dyDescent="0.3">
@@ -16924,13 +16928,13 @@
         <v>0.74723006073999998</v>
       </c>
       <c r="H446">
-        <v>73860.321590000007</v>
+        <v>104520.08084</v>
       </c>
       <c r="I446" t="s">
         <v>940</v>
       </c>
       <c r="J446">
-        <v>0.95882278868000004</v>
+        <v>1.0908383720999999</v>
       </c>
     </row>
     <row r="447" spans="1:10" x14ac:dyDescent="0.3">
@@ -16956,13 +16960,13 @@
         <v>2.2497004451999998</v>
       </c>
       <c r="H447">
-        <v>153196.28959</v>
+        <v>133014.07982000001</v>
       </c>
       <c r="I447" t="s">
         <v>934</v>
       </c>
       <c r="J447">
-        <v>3.1391102555999999</v>
+        <v>3.1222375445999999</v>
       </c>
     </row>
     <row r="448" spans="1:10" x14ac:dyDescent="0.3">
@@ -16988,13 +16992,13 @@
         <v>1.7991772902000001</v>
       </c>
       <c r="H448">
-        <v>185430.16151000001</v>
+        <v>255305.68999000001</v>
       </c>
       <c r="I448" t="s">
         <v>939</v>
       </c>
       <c r="J448">
-        <v>3.8856608322000001</v>
+        <v>3.8983770022000002</v>
       </c>
     </row>
     <row r="449" spans="1:10" x14ac:dyDescent="0.3">
@@ -17101,13 +17105,10 @@
         <v>0</v>
       </c>
       <c r="H452">
-        <v>233.23458160000001</v>
+        <v>39.869090284000002</v>
       </c>
       <c r="I452" t="s">
         <v>942</v>
-      </c>
-      <c r="J452">
-        <v>0.33279965461</v>
       </c>
     </row>
     <row r="453" spans="1:10" x14ac:dyDescent="0.3">
@@ -17133,13 +17134,10 @@
         <v>2.6659221439</v>
       </c>
       <c r="H453">
-        <v>4.7965230628000004</v>
+        <v>16.878686555000002</v>
       </c>
       <c r="I453" t="s">
         <v>939</v>
-      </c>
-      <c r="J453">
-        <v>5.5766428609999998</v>
       </c>
     </row>
     <row r="454" spans="1:10" x14ac:dyDescent="0.3">
@@ -17165,7 +17163,7 @@
         <v>2.6659221439</v>
       </c>
       <c r="H454">
-        <v>1.4147614806</v>
+        <v>7.714742319</v>
       </c>
       <c r="I454" t="s">
         <v>939</v>
@@ -17194,7 +17192,7 @@
         <v>2.6659221439</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>1.3016297872</v>
       </c>
       <c r="I455" t="s">
         <v>939</v>
@@ -17356,13 +17354,13 @@
         <v>6.9557933105999998</v>
       </c>
       <c r="H461">
-        <v>1756707.6370999999</v>
+        <v>1479997.5989000001</v>
       </c>
       <c r="I461" t="s">
         <v>952</v>
       </c>
       <c r="J461">
-        <v>10.255626113</v>
+        <v>9.7238428626999998</v>
       </c>
     </row>
     <row r="462" spans="1:10" x14ac:dyDescent="0.3">
@@ -17379,7 +17377,7 @@
         <v>575</v>
       </c>
       <c r="E462">
-        <v>0</v>
+        <v>0.52844622793999996</v>
       </c>
       <c r="F462">
         <v>1.5111980375E-2</v>
@@ -17388,13 +17386,13 @@
         <v>1.9971731017000001</v>
       </c>
       <c r="H462">
-        <v>7508.9244835</v>
+        <v>34520.550057</v>
       </c>
       <c r="I462" t="s">
         <v>939</v>
       </c>
       <c r="J462">
-        <v>1.6460091025000001</v>
+        <v>1.4073052579000001</v>
       </c>
     </row>
     <row r="463" spans="1:10" x14ac:dyDescent="0.3">
@@ -17411,7 +17409,7 @@
         <v>903</v>
       </c>
       <c r="E463">
-        <v>0.24870158337000001</v>
+        <v>0.22635114485999999</v>
       </c>
       <c r="F463">
         <v>0.26243320512000001</v>
@@ -17420,13 +17418,13 @@
         <v>1.3666703065000001</v>
       </c>
       <c r="H463">
-        <v>4857.5928783999998</v>
+        <v>4501.8914979000001</v>
       </c>
       <c r="I463" t="s">
         <v>935</v>
       </c>
       <c r="J463">
-        <v>2.0363741028</v>
+        <v>2.0809023726000002</v>
       </c>
     </row>
     <row r="464" spans="1:10" x14ac:dyDescent="0.3">
@@ -17443,7 +17441,7 @@
         <v>904</v>
       </c>
       <c r="E464">
-        <v>0.24870158337000001</v>
+        <v>0.22635114485999999</v>
       </c>
       <c r="F464">
         <v>0.26243320512000001</v>
@@ -17452,13 +17450,13 @@
         <v>1.3666703065000001</v>
       </c>
       <c r="H464">
-        <v>9277.1102420999996</v>
+        <v>9578.3691686999991</v>
       </c>
       <c r="I464" t="s">
         <v>935</v>
       </c>
       <c r="J464">
-        <v>2.0615589415</v>
+        <v>2.1003500583000001</v>
       </c>
     </row>
     <row r="465" spans="1:10" x14ac:dyDescent="0.3">
@@ -17475,7 +17473,7 @@
         <v>577</v>
       </c>
       <c r="E465">
-        <v>0.24870158337000001</v>
+        <v>0.22635114485999999</v>
       </c>
       <c r="F465">
         <v>0.26243320512000001</v>
@@ -17484,13 +17482,13 @@
         <v>1.3666703065000001</v>
       </c>
       <c r="H465">
-        <v>282960.23126999999</v>
+        <v>250651.95288999999</v>
       </c>
       <c r="I465" t="s">
         <v>935</v>
       </c>
       <c r="J465">
-        <v>6.1576930687999996</v>
+        <v>6.2674587179000003</v>
       </c>
     </row>
     <row r="466" spans="1:10" x14ac:dyDescent="0.3">
@@ -17507,7 +17505,7 @@
         <v>905</v>
       </c>
       <c r="E466">
-        <v>7.8736958208999994E-2</v>
+        <v>5.8675570362000003E-2</v>
       </c>
       <c r="F466">
         <v>0.21567747178999999</v>
@@ -17516,13 +17514,13 @@
         <v>1.7927774057999999</v>
       </c>
       <c r="H466">
-        <v>544.94549212000004</v>
+        <v>881.90916860000004</v>
       </c>
       <c r="I466" t="s">
         <v>937</v>
       </c>
       <c r="J466">
-        <v>2.1011351167000001</v>
+        <v>2.0172554011999999</v>
       </c>
     </row>
     <row r="467" spans="1:10" x14ac:dyDescent="0.3">
@@ -17539,7 +17537,7 @@
         <v>579</v>
       </c>
       <c r="E467">
-        <v>7.8736958208999994E-2</v>
+        <v>5.8675570362000003E-2</v>
       </c>
       <c r="F467">
         <v>0.21567747178999999</v>
@@ -17548,13 +17546,13 @@
         <v>1.7927774057999999</v>
       </c>
       <c r="H467">
-        <v>13998.553851000001</v>
+        <v>13305.476140999999</v>
       </c>
       <c r="I467" t="s">
         <v>937</v>
       </c>
       <c r="J467">
-        <v>2.0633578585999999</v>
+        <v>1.9942717726000001</v>
       </c>
     </row>
     <row r="468" spans="1:10" x14ac:dyDescent="0.3">
@@ -17580,13 +17578,13 @@
         <v>1.3860691149</v>
       </c>
       <c r="H468">
-        <v>1345.9650893999999</v>
+        <v>2366.9789403999998</v>
       </c>
       <c r="I468" t="s">
         <v>947</v>
       </c>
       <c r="J468">
-        <v>0.66739822625</v>
+        <v>0.54983911460000001</v>
       </c>
     </row>
     <row r="469" spans="1:10" x14ac:dyDescent="0.3">
@@ -17612,13 +17610,13 @@
         <v>1.1636527458000001</v>
       </c>
       <c r="H469">
-        <v>4464.8617365</v>
+        <v>6373.9013784999997</v>
       </c>
       <c r="I469" t="s">
         <v>939</v>
       </c>
       <c r="J469">
-        <v>0.81490942453000004</v>
+        <v>0.96000848626000002</v>
       </c>
     </row>
     <row r="470" spans="1:10" x14ac:dyDescent="0.3">
@@ -17644,13 +17642,13 @@
         <v>1.3970464874999999</v>
       </c>
       <c r="H470">
-        <v>481.98870965999998</v>
+        <v>755.47128277000002</v>
       </c>
       <c r="I470" t="s">
         <v>943</v>
       </c>
       <c r="J470">
-        <v>0.35078882512999998</v>
+        <v>0.34652240020000002</v>
       </c>
     </row>
     <row r="471" spans="1:10" x14ac:dyDescent="0.3">
@@ -17667,7 +17665,7 @@
         <v>587</v>
       </c>
       <c r="E471">
-        <v>0.36783198304999998</v>
+        <v>0.46920840053000001</v>
       </c>
       <c r="F471">
         <v>0.55912139534000005</v>
@@ -17676,13 +17674,13 @@
         <v>2.6483047336999999</v>
       </c>
       <c r="H471">
-        <v>27442.633449000001</v>
+        <v>15713.942158</v>
       </c>
       <c r="I471" t="s">
         <v>940</v>
       </c>
       <c r="J471">
-        <v>4.3965532748999996</v>
+        <v>4.6409250027000004</v>
       </c>
     </row>
     <row r="472" spans="1:10" x14ac:dyDescent="0.3">
@@ -17734,7 +17732,7 @@
         <v>-838.88685819</v>
       </c>
       <c r="H473">
-        <v>1.8518518519</v>
+        <v>0</v>
       </c>
       <c r="I473" t="s">
         <v>942</v>
@@ -17763,7 +17761,7 @@
         <v>-838.88685819</v>
       </c>
       <c r="H474">
-        <v>5.8666649648</v>
+        <v>7.6401094190999999</v>
       </c>
       <c r="I474" t="s">
         <v>942</v>
@@ -17783,7 +17781,7 @@
         <v>907</v>
       </c>
       <c r="E475">
-        <v>1.3328994357999999</v>
+        <v>1.0104522219000001</v>
       </c>
       <c r="F475">
         <v>2.7391237964999999</v>
@@ -17821,7 +17819,7 @@
         <v>20.058392274999999</v>
       </c>
       <c r="H476">
-        <v>1.2407407407</v>
+        <v>6.2423690943999999</v>
       </c>
       <c r="I476" t="s">
         <v>937</v>
@@ -17850,10 +17848,13 @@
         <v>3.1134983153000002</v>
       </c>
       <c r="H477">
-        <v>32.076462133</v>
+        <v>79.071638000999997</v>
       </c>
       <c r="I477" t="s">
         <v>945</v>
+      </c>
+      <c r="J477">
+        <v>2.4079770870999999</v>
       </c>
     </row>
     <row r="478" spans="1:10" x14ac:dyDescent="0.3">
@@ -17879,13 +17880,13 @@
         <v>3.1134983153000002</v>
       </c>
       <c r="H478">
-        <v>104.58438343</v>
+        <v>229.77422676</v>
       </c>
       <c r="I478" t="s">
         <v>945</v>
       </c>
       <c r="J478">
-        <v>1.593840508</v>
+        <v>1.6442134294999999</v>
       </c>
     </row>
     <row r="479" spans="1:10" x14ac:dyDescent="0.3">
@@ -17902,7 +17903,7 @@
         <v>597</v>
       </c>
       <c r="E479">
-        <v>0.38509542190000001</v>
+        <v>0.39658814029</v>
       </c>
       <c r="F479">
         <v>0.61481960292000004</v>
@@ -17911,13 +17912,13 @@
         <v>8.3162974685000002</v>
       </c>
       <c r="H479">
-        <v>399871.70854000002</v>
+        <v>483625.46386999998</v>
       </c>
       <c r="I479" t="s">
         <v>945</v>
       </c>
       <c r="J479">
-        <v>8.1562899135000002</v>
+        <v>9.1633959194999992</v>
       </c>
     </row>
     <row r="480" spans="1:10" x14ac:dyDescent="0.3">
@@ -17943,13 +17944,13 @@
         <v>1.4041395947999999</v>
       </c>
       <c r="H480">
-        <v>73283.445026000001</v>
+        <v>127445.4915</v>
       </c>
       <c r="I480" t="s">
         <v>943</v>
       </c>
       <c r="J480">
-        <v>1.9338358308000001</v>
+        <v>2.3690817156000001</v>
       </c>
     </row>
     <row r="481" spans="1:10" x14ac:dyDescent="0.3">
@@ -17975,13 +17976,13 @@
         <v>1.4996648006</v>
       </c>
       <c r="H481">
-        <v>4258.5832958000001</v>
+        <v>4079.4682684999998</v>
       </c>
       <c r="I481" t="s">
         <v>939</v>
       </c>
       <c r="J481">
-        <v>2.5904405547999998</v>
+        <v>2.2453237156000001</v>
       </c>
     </row>
     <row r="482" spans="1:10" x14ac:dyDescent="0.3">
@@ -18007,7 +18008,7 @@
         <v>-15.432296753999999</v>
       </c>
       <c r="H482">
-        <v>0.34309545169</v>
+        <v>0.34692502412999998</v>
       </c>
       <c r="I482" t="s">
         <v>942</v>
@@ -18036,13 +18037,13 @@
         <v>-15.432296753999999</v>
       </c>
       <c r="H483">
-        <v>20.316619753000001</v>
+        <v>4.9759013590999999</v>
       </c>
       <c r="I483" t="s">
         <v>942</v>
       </c>
       <c r="J483">
-        <v>0.40475633668</v>
+        <v>0.40132951451999999</v>
       </c>
     </row>
     <row r="484" spans="1:10" x14ac:dyDescent="0.3">
@@ -18068,13 +18069,13 @@
         <v>2.0695597235999998</v>
       </c>
       <c r="H484">
-        <v>370856.25870000001</v>
+        <v>449857.45194</v>
       </c>
       <c r="I484" t="s">
         <v>945</v>
       </c>
       <c r="J484">
-        <v>2.8566802784999998</v>
+        <v>3.1575969732</v>
       </c>
     </row>
     <row r="485" spans="1:10" x14ac:dyDescent="0.3">
@@ -18100,13 +18101,13 @@
         <v>0.52681219695000003</v>
       </c>
       <c r="H485">
-        <v>1028.6193048</v>
+        <v>1493.0428945000001</v>
       </c>
       <c r="I485" t="s">
         <v>939</v>
       </c>
       <c r="J485">
-        <v>0.26444080663000002</v>
+        <v>0.19270888582000001</v>
       </c>
     </row>
     <row r="486" spans="1:10" x14ac:dyDescent="0.3">
@@ -18123,7 +18124,7 @@
         <v>609</v>
       </c>
       <c r="E486">
-        <v>9.1504447426000002E-2</v>
+        <v>8.3465499296000001E-2</v>
       </c>
       <c r="F486">
         <v>0.2545822264</v>
@@ -18132,13 +18133,13 @@
         <v>1.5943168758999999</v>
       </c>
       <c r="H486">
-        <v>426142.48368</v>
+        <v>348454.19981999998</v>
       </c>
       <c r="I486" t="s">
         <v>947</v>
       </c>
       <c r="J486">
-        <v>5.4741045890000004</v>
+        <v>5.2986103744999999</v>
       </c>
     </row>
     <row r="487" spans="1:10" x14ac:dyDescent="0.3">
@@ -18164,13 +18165,13 @@
         <v>0.54486619171999995</v>
       </c>
       <c r="H487">
-        <v>9377.8692284000008</v>
+        <v>9132.8483051000003</v>
       </c>
       <c r="I487" t="s">
         <v>941</v>
       </c>
       <c r="J487">
-        <v>1.9266401626</v>
+        <v>2.1091899155</v>
       </c>
     </row>
     <row r="488" spans="1:10" x14ac:dyDescent="0.3">
@@ -18196,13 +18197,13 @@
         <v>5.4728661706999997</v>
       </c>
       <c r="H488">
-        <v>187.96299955000001</v>
+        <v>360.42147439000001</v>
       </c>
       <c r="I488" t="s">
         <v>935</v>
       </c>
       <c r="J488">
-        <v>6.13250823</v>
+        <v>5.7034758317999996</v>
       </c>
     </row>
     <row r="489" spans="1:10" x14ac:dyDescent="0.3">
@@ -18228,13 +18229,13 @@
         <v>5.4728661706999997</v>
       </c>
       <c r="H489">
-        <v>288372.24968000001</v>
+        <v>292895.39262</v>
       </c>
       <c r="I489" t="s">
         <v>935</v>
       </c>
       <c r="J489">
-        <v>4.7239561783999999</v>
+        <v>4.3686574025000002</v>
       </c>
     </row>
     <row r="490" spans="1:10" x14ac:dyDescent="0.3">
@@ -18289,10 +18290,13 @@
         <v>1.2043121209000001</v>
       </c>
       <c r="H491">
-        <v>3.7880171034000001</v>
+        <v>9.0773039210000004</v>
       </c>
       <c r="I491" t="s">
         <v>939</v>
+      </c>
+      <c r="J491">
+        <v>2.4733920299999999</v>
       </c>
     </row>
     <row r="492" spans="1:10" x14ac:dyDescent="0.3">
@@ -18318,13 +18322,13 @@
         <v>1.5140179392999999</v>
       </c>
       <c r="H492">
-        <v>8646.3972515999994</v>
+        <v>8638.0051652999991</v>
       </c>
       <c r="I492" t="s">
         <v>943</v>
       </c>
       <c r="J492">
-        <v>0.87247477018999997</v>
+        <v>0.81680280046999998</v>
       </c>
     </row>
     <row r="493" spans="1:10" x14ac:dyDescent="0.3">
@@ -18350,13 +18354,13 @@
         <v>4.1644947529999996</v>
       </c>
       <c r="H493">
-        <v>565.44308606000004</v>
+        <v>3867.0670415999998</v>
       </c>
       <c r="I493" t="s">
         <v>940</v>
       </c>
       <c r="J493">
-        <v>0.66739822627000001</v>
+        <v>0.79028322902000003</v>
       </c>
     </row>
     <row r="494" spans="1:10" x14ac:dyDescent="0.3">
@@ -18382,13 +18386,13 @@
         <v>4.8271980005000001</v>
       </c>
       <c r="H494">
-        <v>50493.787867999999</v>
+        <v>55098.820760000002</v>
       </c>
       <c r="I494" t="s">
         <v>948</v>
       </c>
       <c r="J494">
-        <v>4.2508409936999998</v>
+        <v>4.8371698312999998</v>
       </c>
     </row>
     <row r="495" spans="1:10" x14ac:dyDescent="0.3">
@@ -18405,7 +18409,7 @@
         <v>623</v>
       </c>
       <c r="E495">
-        <v>0.13121539026000001</v>
+        <v>0.12677552775000001</v>
       </c>
       <c r="F495">
         <v>0.47643185336999999</v>
@@ -18414,13 +18418,13 @@
         <v>2.5179409016999998</v>
       </c>
       <c r="H495">
-        <v>337417.70503000001</v>
+        <v>665603.28656000004</v>
       </c>
       <c r="I495" t="s">
         <v>933</v>
       </c>
       <c r="J495">
-        <v>3.8856608322000001</v>
+        <v>4.1299812595000001</v>
       </c>
     </row>
     <row r="496" spans="1:10" x14ac:dyDescent="0.3">
@@ -18446,13 +18450,13 @@
         <v>0.58469500120999995</v>
       </c>
       <c r="H496">
-        <v>306.03418833000001</v>
+        <v>279.10329809000001</v>
       </c>
       <c r="I496" t="s">
         <v>939</v>
       </c>
       <c r="J496">
-        <v>0.38676716617000001</v>
+        <v>0.41016937166</v>
       </c>
     </row>
     <row r="497" spans="1:10" x14ac:dyDescent="0.3">
@@ -18469,7 +18473,7 @@
         <v>627</v>
       </c>
       <c r="E497">
-        <v>5.4791065239E-2</v>
+        <v>4.5931681624999998E-2</v>
       </c>
       <c r="F497">
         <v>8.8066464048999996E-2</v>
@@ -18478,13 +18482,13 @@
         <v>0.64345313076999999</v>
       </c>
       <c r="H497">
-        <v>3769.7667956999999</v>
+        <v>8459.5569018000006</v>
       </c>
       <c r="I497" t="s">
         <v>945</v>
       </c>
       <c r="J497">
-        <v>0.62062638292000005</v>
+        <v>0.67182914323999998</v>
       </c>
     </row>
     <row r="498" spans="1:10" x14ac:dyDescent="0.3">
@@ -18510,13 +18514,13 @@
         <v>4.4617514414999997</v>
       </c>
       <c r="H498">
-        <v>1627.1440539</v>
+        <v>1889.3521238000001</v>
       </c>
       <c r="I498" t="s">
         <v>949</v>
       </c>
       <c r="J498">
-        <v>8.5556494989999994</v>
+        <v>8.3784166047999999</v>
       </c>
     </row>
     <row r="499" spans="1:10" x14ac:dyDescent="0.3">
@@ -18542,13 +18546,13 @@
         <v>4.4617514414999997</v>
       </c>
       <c r="H499">
-        <v>118.86453733</v>
+        <v>176.23809707999999</v>
       </c>
       <c r="I499" t="s">
         <v>949</v>
       </c>
       <c r="J499">
-        <v>8.9406177480999993</v>
+        <v>8.6630600050000002</v>
       </c>
     </row>
     <row r="500" spans="1:10" x14ac:dyDescent="0.3">
@@ -18574,13 +18578,13 @@
         <v>4.4617514414999997</v>
       </c>
       <c r="H500">
-        <v>29631.63709</v>
+        <v>44897.493815000002</v>
       </c>
       <c r="I500" t="s">
         <v>949</v>
       </c>
       <c r="J500">
-        <v>8.7769162963999996</v>
+        <v>8.3589689191000005</v>
       </c>
     </row>
     <row r="501" spans="1:10" x14ac:dyDescent="0.3">
@@ -18632,13 +18636,13 @@
         <v>3.8769295161000001</v>
       </c>
       <c r="H502">
-        <v>15929.729111000001</v>
+        <v>10352.590899000001</v>
       </c>
       <c r="I502" t="s">
         <v>937</v>
       </c>
       <c r="J502">
-        <v>1.3725737106</v>
+        <v>1.0766946006</v>
       </c>
     </row>
     <row r="503" spans="1:10" x14ac:dyDescent="0.3">
@@ -18664,13 +18668,13 @@
         <v>3.8769295161000001</v>
       </c>
       <c r="H503">
-        <v>243715.63480999999</v>
+        <v>388645.69092999998</v>
       </c>
       <c r="I503" t="s">
         <v>937</v>
       </c>
       <c r="J503">
-        <v>1.4229433881</v>
+        <v>1.1014462006000001</v>
       </c>
     </row>
     <row r="504" spans="1:10" x14ac:dyDescent="0.3">
@@ -18696,7 +18700,7 @@
         <v>3.8769295161000001</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>1.2343269708</v>
       </c>
       <c r="I504" t="s">
         <v>937</v>
@@ -18716,7 +18720,7 @@
         <v>634</v>
       </c>
       <c r="E505">
-        <v>1.4200853263</v>
+        <v>1.3928935576999999</v>
       </c>
       <c r="F505">
         <v>1.7827791363000001</v>
@@ -18725,13 +18729,13 @@
         <v>8.7541521814000003</v>
       </c>
       <c r="H505">
-        <v>3960469.0093</v>
+        <v>6133670.1524999999</v>
       </c>
       <c r="I505" t="s">
         <v>946</v>
       </c>
       <c r="J505">
-        <v>11.192861897</v>
+        <v>10.533573777000001</v>
       </c>
     </row>
     <row r="506" spans="1:10" x14ac:dyDescent="0.3">
@@ -18748,7 +18752,7 @@
         <v>636</v>
       </c>
       <c r="E506">
-        <v>0.28391068984000001</v>
+        <v>0.32184315439</v>
       </c>
       <c r="F506">
         <v>0.75439764423</v>
@@ -18757,13 +18761,13 @@
         <v>3.8419724348000002</v>
       </c>
       <c r="H506">
-        <v>19682.935104</v>
+        <v>45868.274017000003</v>
       </c>
       <c r="I506" t="s">
         <v>939</v>
       </c>
       <c r="J506">
-        <v>2.7379517529999999</v>
+        <v>4.0221350022999998</v>
       </c>
     </row>
     <row r="507" spans="1:10" x14ac:dyDescent="0.3">
@@ -18789,13 +18793,13 @@
         <v>0.89585897793000002</v>
       </c>
       <c r="H507">
-        <v>176063.71995</v>
+        <v>294064.75232000003</v>
       </c>
       <c r="I507" t="s">
         <v>939</v>
       </c>
       <c r="J507">
-        <v>1.3617802082999999</v>
+        <v>1.3436582865</v>
       </c>
     </row>
     <row r="508" spans="1:10" x14ac:dyDescent="0.3">
@@ -18821,13 +18825,13 @@
         <v>1.8214841516</v>
       </c>
       <c r="H508">
-        <v>1975.1581452</v>
+        <v>309.65870645000001</v>
       </c>
       <c r="I508" t="s">
         <v>942</v>
       </c>
       <c r="J508">
-        <v>3.0761481588000001</v>
+        <v>2.2983628585</v>
       </c>
     </row>
     <row r="509" spans="1:10" x14ac:dyDescent="0.3">
@@ -18844,7 +18848,7 @@
         <v>640</v>
       </c>
       <c r="E509">
-        <v>0.28564869153</v>
+        <v>0.36963098347000001</v>
       </c>
       <c r="F509">
         <v>0.98270204163999997</v>
@@ -18853,13 +18857,13 @@
         <v>2.9716436146</v>
       </c>
       <c r="H509">
-        <v>567076.16780000005</v>
+        <v>908693.35973000003</v>
       </c>
       <c r="I509" t="s">
         <v>933</v>
       </c>
       <c r="J509">
-        <v>3.6757543465999998</v>
+        <v>4.5472225168999998</v>
       </c>
     </row>
     <row r="510" spans="1:10" x14ac:dyDescent="0.3">
@@ -18882,13 +18886,13 @@
         <v>3.3749284572999998</v>
       </c>
       <c r="H510">
-        <v>3523.3434784000001</v>
+        <v>2576.6808535999999</v>
       </c>
       <c r="I510" t="s">
         <v>939</v>
       </c>
       <c r="J510">
-        <v>2.2900214070999998</v>
+        <v>1.7927230296000001</v>
       </c>
     </row>
     <row r="511" spans="1:10" x14ac:dyDescent="0.3">
@@ -18914,13 +18918,13 @@
         <v>0.78531931127999999</v>
       </c>
       <c r="H511">
-        <v>14316.846482000001</v>
+        <v>10389.021318999999</v>
       </c>
       <c r="I511" t="s">
         <v>934</v>
       </c>
       <c r="J511">
-        <v>1.0505675583</v>
+        <v>1.0943743149</v>
       </c>
     </row>
     <row r="512" spans="1:10" x14ac:dyDescent="0.3">
@@ -18946,13 +18950,13 @@
         <v>1.6762995418</v>
       </c>
       <c r="H512">
-        <v>245737.97906000001</v>
+        <v>405668.44111999997</v>
       </c>
       <c r="I512" t="s">
         <v>941</v>
       </c>
       <c r="J512">
-        <v>3.7669323066999998</v>
+        <v>4.6709805170000003</v>
       </c>
     </row>
     <row r="513" spans="1:10" x14ac:dyDescent="0.3">
@@ -18978,13 +18982,13 @@
         <v>2.065203903</v>
       </c>
       <c r="H513">
-        <v>14449.287138</v>
+        <v>36112.951102999999</v>
       </c>
       <c r="I513" t="s">
         <v>941</v>
       </c>
       <c r="J513">
-        <v>0.40295741962999998</v>
+        <v>0.33591457161999999</v>
       </c>
     </row>
     <row r="514" spans="1:10" x14ac:dyDescent="0.3">
@@ -19010,13 +19014,13 @@
         <v>0.77625732923000001</v>
       </c>
       <c r="H514">
-        <v>999.16611179999995</v>
+        <v>670.25420327999996</v>
       </c>
       <c r="I514" t="s">
         <v>943</v>
       </c>
       <c r="J514">
-        <v>0.41734875604999999</v>
+        <v>0.41547328594999999</v>
       </c>
     </row>
     <row r="515" spans="1:10" x14ac:dyDescent="0.3">
@@ -19033,7 +19037,7 @@
         <v>650</v>
       </c>
       <c r="E515">
-        <v>0.62502712539000005</v>
+        <v>0.64000765631000001</v>
       </c>
       <c r="F515">
         <v>0.40160035219000001</v>
@@ -19042,13 +19046,13 @@
         <v>1.4635256570999999</v>
       </c>
       <c r="H515">
-        <v>29993.133956999998</v>
+        <v>53240.867201000001</v>
       </c>
       <c r="I515" t="s">
         <v>942</v>
       </c>
       <c r="J515">
-        <v>2.6605983198000001</v>
+        <v>3.1240055161</v>
       </c>
     </row>
     <row r="516" spans="1:10" x14ac:dyDescent="0.3">
@@ -19074,13 +19078,13 @@
         <v>2.020722336</v>
       </c>
       <c r="H516">
-        <v>275.01441642999998</v>
+        <v>290.20314132999999</v>
       </c>
       <c r="I516" t="s">
         <v>941</v>
       </c>
       <c r="J516">
-        <v>0.64221338754000001</v>
+        <v>0.65238145751999999</v>
       </c>
     </row>
     <row r="517" spans="1:10" x14ac:dyDescent="0.3">
@@ -19097,7 +19101,7 @@
         <v>654</v>
       </c>
       <c r="E517">
-        <v>0.12850398299999999</v>
+        <v>0.14206844955</v>
       </c>
       <c r="F517">
         <v>0.27443944130999998</v>
@@ -19106,13 +19110,13 @@
         <v>0.83047019483999995</v>
       </c>
       <c r="H517">
-        <v>1139886.476</v>
+        <v>1632958.5319999999</v>
       </c>
       <c r="I517" t="s">
         <v>938</v>
       </c>
       <c r="J517">
-        <v>7.5783401920999998</v>
+        <v>9.5735652911999995</v>
       </c>
     </row>
     <row r="518" spans="1:10" x14ac:dyDescent="0.3">
@@ -19138,13 +19142,13 @@
         <v>0.43515138930000002</v>
       </c>
       <c r="H518">
-        <v>194.53564076000001</v>
+        <v>161.71042757000001</v>
       </c>
       <c r="I518" t="s">
         <v>941</v>
       </c>
       <c r="J518">
-        <v>0.15650578352</v>
+        <v>0.15911742866</v>
       </c>
     </row>
     <row r="519" spans="1:10" x14ac:dyDescent="0.3">
@@ -19199,13 +19203,13 @@
         <v>-0.52138750815000001</v>
       </c>
       <c r="H520">
-        <v>138.06963787000001</v>
+        <v>12.656506954999999</v>
       </c>
       <c r="I520" t="s">
         <v>948</v>
       </c>
       <c r="J520">
-        <v>1.4805087337</v>
+        <v>1.6265337151999999</v>
       </c>
     </row>
     <row r="521" spans="1:10" x14ac:dyDescent="0.3">
@@ -19231,13 +19235,13 @@
         <v>0.29830241722</v>
       </c>
       <c r="H521">
-        <v>20.735646103000001</v>
+        <v>23.146590555</v>
       </c>
       <c r="I521" t="s">
         <v>951</v>
       </c>
       <c r="J521">
-        <v>0.79692025401</v>
+        <v>0.753155829</v>
       </c>
     </row>
     <row r="522" spans="1:10" x14ac:dyDescent="0.3">
@@ -19263,13 +19267,13 @@
         <v>0.29830241722</v>
       </c>
       <c r="H522">
-        <v>140.17802373999999</v>
+        <v>106.41889061000001</v>
       </c>
       <c r="I522" t="s">
         <v>951</v>
       </c>
       <c r="J522">
-        <v>0.81850725862999996</v>
+        <v>0.79735511473999998</v>
       </c>
     </row>
     <row r="523" spans="1:10" x14ac:dyDescent="0.3">
@@ -19286,7 +19290,7 @@
         <v>662</v>
       </c>
       <c r="E523">
-        <v>0.15647143522000001</v>
+        <v>0.20175992008999999</v>
       </c>
       <c r="F523">
         <v>0.19156402513000001</v>
@@ -19295,13 +19299,13 @@
         <v>1.1167264080999999</v>
       </c>
       <c r="H523">
-        <v>20992.734547</v>
+        <v>39858.245401</v>
       </c>
       <c r="I523" t="s">
         <v>940</v>
       </c>
       <c r="J523">
-        <v>2.6926453063000002</v>
+        <v>3.0409108588999998</v>
       </c>
     </row>
     <row r="524" spans="1:10" x14ac:dyDescent="0.3">
@@ -19327,13 +19331,13 @@
         <v>0.64979009954</v>
       </c>
       <c r="H524">
-        <v>7297.2845546999997</v>
+        <v>11131.716143</v>
       </c>
       <c r="I524" t="s">
         <v>936</v>
       </c>
       <c r="J524">
-        <v>1.0271816367</v>
+        <v>1.0908383720999999</v>
       </c>
     </row>
     <row r="525" spans="1:10" x14ac:dyDescent="0.3">
@@ -19350,7 +19354,7 @@
         <v>919</v>
       </c>
       <c r="E525">
-        <v>0.25614232418999999</v>
+        <v>0.25175284614999999</v>
       </c>
       <c r="F525">
         <v>0.64536794247999996</v>
@@ -19359,10 +19363,13 @@
         <v>4.0037656474999999</v>
       </c>
       <c r="H525">
-        <v>1.7506887583999999</v>
+        <v>13.864123647</v>
       </c>
       <c r="I525" t="s">
         <v>941</v>
+      </c>
+      <c r="J525">
+        <v>5.0917577172000001</v>
       </c>
     </row>
     <row r="526" spans="1:10" x14ac:dyDescent="0.3">
@@ -19379,7 +19386,7 @@
         <v>664</v>
       </c>
       <c r="E526">
-        <v>0.28175597137000002</v>
+        <v>0.27692754547999998</v>
       </c>
       <c r="F526">
         <v>0.64536794247999996</v>
@@ -19388,13 +19395,13 @@
         <v>4.0037656474999999</v>
       </c>
       <c r="H526">
-        <v>67.971111761000003</v>
+        <v>75.309125366000004</v>
       </c>
       <c r="I526" t="s">
         <v>941</v>
       </c>
       <c r="J526">
-        <v>5.6485995430999996</v>
+        <v>6.3646971465000002</v>
       </c>
     </row>
     <row r="527" spans="1:10" x14ac:dyDescent="0.3">
@@ -19437,7 +19444,7 @@
         <v>667</v>
       </c>
       <c r="E528">
-        <v>0.10876392595000001</v>
+        <v>5.3472679877000003E-2</v>
       </c>
       <c r="F528">
         <v>0.10598486128</v>
@@ -19446,13 +19453,13 @@
         <v>2.1960572225999999</v>
       </c>
       <c r="H528">
-        <v>200604.2499</v>
+        <v>179925.51949000001</v>
       </c>
       <c r="I528" t="s">
         <v>939</v>
       </c>
       <c r="J528">
-        <v>1.8726726511</v>
+        <v>1.7414518581</v>
       </c>
     </row>
     <row r="529" spans="1:10" x14ac:dyDescent="0.3">
@@ -19465,7 +19472,7 @@
       <c r="C529" t="s">
         <v>3</v>
       </c>
-      <c r="D529" t="s">
+      <c r="D529" s="4" t="s">
         <v>669</v>
       </c>
       <c r="E529">
@@ -19478,13 +19485,13 @@
         <v>0.96505709043999999</v>
       </c>
       <c r="H529">
-        <v>13589.458068</v>
+        <v>10207.094868</v>
       </c>
       <c r="I529" t="s">
         <v>939</v>
       </c>
       <c r="J529">
-        <v>0.67279497742000005</v>
+        <v>0.53923128602000003</v>
       </c>
     </row>
   </sheetData>
